--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\SpecificheIndicatori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Plan team" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$129</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="416">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1489,12 +1489,27 @@
   <si>
     <t>Alberto Collu</t>
   </si>
+  <si>
+    <t>fare il nodo "scelta del peggiore"</t>
+  </si>
+  <si>
+    <t>MC/AC</t>
+  </si>
+  <si>
+    <t>BR149</t>
+  </si>
+  <si>
+    <t>IND_88</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_88_FL_OVERRIDE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2076,57 +2091,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="132">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3763,13 +3728,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" customWidth="1"/>
@@ -3783,7 +3748,7 @@
     <col min="10" max="10" width="73.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -3813,7 +3778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="2" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -3843,7 +3808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="3" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -3875,7 +3840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="4" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -3905,7 +3870,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="5" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -3935,7 +3900,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="6" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -3966,7 +3931,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="7" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -3995,7 +3960,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="8" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -4024,7 +3989,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="9" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -4053,7 +4018,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="10" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -4082,7 +4047,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="11" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -4111,7 +4076,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="12" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -4142,7 +4107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="13" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -4171,7 +4136,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="14" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -4200,7 +4165,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="15" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -4229,7 +4194,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" ht="15.6" hidden="1" customHeight="1">
+    <row r="16" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -4258,7 +4223,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="17" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -4289,7 +4254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="18" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -4318,7 +4283,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="19" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -4347,7 +4312,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="20" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -4378,7 +4343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="21" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -4407,7 +4372,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -4436,7 +4401,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="23" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -4465,7 +4430,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="24" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -4494,7 +4459,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="25" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -4523,7 +4488,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="26" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -4552,7 +4517,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="27" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -4581,7 +4546,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="28" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -4610,7 +4575,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="29" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -4639,7 +4604,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="30" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -4668,7 +4633,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="31" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -4697,7 +4662,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="32" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -4728,7 +4693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -4757,7 +4722,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -4786,7 +4751,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -4815,7 +4780,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="36" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -4844,7 +4809,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -4873,7 +4838,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -4902,7 +4867,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="39" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -4931,7 +4896,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -4960,7 +4925,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -4991,7 +4956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -5020,7 +4985,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="43" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -5051,7 +5016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="44" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -5082,7 +5047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="45" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -5113,7 +5078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="46" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -5144,7 +5109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
@@ -5175,7 +5140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
@@ -5196,7 +5161,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="49" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -5227,7 +5192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="50" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -5258,7 +5223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="51" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -5289,7 +5254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="52" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5319,7 +5284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5349,7 +5314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5371,7 +5336,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5397,7 +5362,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5427,7 +5392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="57" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5457,7 +5422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="58" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5485,7 +5450,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5509,7 +5474,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5535,7 +5500,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="61" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5565,7 +5530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5589,7 +5554,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5617,7 +5582,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5647,7 +5612,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="65" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5677,7 +5642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5703,7 +5668,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5727,7 +5692,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" hidden="1">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -5755,7 +5720,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" hidden="1">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -5783,7 +5748,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10" hidden="1">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -5813,7 +5778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -5827,8 +5792,12 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+      <c r="F71" s="13">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13">
+        <v>1</v>
+      </c>
       <c r="H71" s="5">
         <v>1</v>
       </c>
@@ -5839,7 +5808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -5869,7 +5838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="73" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -5899,7 +5868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="74" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -5929,7 +5898,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -5953,7 +5922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5981,7 +5950,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6007,7 +5976,7 @@
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6033,7 +6002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6059,7 +6028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="7">
         <f>+B79+1</f>
         <v>79</v>
@@ -6083,7 +6052,7 @@
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="2:10" hidden="1">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7">
         <f>+B80+1</f>
         <v>80</v>
@@ -6113,7 +6082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7">
         <f t="shared" ref="B82:B98" si="1">+B81+1</f>
         <v>81</v>
@@ -6139,7 +6108,7 @@
       </c>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6165,7 +6134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="7">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6191,7 +6160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="7">
         <f>+B84+1</f>
         <v>84</v>
@@ -6217,7 +6186,7 @@
       </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6243,7 +6212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="7">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6267,7 +6236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="7">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6289,7 +6258,7 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="7">
         <f>+B88+1</f>
         <v>88</v>
@@ -6301,7 +6270,7 @@
         <v>24</v>
       </c>
       <c r="E89" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -6313,7 +6282,7 @@
       </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6337,7 +6306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6361,7 +6330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6375,8 +6344,12 @@
       <c r="E92" s="13">
         <v>1</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="F92" s="13">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13">
+        <v>1</v>
+      </c>
       <c r="H92" s="5">
         <v>1</v>
       </c>
@@ -6387,7 +6360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6401,8 +6374,12 @@
       <c r="E93" s="13">
         <v>1</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+      <c r="F93" s="13">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13">
+        <v>1</v>
+      </c>
       <c r="H93" s="5">
         <v>1</v>
       </c>
@@ -6413,7 +6390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6427,8 +6404,12 @@
       <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13">
+        <v>1</v>
+      </c>
       <c r="H94" s="5">
         <v>2</v>
       </c>
@@ -6439,7 +6420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="2:10" hidden="1">
+    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6469,7 +6450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6483,8 +6464,12 @@
       <c r="E96" s="13">
         <v>1</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
+      <c r="F96" s="13">
+        <v>1</v>
+      </c>
+      <c r="G96" s="13">
+        <v>1</v>
+      </c>
       <c r="H96" s="5">
         <v>2</v>
       </c>
@@ -6495,7 +6480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="2:10" hidden="1">
+    <row r="97" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6523,7 +6508,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="2:10" hidden="1">
+    <row r="98" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6551,7 +6536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
         <f t="shared" ref="B99" si="2">+B98+1</f>
         <v>98</v>
@@ -6562,7 +6547,9 @@
       <c r="D99" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="13"/>
+      <c r="E99" s="13">
+        <v>0.05</v>
+      </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="5">
@@ -6575,7 +6562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:10" hidden="1">
+    <row r="100" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7">
         <f t="shared" ref="B100" si="3">+B99+1</f>
         <v>99</v>
@@ -6603,9 +6590,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B121" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B122" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -6629,7 +6616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="7">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -6640,7 +6627,9 @@
       <c r="D102" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E102" s="13"/>
+      <c r="E102" s="13">
+        <v>0.1</v>
+      </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="5">
@@ -6653,7 +6642,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="7">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -6677,7 +6666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="7">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -6701,7 +6690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="7">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -6727,7 +6716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="7">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -6751,7 +6740,7 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="7">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -6777,7 +6766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="7">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -6801,7 +6790,7 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="7">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -6823,7 +6812,7 @@
       </c>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7">
         <f t="shared" si="4"/>
         <v>109</v>
@@ -6837,8 +6826,12 @@
       <c r="E110" s="13">
         <v>1</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
+      <c r="F110" s="13">
+        <v>1</v>
+      </c>
+      <c r="G110" s="13">
+        <v>1</v>
+      </c>
       <c r="H110" s="5">
         <v>1</v>
       </c>
@@ -6849,7 +6842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -6860,9 +6853,15 @@
       <c r="D111" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
+      <c r="E111" s="13">
+        <v>1</v>
+      </c>
+      <c r="F111" s="13">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13">
+        <v>1</v>
+      </c>
       <c r="H111" s="5">
         <v>1</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7">
         <f t="shared" si="4"/>
         <v>111</v>
@@ -6884,9 +6883,15 @@
       <c r="D112" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
+      <c r="E112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="13">
+        <v>1</v>
+      </c>
+      <c r="G112" s="13">
+        <v>1</v>
+      </c>
       <c r="H112" s="5">
         <v>1</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="7">
         <f t="shared" si="4"/>
         <v>112</v>
@@ -6923,7 +6928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="7">
         <f t="shared" si="4"/>
         <v>113</v>
@@ -6947,7 +6952,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="7">
         <f t="shared" si="4"/>
         <v>114</v>
@@ -6971,7 +6976,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -6995,7 +7000,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -7019,7 +7024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -7045,7 +7050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -7057,7 +7062,7 @@
         <v>258</v>
       </c>
       <c r="E119" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
@@ -7069,7 +7074,7 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="7">
         <f t="shared" si="4"/>
         <v>119</v>
@@ -7093,7 +7098,7 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="7">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -7104,7 +7109,9 @@
       <c r="D121" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E121" s="13"/>
+      <c r="E121" s="13">
+        <v>1</v>
+      </c>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
       <c r="H121" s="5">
@@ -7115,730 +7122,727 @@
       </c>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="2:10">
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="C123" s="31" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="7">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="5">
+        <v>3</v>
+      </c>
+      <c r="I122" s="5">
+        <v>2</v>
+      </c>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C124" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
-      <c r="C124" s="31" t="s">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C125" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
-      <c r="C125" s="31" t="s">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C126" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="C126" s="31" t="s">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C127" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
-      <c r="C127" s="38" t="s">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C128" s="38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
-      <c r="C128" s="38" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="38" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J128">
+  <autoFilter ref="B1:J129">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
-    <cfRule type="cellIs" dxfId="136" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="135" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="134" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="133" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="132" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="131" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="130" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="129" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="128" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="156" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="127" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="155" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="126" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="125" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="124" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="123" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="121" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="149" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="120" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="119" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="147" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="118" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="117" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="116" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="115" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="114" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="113" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="112" priority="132" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="111" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="110" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="109" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="108" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="107" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="106" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="105" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="104" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="103" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="102" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="101" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="99" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="123" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="98" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="97" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="96" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="95" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="94" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="93" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="92" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="91" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="90" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="89" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="87" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="86" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="85" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="83" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="81" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="80" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="79" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="103" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="72" priority="92" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:G95">
+    <cfRule type="cellIs" dxfId="71" priority="89" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
+    <cfRule type="cellIs" dxfId="70" priority="88" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="69" priority="85" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="65" priority="81" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="63" priority="79" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="62" priority="78" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99:E100">
+    <cfRule type="cellIs" dxfId="61" priority="72" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="60" priority="74" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="59" priority="73" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="56" priority="70" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104:G104">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104:G104">
+    <cfRule type="cellIs" dxfId="50" priority="64" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="49" priority="62" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
+    <cfRule type="cellIs" dxfId="42" priority="55" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106:G106">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106:G106">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:G107">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:G107">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:G108">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:G108">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:G109">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:G109">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114:G117">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E117">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114:G117">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:G121">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:G121">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120:E121">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:G122">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:G122">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111:G112">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:G96 F93:G94">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="77" priority="93" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:G93">
-    <cfRule type="cellIs" dxfId="75" priority="85" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93:G93">
-    <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
-    <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="55" priority="63" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="33" priority="40" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7856,7 +7860,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
@@ -7864,7 +7868,7 @@
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
         <v>169</v>
@@ -7876,7 +7880,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>171</v>
       </c>
@@ -7886,7 +7890,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
@@ -7896,7 +7900,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>174</v>
       </c>
@@ -7906,7 +7910,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>175</v>
       </c>
@@ -7917,7 +7921,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>176</v>
       </c>
@@ -7927,7 +7931,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>177</v>
       </c>
@@ -7937,7 +7941,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>178</v>
       </c>
@@ -7947,7 +7951,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>179</v>
       </c>
@@ -7957,7 +7961,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>180</v>
       </c>
@@ -7967,7 +7971,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>181</v>
       </c>
@@ -7977,7 +7981,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>183</v>
       </c>
@@ -7987,7 +7991,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>184</v>
       </c>
@@ -7997,7 +8001,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>185</v>
       </c>
@@ -8007,7 +8011,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>186</v>
       </c>
@@ -8025,13 +8029,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F124"/>
+  <dimension ref="B2:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="32.8984375" bestFit="1" customWidth="1"/>
@@ -8041,7 +8045,7 @@
     <col min="6" max="6" width="24.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="72" t="s">
         <v>351</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>276</v>
       </c>
@@ -8069,7 +8073,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>277</v>
       </c>
@@ -8080,7 +8084,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>298</v>
       </c>
@@ -8091,7 +8095,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>299</v>
       </c>
@@ -8102,7 +8106,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>300</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>301</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>302</v>
       </c>
@@ -8135,7 +8139,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>303</v>
       </c>
@@ -8146,7 +8150,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>304</v>
       </c>
@@ -8157,7 +8161,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>305</v>
       </c>
@@ -8168,7 +8172,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>306</v>
       </c>
@@ -8179,7 +8183,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>307</v>
       </c>
@@ -8190,7 +8194,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>308</v>
       </c>
@@ -8201,7 +8205,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>289</v>
       </c>
@@ -8212,7 +8216,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>278</v>
       </c>
@@ -8223,7 +8227,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>291</v>
       </c>
@@ -8234,7 +8238,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>290</v>
       </c>
@@ -8245,7 +8249,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>279</v>
       </c>
@@ -8256,7 +8260,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>354</v>
       </c>
@@ -8267,7 +8271,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>356</v>
       </c>
@@ -8278,7 +8282,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>355</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>357</v>
       </c>
@@ -8300,7 +8304,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>391</v>
       </c>
@@ -8311,7 +8315,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>396</v>
       </c>
@@ -8322,7 +8326,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>392</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>397</v>
       </c>
@@ -8344,7 +8348,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>393</v>
       </c>
@@ -8355,7 +8359,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>398</v>
       </c>
@@ -8366,7 +8370,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>399</v>
       </c>
@@ -8377,7 +8381,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>394</v>
       </c>
@@ -8388,7 +8392,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>395</v>
       </c>
@@ -8399,7 +8403,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>400</v>
       </c>
@@ -8410,7 +8414,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>373</v>
       </c>
@@ -8421,7 +8425,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>385</v>
       </c>
@@ -8432,7 +8436,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>374</v>
       </c>
@@ -8443,7 +8447,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>386</v>
       </c>
@@ -8454,7 +8458,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>375</v>
       </c>
@@ -8465,7 +8469,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>387</v>
       </c>
@@ -8476,7 +8480,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>376</v>
       </c>
@@ -8487,7 +8491,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>388</v>
       </c>
@@ -8498,7 +8502,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>377</v>
       </c>
@@ -8509,7 +8513,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>389</v>
       </c>
@@ -8520,7 +8524,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>378</v>
       </c>
@@ -8531,7 +8535,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>390</v>
       </c>
@@ -8542,7 +8546,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>361</v>
       </c>
@@ -8553,7 +8557,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>364</v>
       </c>
@@ -8564,7 +8568,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>358</v>
       </c>
@@ -8575,7 +8579,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>360</v>
       </c>
@@ -8586,7 +8590,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>362</v>
       </c>
@@ -8597,7 +8601,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>365</v>
       </c>
@@ -8608,7 +8612,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>363</v>
       </c>
@@ -8619,7 +8623,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>366</v>
       </c>
@@ -8630,7 +8634,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>359</v>
       </c>
@@ -8641,7 +8645,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>292</v>
       </c>
@@ -8652,7 +8656,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>294</v>
       </c>
@@ -8663,7 +8667,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>293</v>
       </c>
@@ -8674,7 +8678,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>295</v>
       </c>
@@ -8685,7 +8689,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>309</v>
       </c>
@@ -8696,7 +8700,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>320</v>
       </c>
@@ -8707,7 +8711,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8718,7 +8722,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>321</v>
       </c>
@@ -8729,7 +8733,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>311</v>
       </c>
@@ -8740,7 +8744,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>322</v>
       </c>
@@ -8751,7 +8755,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>323</v>
       </c>
@@ -8762,7 +8766,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>312</v>
       </c>
@@ -8773,7 +8777,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>313</v>
       </c>
@@ -8784,7 +8788,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>324</v>
       </c>
@@ -8795,7 +8799,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>314</v>
       </c>
@@ -8806,7 +8810,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>367</v>
       </c>
@@ -8817,7 +8821,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>325</v>
       </c>
@@ -8828,7 +8832,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>379</v>
       </c>
@@ -8839,7 +8843,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>315</v>
       </c>
@@ -8850,7 +8854,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>368</v>
       </c>
@@ -8861,7 +8865,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>326</v>
       </c>
@@ -8872,7 +8876,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>380</v>
       </c>
@@ -8883,7 +8887,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>316</v>
       </c>
@@ -8894,7 +8898,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>369</v>
       </c>
@@ -8905,7 +8909,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>327</v>
       </c>
@@ -8916,7 +8920,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>381</v>
       </c>
@@ -8927,7 +8931,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>317</v>
       </c>
@@ -8938,7 +8942,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>370</v>
       </c>
@@ -8949,7 +8953,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>328</v>
       </c>
@@ -8960,7 +8964,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>382</v>
       </c>
@@ -8971,7 +8975,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>318</v>
       </c>
@@ -8982,7 +8986,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>371</v>
       </c>
@@ -8993,7 +8997,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>329</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>383</v>
       </c>
@@ -9015,7 +9019,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>319</v>
       </c>
@@ -9026,7 +9030,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>372</v>
       </c>
@@ -9037,7 +9041,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>330</v>
       </c>
@@ -9048,7 +9052,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>384</v>
       </c>
@@ -9059,7 +9063,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>283</v>
       </c>
@@ -9070,7 +9074,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>286</v>
       </c>
@@ -9081,7 +9085,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>280</v>
       </c>
@@ -9092,7 +9096,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>282</v>
       </c>
@@ -9103,7 +9107,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>285</v>
       </c>
@@ -9114,7 +9118,7 @@
       <c r="E98" s="7"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>288</v>
       </c>
@@ -9125,7 +9129,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>284</v>
       </c>
@@ -9136,7 +9140,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>287</v>
       </c>
@@ -9147,7 +9151,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>281</v>
       </c>
@@ -9158,7 +9162,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>337</v>
       </c>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>338</v>
       </c>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>339</v>
       </c>
@@ -9191,7 +9195,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>340</v>
       </c>
@@ -9202,7 +9206,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>341</v>
       </c>
@@ -9213,7 +9217,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>342</v>
       </c>
@@ -9224,7 +9228,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>343</v>
       </c>
@@ -9235,7 +9239,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>344</v>
       </c>
@@ -9246,7 +9250,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>345</v>
       </c>
@@ -9257,7 +9261,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>346</v>
       </c>
@@ -9268,7 +9272,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>347</v>
       </c>
@@ -9279,7 +9283,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>348</v>
       </c>
@@ -9290,7 +9294,7 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>349</v>
       </c>
@@ -9301,7 +9305,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>333</v>
       </c>
@@ -9312,7 +9316,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>331</v>
       </c>
@@ -9323,7 +9327,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>335</v>
       </c>
@@ -9334,7 +9338,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>334</v>
       </c>
@@ -9345,7 +9349,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>332</v>
       </c>
@@ -9356,7 +9360,7 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="74" t="s">
         <v>275</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="74" t="s">
         <v>296</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="74" t="s">
         <v>297</v>
       </c>
@@ -9395,7 +9399,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="74" t="s">
         <v>336</v>
       </c>
@@ -9407,6 +9411,39 @@
       <c r="F124" s="32" t="s">
         <v>350</v>
       </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B3:F124">
@@ -9422,13 +9459,13 @@
   <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="6" style="16" bestFit="1" customWidth="1"/>
@@ -9444,7 +9481,7 @@
     <col min="35" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="15.6">
+    <row r="1" spans="2:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="26" t="str">
         <f ca="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"]",""),"")</f>
         <v/>
@@ -9495,11 +9532,11 @@
       </c>
       <c r="P1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="Q1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -9570,7 +9607,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:34">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>69</v>
       </c>
@@ -9701,12 +9738,12 @@
         <v>42912</v>
       </c>
     </row>
-    <row r="3" spans="2:34">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="22">
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -9741,12 +9778,12 @@
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
     </row>
-    <row r="4" spans="2:34">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="22">
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -9785,12 +9822,12 @@
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
     </row>
-    <row r="5" spans="2:34">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -9825,12 +9862,12 @@
       <c r="AG5" s="23"/>
       <c r="AH5" s="23"/>
     </row>
-    <row r="6" spans="2:34">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -9869,12 +9906,12 @@
       <c r="AG6" s="23"/>
       <c r="AH6" s="23"/>
     </row>
-    <row r="7" spans="2:34">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -9913,12 +9950,12 @@
       <c r="AG7" s="23"/>
       <c r="AH7" s="23"/>
     </row>
-    <row r="8" spans="2:34">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -9957,12 +9994,12 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
     </row>
-    <row r="9" spans="2:34">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -9999,12 +10036,12 @@
       <c r="AG9" s="23"/>
       <c r="AH9" s="23"/>
     </row>
-    <row r="10" spans="2:34">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>117</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -10043,12 +10080,12 @@
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -10085,12 +10122,12 @@
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
     </row>
-    <row r="12" spans="2:34">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>118</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
@@ -10129,12 +10166,12 @@
       <c r="AG12" s="23"/>
       <c r="AH12" s="23"/>
     </row>
-    <row r="13" spans="2:34">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>80</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D13" s="23"/>
@@ -10169,12 +10206,12 @@
       <c r="AG13" s="23"/>
       <c r="AH13" s="23"/>
     </row>
-    <row r="14" spans="2:34">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
         <v>82</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D14" s="23"/>
@@ -10213,12 +10250,12 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
     </row>
-    <row r="15" spans="2:34">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>83</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
@@ -10253,12 +10290,12 @@
       <c r="AG15" s="23"/>
       <c r="AH15" s="23"/>
     </row>
-    <row r="16" spans="2:34">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>85</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D16" s="23"/>
@@ -10286,7 +10323,9 @@
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="W16" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="28" t="s">
@@ -10301,12 +10340,12 @@
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
     </row>
-    <row r="17" spans="2:34">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>86</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
@@ -10341,12 +10380,12 @@
       <c r="AG17" s="23"/>
       <c r="AH17" s="23"/>
     </row>
-    <row r="18" spans="2:34">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>89</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>ISPRO - motore</v>
       </c>
       <c r="D18" s="23"/>
@@ -10377,7 +10416,9 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
+      <c r="AB18" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="37" t="s">
@@ -10387,12 +10428,12 @@
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
     </row>
-    <row r="19" spans="2:34">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>90</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>ISPRO - file test e TCK</v>
       </c>
       <c r="D19" s="23"/>
@@ -10427,12 +10468,12 @@
       <c r="AG19" s="23"/>
       <c r="AH19" s="23"/>
     </row>
-    <row r="20" spans="2:34">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>96</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D20" s="23"/>
@@ -10458,23 +10499,26 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
+      <c r="AA20" s="35" t="s">
+        <v>248</v>
+      </c>
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
+      <c r="AE20" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
       <c r="AH20" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:34">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>97</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D21" s="23"/>
@@ -10509,12 +10553,12 @@
       <c r="AG21" s="23"/>
       <c r="AH21" s="23"/>
     </row>
-    <row r="22" spans="2:34">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>100</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>VM - Retail: nodo Riempimento</v>
       </c>
       <c r="D22" s="23"/>
@@ -10549,12 +10593,12 @@
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
     </row>
-    <row r="23" spans="2:34">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>101</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D23" s="23"/>
@@ -10596,19 +10640,21 @@
       <c r="AB23" s="23"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
+      <c r="AE23" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
         <v>102</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D24" s="23"/>
@@ -10638,19 +10684,21 @@
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
+      <c r="AE24" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
       <c r="AH24" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
         <v>103</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D25" s="23"/>
@@ -10680,19 +10728,21 @@
       <c r="AB25" s="23"/>
       <c r="AC25" s="23"/>
       <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
+      <c r="AE25" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:34">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>114</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>ISBA - motore</v>
       </c>
       <c r="D26" s="23"/>
@@ -10726,19 +10776,21 @@
       <c r="AB26" s="39"/>
       <c r="AC26" s="39"/>
       <c r="AD26" s="39"/>
-      <c r="AE26" s="23"/>
+      <c r="AE26" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:34">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>115</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$307,2,FALSE)</f>
         <v>ISBA - file test e TCK</v>
       </c>
       <c r="D27" s="23"/>
@@ -10762,8 +10814,8 @@
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="23"/>
@@ -10773,43 +10825,43 @@
       <c r="AG27" s="23"/>
       <c r="AH27" s="23"/>
     </row>
-    <row r="29" spans="2:34">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" s="35"/>
       <c r="C29" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
       <c r="C33" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="61">
         <v>42782</v>
       </c>
@@ -10817,7 +10869,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="61">
         <v>42786</v>
       </c>
@@ -10825,7 +10877,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="61">
         <v>42790</v>
       </c>
@@ -10833,7 +10885,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="61">
         <v>42786</v>
       </c>
@@ -10841,7 +10893,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="61">
         <v>42796</v>
       </c>
@@ -10849,7 +10901,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="61">
         <v>42797</v>
       </c>
@@ -10857,7 +10909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="61">
         <v>42802</v>
       </c>
@@ -10865,7 +10917,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="61">
         <v>42803</v>
       </c>
@@ -10888,10 +10940,10 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.296875" style="16" customWidth="1"/>
     <col min="2" max="2" width="2.69921875" style="16" bestFit="1" customWidth="1"/>
@@ -10919,7 +10971,7 @@
     <col min="123" max="16384" width="6" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:122" ht="15.6">
+    <row r="1" spans="2:122" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="26" t="str">
         <f t="shared" ref="D1:E1" ca="1" si="0">IF(TODAY()=D2,"]","")</f>
         <v/>
@@ -10994,7 +11046,7 @@
       </c>
       <c r="V1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="W1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11010,7 +11062,7 @@
       </c>
       <c r="Z1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AA1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11393,7 +11445,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:122">
+    <row r="2" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>69</v>
       </c>
@@ -11872,7 +11924,7 @@
         <v>42928</v>
       </c>
     </row>
-    <row r="3" spans="2:122">
+    <row r="3" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B3" s="40">
         <v>1</v>
       </c>
@@ -12005,7 +12057,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="4" spans="2:122">
+    <row r="4" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B4" s="46">
         <f>+B3+1</f>
         <v>2</v>
@@ -12137,7 +12189,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="5" spans="2:122">
+    <row r="5" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B5" s="46">
         <f t="shared" ref="B5:B17" si="91">+B4+1</f>
         <v>3</v>
@@ -12269,7 +12321,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="6" spans="2:122">
+    <row r="6" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B6" s="46">
         <f t="shared" si="91"/>
         <v>4</v>
@@ -12407,7 +12459,7 @@
         <v>42839</v>
       </c>
     </row>
-    <row r="7" spans="2:122">
+    <row r="7" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B7" s="46">
         <f t="shared" si="91"/>
         <v>5</v>
@@ -12539,7 +12591,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="8" spans="2:122">
+    <row r="8" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <f t="shared" si="91"/>
         <v>6</v>
@@ -12671,7 +12723,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="9" spans="2:122">
+    <row r="9" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B9" s="46">
         <f t="shared" si="91"/>
         <v>7</v>
@@ -12803,7 +12855,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="10" spans="2:122">
+    <row r="10" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <f t="shared" si="91"/>
         <v>8</v>
@@ -12935,7 +12987,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="11" spans="2:122">
+    <row r="11" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B11" s="46">
         <f t="shared" si="91"/>
         <v>9</v>
@@ -13067,7 +13119,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="12" spans="2:122">
+    <row r="12" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
         <f t="shared" si="91"/>
         <v>10</v>
@@ -13199,7 +13251,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="13" spans="2:122">
+    <row r="13" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B13" s="46">
         <f t="shared" si="91"/>
         <v>11</v>
@@ -13331,7 +13383,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="14" spans="2:122">
+    <row r="14" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
         <f t="shared" si="91"/>
         <v>12</v>
@@ -13465,7 +13517,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="15" spans="2:122">
+    <row r="15" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B15" s="46">
         <f t="shared" si="91"/>
         <v>13</v>
@@ -13597,7 +13649,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="16" spans="2:122">
+    <row r="16" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B16" s="46">
         <f t="shared" si="91"/>
         <v>14</v>
@@ -13729,7 +13781,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="17" spans="2:122">
+    <row r="17" spans="2:122" x14ac:dyDescent="0.3">
       <c r="B17" s="46">
         <f t="shared" si="91"/>
         <v>15</v>
@@ -13861,28 +13913,28 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="19" spans="2:122">
+    <row r="19" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C19" s="59" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="2:122">
+    <row r="20" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C20" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="2:122">
+    <row r="21" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="2:122" ht="15.6">
+    <row r="22" spans="2:122" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
         <v>244</v>
       </c>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="2:122">
+    <row r="23" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C23" s="16" t="s">
         <v>245</v>
       </c>
@@ -13898,13 +13950,13 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="21.19921875" style="16" customWidth="1"/>
@@ -13918,7 +13970,7 @@
     <col min="178" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:177">
+    <row r="1" spans="2:177" x14ac:dyDescent="0.3">
       <c r="C1" s="65" t="str">
         <f t="shared" ref="C1" ca="1" si="0">IF(TODAY()=C2,"]","")</f>
         <v/>
@@ -13953,7 +14005,7 @@
       </c>
       <c r="K1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="L1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13969,7 +14021,7 @@
       </c>
       <c r="O1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="P1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14352,7 +14404,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:177">
+    <row r="2" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>246</v>
       </c>
@@ -15052,7 +15104,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="3" spans="2:177">
+    <row r="3" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
         <v>261</v>
       </c>
@@ -15289,7 +15341,7 @@
       <c r="FT3" s="69"/>
       <c r="FU3" s="69"/>
     </row>
-    <row r="4" spans="2:177">
+    <row r="4" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>262</v>
       </c>
@@ -15354,7 +15406,9 @@
       <c r="AW4" s="69"/>
       <c r="AX4" s="69"/>
       <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
+      <c r="AZ4" s="70" t="s">
+        <v>265</v>
+      </c>
       <c r="BA4" s="71" t="s">
         <v>273</v>
       </c>
@@ -15517,7 +15571,7 @@
       <c r="FT4" s="69"/>
       <c r="FU4" s="69"/>
     </row>
-    <row r="5" spans="2:177">
+    <row r="5" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
         <v>274</v>
       </c>
@@ -15537,7 +15591,9 @@
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
+      <c r="S5" s="67" t="s">
+        <v>263</v>
+      </c>
       <c r="T5" s="62"/>
       <c r="U5" s="62"/>
       <c r="V5" s="62"/>
@@ -15620,7 +15676,9 @@
       <c r="CG5" s="62"/>
       <c r="CH5" s="62"/>
       <c r="CI5" s="62"/>
-      <c r="CJ5" s="62"/>
+      <c r="CJ5" s="70" t="s">
+        <v>265</v>
+      </c>
       <c r="CK5" s="62"/>
       <c r="CL5" s="62"/>
       <c r="CM5" s="62"/>
@@ -15731,7 +15789,7 @@
       <c r="FT5" s="62"/>
       <c r="FU5" s="62"/>
     </row>
-    <row r="6" spans="2:177">
+    <row r="6" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B6" s="66" t="s">
         <v>401</v>
       </c>
@@ -15945,7 +16003,7 @@
       <c r="FT6" s="69"/>
       <c r="FU6" s="69"/>
     </row>
-    <row r="7" spans="2:177">
+    <row r="7" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B7" s="66" t="s">
         <v>410</v>
       </c>
@@ -16159,7 +16217,7 @@
       <c r="FT7" s="69"/>
       <c r="FU7" s="69"/>
     </row>
-    <row r="8" spans="2:177">
+    <row r="8" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B8" s="64" t="s">
         <v>269</v>
       </c>
@@ -16229,7 +16287,7 @@
       </c>
       <c r="S8" s="62">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="78"/>
@@ -16352,7 +16410,7 @@
       </c>
       <c r="AZ8" s="62">
         <f>COUNTBLANK(AZ3:AZ7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA8" s="62"/>
       <c r="BB8" s="62"/>
@@ -16484,7 +16542,7 @@
       </c>
       <c r="CJ8" s="62">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK8" s="62">
         <f t="shared" si="80"/>
@@ -16813,7 +16871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:177">
+    <row r="11" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B11" s="77" t="s">
         <v>270</v>
       </c>
@@ -16821,7 +16879,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="2:177">
+    <row r="12" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B12" s="78" t="s">
         <v>271</v>
       </c>
@@ -16829,7 +16887,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:177">
+    <row r="13" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B13" s="79" t="s">
         <v>266</v>
       </c>
@@ -16837,7 +16895,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="2:177">
+    <row r="14" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B14" s="80" t="s">
         <v>272</v>
       </c>
@@ -16845,7 +16903,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="2:177">
+    <row r="15" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B15" s="81" t="s">
         <v>267</v>
       </c>
@@ -16853,7 +16911,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="2:177">
+    <row r="16" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B16" s="82" t="s">
         <v>402</v>
       </c>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
     <sheet name="Rilascio 2701" sheetId="5" r:id="rId2"/>
     <sheet name="Rilascio 1003" sheetId="8" r:id="rId3"/>
-    <sheet name="Plan DEV" sheetId="4" r:id="rId4"/>
-    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId5"/>
-    <sheet name="Plan team" sheetId="7" r:id="rId6"/>
+    <sheet name="Rilascio 2403" sheetId="9" r:id="rId4"/>
+    <sheet name="Plan DEV" sheetId="4" r:id="rId5"/>
+    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId6"/>
+    <sheet name="Plan team" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$129</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="410">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -517,161 +518,6 @@
     <t>rilascio il 27/01</t>
   </si>
   <si>
-    <r>
-      <t>1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">override NOPG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file xls già inviato. Rimane da inserire </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entro lunedì</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in output i nuovi campi (indicatori override, br bis, ecc…)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">override 512 (Segnalazione a sofferenze) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> così chiudiamo il filone delle Segnalazione a sofferenze (BR12, BR212, prolungamento, ecc…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>override 25 e 525 (Cds con spread 5Y)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>override 36 e 536 (Avvio procedura concorsuale)</t>
-    </r>
-  </si>
-  <si>
     <t>MC/MD</t>
   </si>
   <si>
@@ -763,92 +609,6 @@
   </si>
   <si>
     <t>override Fitch Blu chiaro</t>
-  </si>
-  <si>
-    <r>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">override Fitch (solo segmento banche) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rosso.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">override Fitch (solo segmento banche) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> blu chiaro. </t>
-    </r>
   </si>
   <si>
     <t>SVILUPPO</t>
@@ -1509,7 +1269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1552,32 +1312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1615,8 +1349,7 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1927,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1982,8 +1715,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2015,7 +1748,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2027,7 +1760,7 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2048,17 +1781,11 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2087,6 +1814,13 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3730,8 +3464,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3760,7 +3494,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>106</v>
@@ -4524,7 +4258,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
@@ -5302,7 +5036,7 @@
         <v>34</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -5359,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5572,7 +5306,7 @@
         <v>34</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H63" s="5">
         <v>3</v>
@@ -5600,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -5710,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -5738,7 +5472,7 @@
         <v>34</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -5805,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6016,7 +5750,9 @@
       <c r="E79" s="13">
         <v>1</v>
       </c>
-      <c r="F79" s="13"/>
+      <c r="F79" s="13">
+        <v>1</v>
+      </c>
       <c r="G79" s="13"/>
       <c r="H79" s="5">
         <v>2</v>
@@ -6025,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
@@ -6098,7 +5834,7 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -6122,7 +5858,9 @@
       <c r="E83" s="13">
         <v>1</v>
       </c>
-      <c r="F83" s="13"/>
+      <c r="F83" s="13">
+        <v>1</v>
+      </c>
       <c r="G83" s="13"/>
       <c r="H83" s="5">
         <v>1</v>
@@ -6148,7 +5886,9 @@
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="13"/>
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
       <c r="G84" s="13"/>
       <c r="H84" s="5">
         <v>1</v>
@@ -6176,7 +5916,7 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -6264,7 +6004,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>24</v>
@@ -6272,7 +6012,9 @@
       <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="13"/>
+      <c r="F89" s="13">
+        <v>1</v>
+      </c>
       <c r="G89" s="13"/>
       <c r="H89" s="5">
         <v>1</v>
@@ -6288,7 +6030,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>131</v>
@@ -6312,7 +6054,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>131</v>
@@ -6387,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6417,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6477,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6486,7 +6228,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>59</v>
@@ -6496,7 +6238,7 @@
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H97" s="5">
         <v>2</v>
@@ -6505,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6514,17 +6256,17 @@
         <v>97</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -6533,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -6542,13 +6284,13 @@
         <v>98</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -6559,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6568,7 +6310,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>22</v>
@@ -6578,7 +6320,7 @@
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H100" s="5">
         <v>2</v>
@@ -6587,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
@@ -6596,15 +6338,17 @@
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="13"/>
+      <c r="F101" s="13">
+        <v>1</v>
+      </c>
       <c r="G101" s="13"/>
       <c r="H101" s="5">
         <v>2</v>
@@ -6613,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -6622,13 +6366,13 @@
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E102" s="13">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -6639,7 +6383,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
@@ -6648,10 +6392,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -6663,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
@@ -6672,10 +6416,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -6687,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
@@ -6696,7 +6440,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>23</v>
@@ -6704,7 +6448,9 @@
       <c r="E105" s="13">
         <v>1</v>
       </c>
-      <c r="F105" s="13"/>
+      <c r="F105" s="13">
+        <v>1</v>
+      </c>
       <c r="G105" s="13"/>
       <c r="H105" s="5">
         <v>2</v>
@@ -6713,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
@@ -6722,7 +6468,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>23</v>
@@ -6730,7 +6476,9 @@
       <c r="E106" s="13">
         <v>1</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="G106" s="13"/>
       <c r="H106" s="5">
         <v>3</v>
@@ -6746,13 +6494,13 @@
         <v>106</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>131</v>
       </c>
       <c r="E107" s="13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -6772,10 +6520,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E108" s="13">
         <v>1</v>
@@ -6796,10 +6544,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -6818,7 +6566,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>24</v>
@@ -6839,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6848,7 +6596,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>59</v>
@@ -6869,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6878,7 +6626,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>24</v>
@@ -6899,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
@@ -6908,13 +6656,13 @@
         <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E113" s="13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
@@ -6934,7 +6682,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>24</v>
@@ -6949,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
@@ -6958,7 +6706,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>61</v>
@@ -6973,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
@@ -6982,7 +6730,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>59</v>
@@ -6997,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
@@ -7006,7 +6754,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>59</v>
@@ -7021,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
@@ -7030,7 +6778,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>126</v>
@@ -7047,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -7056,15 +6804,17 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E119" s="13">
         <v>1</v>
       </c>
-      <c r="F119" s="13"/>
+      <c r="F119" s="13">
+        <v>1</v>
+      </c>
       <c r="G119" s="13"/>
       <c r="H119" s="5">
         <v>1</v>
@@ -7080,7 +6830,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>35</v>
@@ -7088,7 +6838,9 @@
       <c r="E120" s="13">
         <v>1</v>
       </c>
-      <c r="F120" s="13"/>
+      <c r="F120" s="13">
+        <v>1</v>
+      </c>
       <c r="G120" s="13"/>
       <c r="H120" s="5">
         <v>3</v>
@@ -7104,10 +6856,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E121" s="13">
         <v>1</v>
@@ -7128,10 +6880,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
@@ -7152,34 +6904,22 @@
       <c r="H123"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C124" s="31" t="s">
-        <v>161</v>
-      </c>
+      <c r="C124" s="31"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C125" s="31" t="s">
-        <v>162</v>
-      </c>
+      <c r="C125" s="31"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C126" s="31" t="s">
-        <v>163</v>
-      </c>
+      <c r="C126" s="31"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C127" s="31" t="s">
-        <v>164</v>
-      </c>
+      <c r="C127" s="31"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C128" s="38" t="s">
-        <v>196</v>
-      </c>
+      <c r="C128" s="38"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="38" t="s">
-        <v>197</v>
-      </c>
+      <c r="C129" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:J129">
@@ -7188,662 +6928,662 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
-    <cfRule type="cellIs" dxfId="131" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="130" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="129" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="128" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="127" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="126" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="125" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="124" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="123" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="122" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="121" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="120" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="119" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="118" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="117" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="156" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="116" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="155" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="115" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="114" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="113" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="112" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="111" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="110" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="149" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="109" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="108" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="147" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="107" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="106" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="105" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="104" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="103" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="102" priority="132" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="101" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="100" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="99" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="98" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="97" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="96" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="95" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="94" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="93" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="92" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="91" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="90" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="89" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="88" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="123" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="87" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="86" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="85" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="84" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="83" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="82" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="79" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="78" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="76" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="75" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="74" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="73" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="72" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="71" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="70" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="69" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="67" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="66" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="65" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="86" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="63" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="62" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="61" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="59" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="56" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="50" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="47" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="44" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="42" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="41" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="40" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G112">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7871,51 +7611,51 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -7923,100 +7663,100 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -8029,10 +7769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F127"/>
+  <dimension ref="B2:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8047,16 +7787,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="72" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>31</v>
@@ -8064,10 +7804,10 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8075,10 +7815,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -8086,10 +7826,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -8097,10 +7837,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -8108,10 +7848,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -8119,10 +7859,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -8130,10 +7870,10 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -8141,10 +7881,10 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -8152,10 +7892,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -8163,10 +7903,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -8174,10 +7914,10 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8185,10 +7925,10 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -8196,10 +7936,10 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -8207,10 +7947,10 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -8218,10 +7958,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -8229,10 +7969,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -8240,10 +7980,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -8251,10 +7991,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -8262,10 +8002,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -8273,10 +8013,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8284,10 +8024,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8295,10 +8035,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8306,10 +8046,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8317,10 +8057,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8328,10 +8068,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8339,10 +8079,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8350,10 +8090,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -8361,10 +8101,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8372,10 +8112,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8383,10 +8123,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8394,10 +8134,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8405,10 +8145,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8416,10 +8156,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -8427,10 +8167,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -8438,10 +8178,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -8449,10 +8189,10 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -8460,10 +8200,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -8471,10 +8211,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -8482,10 +8222,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8493,10 +8233,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8504,10 +8244,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -8515,10 +8255,10 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -8526,10 +8266,10 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -8537,10 +8277,10 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -8548,10 +8288,10 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -8559,10 +8299,10 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -8570,10 +8310,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -8581,10 +8321,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -8592,10 +8332,10 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -8603,10 +8343,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -8614,10 +8354,10 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -8625,10 +8365,10 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -8636,10 +8376,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -8647,10 +8387,10 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -8658,10 +8398,10 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -8669,10 +8409,10 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -8680,10 +8420,10 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -8691,10 +8431,10 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -8702,10 +8442,10 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -8713,10 +8453,10 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -8724,10 +8464,10 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -8735,10 +8475,10 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -8746,10 +8486,10 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -8757,10 +8497,10 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -8768,10 +8508,10 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -8779,10 +8519,10 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -8790,10 +8530,10 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -8801,10 +8541,10 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -8812,10 +8552,10 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -8823,10 +8563,10 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -8834,10 +8574,10 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -8845,10 +8585,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -8856,10 +8596,10 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -8867,10 +8607,10 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -8878,10 +8618,10 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -8889,10 +8629,10 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -8900,10 +8640,10 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -8911,10 +8651,10 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -8922,10 +8662,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -8933,10 +8673,10 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -8944,10 +8684,10 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -8955,10 +8695,10 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -8966,10 +8706,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -8977,10 +8717,10 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -8988,10 +8728,10 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -8999,10 +8739,10 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -9010,10 +8750,10 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -9021,10 +8761,10 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -9032,10 +8772,10 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -9043,10 +8783,10 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -9054,10 +8794,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -9065,10 +8805,10 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -9076,10 +8816,10 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -9087,10 +8827,10 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -9098,10 +8838,10 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -9109,10 +8849,10 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -9120,10 +8860,10 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -9131,10 +8871,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -9142,10 +8882,10 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -9153,10 +8893,10 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -9164,286 +8904,234 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="32" t="s">
-        <v>350</v>
-      </c>
+      <c r="B121" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C122" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="32" t="s">
-        <v>350</v>
-      </c>
+      <c r="B122" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="74" t="s">
-        <v>336</v>
-      </c>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="F124" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="1"/>
+      <c r="B123" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B3:F124">
@@ -9456,13 +9144,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9612,7 +9393,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D2" s="21">
         <v>42702</v>
@@ -9797,13 +9578,13 @@
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -9881,13 +9662,13 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="35" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -9925,13 +9706,13 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -9969,13 +9750,13 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -10017,7 +9798,7 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
@@ -10060,10 +9841,10 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="T10" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
@@ -10103,7 +9884,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
@@ -10142,12 +9923,12 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="35" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
@@ -10226,7 +10007,7 @@
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -10234,7 +10015,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
       <c r="U14" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
@@ -10308,17 +10089,17 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R16" s="28"/>
       <c r="S16" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
@@ -10329,7 +10110,7 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
@@ -10402,7 +10183,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="37"/>
@@ -10410,7 +10191,7 @@
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
@@ -10422,7 +10203,7 @@
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
@@ -10500,7 +10281,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="35" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
@@ -10510,7 +10291,7 @@
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
       <c r="AH20" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.3">
@@ -10614,22 +10395,22 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="U23" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
@@ -10646,7 +10427,7 @@
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
@@ -10690,7 +10471,7 @@
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
       <c r="AH24" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.3">
@@ -10734,7 +10515,7 @@
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.3">
@@ -10764,14 +10545,14 @@
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
       <c r="V26" s="39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W26" s="23"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
       <c r="AA26" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AB26" s="39"/>
       <c r="AC26" s="39"/>
@@ -10782,7 +10563,7 @@
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.3">
@@ -10866,7 +10647,7 @@
         <v>42782</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -10874,7 +10655,7 @@
         <v>42786</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -10882,7 +10663,7 @@
         <v>42790</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -10890,7 +10671,7 @@
         <v>42786</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -10898,7 +10679,7 @@
         <v>42796</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -10914,7 +10695,7 @@
         <v>42802</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
@@ -10922,7 +10703,7 @@
         <v>42803</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -10931,16 +10712,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11062,7 +10843,7 @@
       </c>
       <c r="Z1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AA1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11070,7 +10851,7 @@
       </c>
       <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AC1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11450,7 +11231,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D2" s="42">
         <v>42765</v>
@@ -11929,19 +11710,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
       <c r="K3" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -12063,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -12077,7 +11858,7 @@
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
       <c r="O4" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
@@ -12195,7 +11976,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -12214,7 +11995,7 @@
       <c r="R5" s="51"/>
       <c r="S5" s="51"/>
       <c r="T5" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
@@ -12327,7 +12108,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -12342,7 +12123,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
@@ -12362,7 +12143,7 @@
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="51" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AI6" s="51"/>
       <c r="AJ6" s="51"/>
@@ -12379,7 +12160,7 @@
       <c r="AU6" s="51"/>
       <c r="AV6" s="51"/>
       <c r="AW6" s="51" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
@@ -12387,11 +12168,11 @@
       <c r="BA6" s="51"/>
       <c r="BB6" s="51"/>
       <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
+      <c r="BD6" s="52" t="s">
+        <v>220</v>
+      </c>
       <c r="BE6" s="51"/>
-      <c r="BF6" s="52" t="s">
-        <v>226</v>
-      </c>
+      <c r="BF6" s="51"/>
       <c r="BG6" s="51"/>
       <c r="BH6" s="51"/>
       <c r="BI6" s="51"/>
@@ -12465,7 +12246,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -12520,8 +12301,8 @@
       <c r="BB7" s="49"/>
       <c r="BC7" s="49"/>
       <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
       <c r="BG7" s="51"/>
       <c r="BH7" s="51"/>
       <c r="BI7" s="51"/>
@@ -12532,7 +12313,7 @@
       <c r="BN7" s="51"/>
       <c r="BO7" s="51"/>
       <c r="BP7" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BQ7" s="49"/>
       <c r="BR7" s="49"/>
@@ -12597,7 +12378,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -12654,10 +12435,10 @@
       <c r="BD8" s="49"/>
       <c r="BE8" s="51"/>
       <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="52" t="s">
-        <v>226</v>
-      </c>
+      <c r="BG8" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH8" s="49"/>
       <c r="BI8" s="49"/>
       <c r="BJ8" s="49"/>
       <c r="BK8" s="49"/>
@@ -12729,7 +12510,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -12787,7 +12568,7 @@
       <c r="BE9" s="49"/>
       <c r="BF9" s="49"/>
       <c r="BG9" s="49"/>
-      <c r="BH9" s="49"/>
+      <c r="BH9" s="51"/>
       <c r="BI9" s="51"/>
       <c r="BJ9" s="51"/>
       <c r="BK9" s="51"/>
@@ -12802,7 +12583,7 @@
       <c r="BT9" s="51"/>
       <c r="BU9" s="51"/>
       <c r="BV9" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BW9" s="50"/>
       <c r="BX9" s="50"/>
@@ -12861,7 +12642,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -12941,7 +12722,7 @@
       <c r="CA10" s="51"/>
       <c r="CB10" s="51"/>
       <c r="CC10" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="CD10" s="50"/>
       <c r="CE10" s="50"/>
@@ -12993,7 +12774,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -13078,7 +12859,7 @@
       <c r="CF11" s="51"/>
       <c r="CG11" s="51"/>
       <c r="CH11" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="CI11" s="49"/>
       <c r="CJ11" s="49"/>
@@ -13125,7 +12906,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -13214,7 +12995,7 @@
       <c r="CJ12" s="51"/>
       <c r="CK12" s="51"/>
       <c r="CL12" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="CM12" s="50"/>
       <c r="CN12" s="50"/>
@@ -13257,7 +13038,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -13349,7 +13130,7 @@
       <c r="CM13" s="51"/>
       <c r="CN13" s="51"/>
       <c r="CO13" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="CP13" s="49"/>
       <c r="CQ13" s="49"/>
@@ -13482,7 +13263,7 @@
       <c r="CN14" s="49"/>
       <c r="CO14" s="49"/>
       <c r="CP14" s="53" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="CQ14" s="54"/>
       <c r="CR14" s="54"/>
@@ -13503,7 +13284,7 @@
       <c r="DG14" s="54"/>
       <c r="DH14" s="54"/>
       <c r="DI14" s="53" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="DJ14" s="49"/>
       <c r="DK14" s="49"/>
@@ -13523,7 +13304,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
@@ -13636,7 +13417,7 @@
       <c r="DH15" s="49"/>
       <c r="DI15" s="51"/>
       <c r="DJ15" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="DK15" s="49"/>
       <c r="DL15" s="49"/>
@@ -13655,7 +13436,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -13768,7 +13549,7 @@
       <c r="DH16" s="49"/>
       <c r="DI16" s="51"/>
       <c r="DJ16" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="DK16" s="49"/>
       <c r="DL16" s="49"/>
@@ -13787,7 +13568,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
@@ -13900,7 +13681,7 @@
       <c r="DH17" s="49"/>
       <c r="DI17" s="51"/>
       <c r="DJ17" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="DK17" s="49"/>
       <c r="DL17" s="49"/>
@@ -13915,28 +13696,28 @@
     </row>
     <row r="19" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C19" s="59" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C20" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:122" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:122" x14ac:dyDescent="0.3">
       <c r="C23" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -13945,15 +13726,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14021,7 +13802,7 @@
       </c>
       <c r="O1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="P1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14029,7 +13810,7 @@
       </c>
       <c r="Q1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="R1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14406,7 +14187,7 @@
     </row>
     <row r="2" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C2" s="43">
         <v>42779</v>
@@ -15106,22 +14887,22 @@
     </row>
     <row r="3" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="68" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69"/>
@@ -15129,32 +14910,32 @@
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="R3" s="70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S3" s="69"/>
       <c r="T3" s="69"/>
       <c r="U3" s="63" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="W3" s="69"/>
       <c r="X3" s="69"/>
       <c r="Y3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA3" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AB3" s="69"/>
       <c r="AC3" s="69"/>
@@ -15175,29 +14956,29 @@
       <c r="AR3" s="69"/>
       <c r="AS3" s="69"/>
       <c r="AT3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AU3" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV3" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="AV3" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="AW3" s="69"/>
       <c r="AX3" s="69"/>
       <c r="AY3" s="69"/>
       <c r="AZ3" s="69"/>
       <c r="BA3" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB3" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="BB3" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BC3" s="69"/>
       <c r="BD3" s="69"/>
       <c r="BE3" s="69"/>
-      <c r="BF3" s="76" t="s">
-        <v>403</v>
+      <c r="BF3" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BG3" s="69"/>
       <c r="BH3" s="69"/>
@@ -15222,8 +15003,8 @@
       <c r="CA3" s="69"/>
       <c r="CB3" s="69"/>
       <c r="CC3" s="69"/>
-      <c r="CD3" s="76" t="s">
-        <v>403</v>
+      <c r="CD3" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="CE3" s="69"/>
       <c r="CF3" s="69"/>
@@ -15271,34 +15052,34 @@
       <c r="DV3" s="69"/>
       <c r="DW3" s="69"/>
       <c r="DX3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DY3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DZ3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EA3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EB3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EC3" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED3" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="ED3" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="EE3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EF3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EG3" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EH3" s="69"/>
       <c r="EI3" s="69"/>
@@ -15343,21 +15124,21 @@
     </row>
     <row r="4" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
@@ -15395,31 +15176,31 @@
       <c r="AR4" s="69"/>
       <c r="AS4" s="69"/>
       <c r="AT4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AU4" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV4" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="AV4" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="AW4" s="69"/>
       <c r="AX4" s="69"/>
       <c r="AY4" s="69"/>
       <c r="AZ4" s="70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="BA4" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB4" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="BB4" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BC4" s="69"/>
       <c r="BD4" s="69"/>
       <c r="BE4" s="69"/>
-      <c r="BF4" s="76" t="s">
-        <v>403</v>
+      <c r="BF4" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BG4" s="69"/>
       <c r="BH4" s="69"/>
@@ -15429,10 +15210,10 @@
       <c r="BL4" s="69"/>
       <c r="BM4" s="69"/>
       <c r="BN4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BO4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BP4" s="69"/>
       <c r="BQ4" s="69"/>
@@ -15448,8 +15229,8 @@
       <c r="CA4" s="69"/>
       <c r="CB4" s="69"/>
       <c r="CC4" s="69"/>
-      <c r="CD4" s="76" t="s">
-        <v>403</v>
+      <c r="CD4" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="CE4" s="69"/>
       <c r="CF4" s="69"/>
@@ -15465,10 +15246,10 @@
       <c r="CP4" s="69"/>
       <c r="CQ4" s="69"/>
       <c r="CR4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="CS4" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="CT4" s="69"/>
       <c r="CU4" s="69"/>
@@ -15501,34 +15282,34 @@
       <c r="DV4" s="69"/>
       <c r="DW4" s="69"/>
       <c r="DX4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DY4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DZ4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EA4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EB4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EC4" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED4" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="ED4" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="EE4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EF4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EG4" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EH4" s="69"/>
       <c r="EI4" s="69"/>
@@ -15573,7 +15354,7 @@
     </row>
     <row r="5" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15592,7 +15373,7 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="S5" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="T5" s="62"/>
       <c r="U5" s="62"/>
@@ -15621,29 +15402,29 @@
       <c r="AR5" s="62"/>
       <c r="AS5" s="62"/>
       <c r="AT5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AU5" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV5" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="AV5" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="AW5" s="62"/>
       <c r="AX5" s="62"/>
       <c r="AY5" s="62"/>
       <c r="AZ5" s="62"/>
       <c r="BA5" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB5" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="BB5" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BC5" s="62"/>
       <c r="BD5" s="62"/>
       <c r="BE5" s="62"/>
-      <c r="BF5" s="76" t="s">
-        <v>403</v>
+      <c r="BF5" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BG5" s="62"/>
       <c r="BH5" s="62"/>
@@ -15668,8 +15449,8 @@
       <c r="CA5" s="62"/>
       <c r="CB5" s="62"/>
       <c r="CC5" s="62"/>
-      <c r="CD5" s="76" t="s">
-        <v>403</v>
+      <c r="CD5" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="CE5" s="62"/>
       <c r="CF5" s="62"/>
@@ -15677,7 +15458,7 @@
       <c r="CH5" s="62"/>
       <c r="CI5" s="62"/>
       <c r="CJ5" s="70" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="CK5" s="62"/>
       <c r="CL5" s="62"/>
@@ -15719,34 +15500,34 @@
       <c r="DV5" s="62"/>
       <c r="DW5" s="62"/>
       <c r="DX5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DY5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DZ5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EA5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EB5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EC5" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED5" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="ED5" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="EE5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EF5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EG5" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EH5" s="62"/>
       <c r="EI5" s="62"/>
@@ -15791,7 +15572,7 @@
     </row>
     <row r="6" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B6" s="66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
@@ -15837,29 +15618,29 @@
       <c r="AR6" s="69"/>
       <c r="AS6" s="69"/>
       <c r="AT6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AU6" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV6" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="AV6" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="AW6" s="69"/>
       <c r="AX6" s="69"/>
       <c r="AY6" s="69"/>
       <c r="AZ6" s="69"/>
       <c r="BA6" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB6" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="BB6" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BC6" s="69"/>
       <c r="BD6" s="69"/>
       <c r="BE6" s="69"/>
-      <c r="BF6" s="76" t="s">
-        <v>403</v>
+      <c r="BF6" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BG6" s="69"/>
       <c r="BH6" s="69"/>
@@ -15884,8 +15665,8 @@
       <c r="CA6" s="69"/>
       <c r="CB6" s="69"/>
       <c r="CC6" s="69"/>
-      <c r="CD6" s="76" t="s">
-        <v>403</v>
+      <c r="CD6" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="CE6" s="69"/>
       <c r="CF6" s="69"/>
@@ -15933,34 +15714,34 @@
       <c r="DV6" s="69"/>
       <c r="DW6" s="69"/>
       <c r="DX6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DY6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DZ6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EA6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EB6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EC6" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED6" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="ED6" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="EE6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EF6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EG6" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EH6" s="69"/>
       <c r="EI6" s="69"/>
@@ -16005,7 +15786,7 @@
     </row>
     <row r="7" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B7" s="66" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
@@ -16051,29 +15832,29 @@
       <c r="AR7" s="69"/>
       <c r="AS7" s="69"/>
       <c r="AT7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AU7" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV7" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="AV7" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="AW7" s="69"/>
       <c r="AX7" s="69"/>
       <c r="AY7" s="69"/>
       <c r="AZ7" s="69"/>
       <c r="BA7" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB7" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="BB7" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BC7" s="69"/>
       <c r="BD7" s="69"/>
       <c r="BE7" s="69"/>
-      <c r="BF7" s="76" t="s">
-        <v>403</v>
+      <c r="BF7" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="BG7" s="69"/>
       <c r="BH7" s="69"/>
@@ -16098,8 +15879,8 @@
       <c r="CA7" s="69"/>
       <c r="CB7" s="69"/>
       <c r="CC7" s="69"/>
-      <c r="CD7" s="76" t="s">
-        <v>403</v>
+      <c r="CD7" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="CE7" s="69"/>
       <c r="CF7" s="69"/>
@@ -16147,34 +15928,34 @@
       <c r="DV7" s="69"/>
       <c r="DW7" s="69"/>
       <c r="DX7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DY7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DZ7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EA7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EB7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EC7" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED7" s="76" t="s">
-        <v>403</v>
+        <v>267</v>
+      </c>
+      <c r="ED7" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="EE7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EF7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EG7" s="71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="EH7" s="69"/>
       <c r="EI7" s="69"/>
@@ -16219,7 +16000,7 @@
     </row>
     <row r="8" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B8" s="64" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" s="62">
         <f t="shared" ref="C8" si="77">COUNTBLANK(C3:C7)</f>
@@ -16872,51 +16653,51 @@
       </c>
     </row>
     <row r="11" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="75" t="s">
         <v>264</v>
       </c>
+      <c r="C11" s="81" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>268</v>
+      <c r="B12" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="2:177" x14ac:dyDescent="0.3">
+      <c r="B14" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>273</v>
+      <c r="C14" s="84" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B15" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>265</v>
+      <c r="B15" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:177" x14ac:dyDescent="0.3">
-      <c r="B16" s="82" t="s">
-        <v>402</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>403</v>
+      <c r="B16" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="410">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -3464,8 +3464,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7771,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9240,10 +9240,10 @@
   <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9317,11 +9317,11 @@
       </c>
       <c r="Q1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AC1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="AD1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AE1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13731,10 +13731,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:T3"/>
+      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="Q1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="R1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="S1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="T1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15050,7 +15050,9 @@
       <c r="DT3" s="69"/>
       <c r="DU3" s="69"/>
       <c r="DV3" s="69"/>
-      <c r="DW3" s="69"/>
+      <c r="DW3" s="85" t="s">
+        <v>259</v>
+      </c>
       <c r="DX3" s="71" t="s">
         <v>267</v>
       </c>
@@ -15311,9 +15313,15 @@
       <c r="EG4" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="EH4" s="69"/>
-      <c r="EI4" s="69"/>
-      <c r="EJ4" s="69"/>
+      <c r="EH4" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="EI4" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ4" s="85" t="s">
+        <v>259</v>
+      </c>
       <c r="EK4" s="69"/>
       <c r="EL4" s="69"/>
       <c r="EM4" s="69"/>
@@ -16479,7 +16487,7 @@
       </c>
       <c r="DW8" s="62">
         <f t="shared" si="81"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DX8" s="62"/>
       <c r="DY8" s="62"/>
@@ -16493,15 +16501,15 @@
       <c r="EG8" s="62"/>
       <c r="EH8" s="62">
         <f t="shared" ref="EH8:FT8" si="82">COUNTBLANK(EH3:EH7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EI8" s="62">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EJ8" s="62">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EK8" s="62">
         <f t="shared" si="82"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="411">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1263,6 +1263,9 @@
   </si>
   <si>
     <t>ERROR_MSG_IND_88_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>28/02 inizio UAT e rilascio il 24/03</t>
   </si>
 </sst>
 </file>
@@ -3464,8 +3467,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6795,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>194</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -7771,8 +7774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9240,10 +9243,10 @@
   <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10859,11 +10862,11 @@
       </c>
       <c r="AD1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AE1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AF1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13731,10 +13734,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13818,11 +13821,11 @@
       </c>
       <c r="S1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="T1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="U1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15050,9 +15053,7 @@
       <c r="DT3" s="69"/>
       <c r="DU3" s="69"/>
       <c r="DV3" s="69"/>
-      <c r="DW3" s="85" t="s">
-        <v>259</v>
-      </c>
+      <c r="DW3" s="69"/>
       <c r="DX3" s="71" t="s">
         <v>267</v>
       </c>
@@ -16487,7 +16488,7 @@
       </c>
       <c r="DW8" s="62">
         <f t="shared" si="81"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DX8" s="62"/>
       <c r="DY8" s="62"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="412">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>28/02 inizio UAT e rilascio il 24/03</t>
+  </si>
+  <si>
+    <t>sprint</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1824,6 +1827,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3467,8 +3473,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4889,7 +4895,9 @@
       <c r="D48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="5">
@@ -5062,7 +5070,9 @@
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="5">
@@ -5073,7 +5083,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5087,8 +5097,12 @@
       <c r="E55" s="13">
         <v>1</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1</v>
+      </c>
       <c r="H55" s="5">
         <v>3</v>
       </c>
@@ -5416,7 +5430,9 @@
       <c r="D67" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="13"/>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
       <c r="F67" s="13" t="s">
         <v>34</v>
       </c>
@@ -5739,7 +5755,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -5756,7 +5772,9 @@
       <c r="F79" s="13">
         <v>1</v>
       </c>
-      <c r="G79" s="13"/>
+      <c r="G79" s="13">
+        <v>1</v>
+      </c>
       <c r="H79" s="5">
         <v>2</v>
       </c>
@@ -6293,7 +6311,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="13">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -6335,7 +6353,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
         <f t="shared" ref="B101:B122" si="4">+B100+1</f>
         <v>100</v>
@@ -6352,7 +6370,9 @@
       <c r="F101" s="13">
         <v>1</v>
       </c>
-      <c r="G101" s="13"/>
+      <c r="G101" s="13">
+        <v>1</v>
+      </c>
       <c r="H101" s="5">
         <v>2</v>
       </c>
@@ -6375,7 +6395,7 @@
         <v>161</v>
       </c>
       <c r="E102" s="13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -6400,7 +6420,9 @@
       <c r="D103" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E103" s="13"/>
+      <c r="E103" s="13">
+        <v>1</v>
+      </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="5">
@@ -6437,7 +6459,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -6454,7 +6476,9 @@
       <c r="F105" s="13">
         <v>1</v>
       </c>
-      <c r="G105" s="13"/>
+      <c r="G105" s="13">
+        <v>1</v>
+      </c>
       <c r="H105" s="5">
         <v>2</v>
       </c>
@@ -6503,7 +6527,7 @@
         <v>131</v>
       </c>
       <c r="E107" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -6531,7 +6555,9 @@
       <c r="E108" s="13">
         <v>1</v>
       </c>
-      <c r="F108" s="13"/>
+      <c r="F108" s="13">
+        <v>1</v>
+      </c>
       <c r="G108" s="13"/>
       <c r="H108" s="5">
         <v>1</v>
@@ -6665,7 +6691,7 @@
         <v>59</v>
       </c>
       <c r="E113" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
@@ -6801,7 +6827,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -6818,7 +6844,9 @@
       <c r="F119" s="13">
         <v>1</v>
       </c>
-      <c r="G119" s="13"/>
+      <c r="G119" s="13">
+        <v>1</v>
+      </c>
       <c r="H119" s="5">
         <v>1</v>
       </c>
@@ -7774,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E123"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9150,7 +9178,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9246,7 +9274,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9324,11 +9352,11 @@
       </c>
       <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="T1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10724,7 +10752,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10866,7 +10894,7 @@
       </c>
       <c r="AE1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AF1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10878,7 +10906,7 @@
       </c>
       <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AI1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -12145,10 +12173,10 @@
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
-      <c r="AH6" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51" t="s">
+        <v>411</v>
+      </c>
       <c r="AJ6" s="51"/>
       <c r="AK6" s="51"/>
       <c r="AL6" s="51"/>
@@ -13734,10 +13762,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="EA20" sqref="EA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13825,7 +13853,7 @@
       </c>
       <c r="T1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="U1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13837,7 +13865,7 @@
       </c>
       <c r="W1" s="65" t="str">
         <f t="shared" ref="W1:CH1" ca="1" si="2">IF(TODAY()=W2,"]","")</f>
-        <v/>
+        <v>]</v>
       </c>
       <c r="X1" s="65" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -15314,15 +15342,13 @@
       <c r="EG4" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="EH4" s="85" t="s">
+      <c r="EH4" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="EI4" s="85" t="s">
+      <c r="EI4" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="EJ4" s="85" t="s">
-        <v>259</v>
-      </c>
+      <c r="EJ4" s="62"/>
       <c r="EK4" s="69"/>
       <c r="EL4" s="69"/>
       <c r="EM4" s="69"/>
@@ -15752,7 +15778,9 @@
       <c r="EG6" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="EH6" s="69"/>
+      <c r="EH6" s="90" t="s">
+        <v>259</v>
+      </c>
       <c r="EI6" s="69"/>
       <c r="EJ6" s="69"/>
       <c r="EK6" s="69"/>
@@ -15936,21 +15964,11 @@
       <c r="DU7" s="69"/>
       <c r="DV7" s="69"/>
       <c r="DW7" s="69"/>
-      <c r="DX7" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DY7" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="DZ7" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="EA7" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="EB7" s="71" t="s">
-        <v>267</v>
-      </c>
+      <c r="DX7" s="69"/>
+      <c r="DY7" s="69"/>
+      <c r="DZ7" s="69"/>
+      <c r="EA7" s="69"/>
+      <c r="EB7" s="69"/>
       <c r="EC7" s="71" t="s">
         <v>267</v>
       </c>
@@ -15966,11 +15984,21 @@
       <c r="EG7" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="EH7" s="69"/>
-      <c r="EI7" s="69"/>
-      <c r="EJ7" s="69"/>
-      <c r="EK7" s="69"/>
-      <c r="EL7" s="69"/>
+      <c r="EH7" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="EI7" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ7" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="EK7" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="EL7" s="90" t="s">
+        <v>259</v>
+      </c>
       <c r="EM7" s="69"/>
       <c r="EN7" s="69"/>
       <c r="EO7" s="69"/>
@@ -16502,11 +16530,11 @@
       <c r="EG8" s="62"/>
       <c r="EH8" s="62">
         <f t="shared" ref="EH8:FT8" si="82">COUNTBLANK(EH3:EH7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="EI8" s="62">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EJ8" s="62">
         <f t="shared" si="82"/>
@@ -16514,11 +16542,11 @@
       </c>
       <c r="EK8" s="62">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EL8" s="62">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EM8" s="62">
         <f t="shared" si="82"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="415">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t>BR142</t>
   </si>
   <si>
-    <t>in attesa dei campi di input</t>
-  </si>
-  <si>
     <t>CAMPI OUTPUT</t>
   </si>
   <si>
@@ -1269,6 +1266,18 @@
   </si>
   <si>
     <t>sprint</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_84_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_85_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_86_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_87_FL_OVERRIDE</t>
   </si>
 </sst>
 </file>
@@ -3473,8 +3482,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4267,7 +4276,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
@@ -6359,7 +6368,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>161</v>
@@ -6824,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -6861,7 +6870,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>35</v>
@@ -6887,7 +6896,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>252</v>
@@ -6911,10 +6920,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
@@ -7802,7 +7811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -7818,13 +7827,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="72" t="s">
         <v>346</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>347</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>178</v>
@@ -8033,7 +8042,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>168</v>
@@ -8044,7 +8053,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>168</v>
@@ -8055,7 +8064,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>168</v>
@@ -8066,7 +8075,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>168</v>
@@ -8077,7 +8086,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>168</v>
@@ -8088,7 +8097,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>168</v>
@@ -8099,7 +8108,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>168</v>
@@ -8110,7 +8119,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>168</v>
@@ -8121,7 +8130,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>168</v>
@@ -8132,7 +8141,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>168</v>
@@ -8143,7 +8152,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>168</v>
@@ -8154,7 +8163,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>168</v>
@@ -8165,7 +8174,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>168</v>
@@ -8176,7 +8185,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>168</v>
@@ -8187,7 +8196,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>168</v>
@@ -8198,7 +8207,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>168</v>
@@ -8209,7 +8218,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>168</v>
@@ -8220,7 +8229,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>168</v>
@@ -8231,7 +8240,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>168</v>
@@ -8242,7 +8251,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>168</v>
@@ -8253,7 +8262,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>168</v>
@@ -8264,7 +8273,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>168</v>
@@ -8275,7 +8284,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>168</v>
@@ -8286,7 +8295,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>168</v>
@@ -8297,7 +8306,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>168</v>
@@ -8308,7 +8317,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>168</v>
@@ -8319,7 +8328,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>168</v>
@@ -8330,7 +8339,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>168</v>
@@ -8341,7 +8350,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>168</v>
@@ -8352,7 +8361,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>168</v>
@@ -8363,7 +8372,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>168</v>
@@ -8374,7 +8383,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>168</v>
@@ -8385,7 +8394,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>168</v>
@@ -8396,7 +8405,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>168</v>
@@ -8407,7 +8416,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>168</v>
@@ -8583,7 +8592,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>168</v>
@@ -8605,7 +8614,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>168</v>
@@ -8627,7 +8636,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>168</v>
@@ -8649,7 +8658,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>168</v>
@@ -8671,7 +8680,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>168</v>
@@ -8693,7 +8702,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>168</v>
@@ -8715,7 +8724,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>168</v>
@@ -8737,7 +8746,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>168</v>
@@ -8759,7 +8768,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>168</v>
@@ -8781,7 +8790,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>168</v>
@@ -8803,7 +8812,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>168</v>
@@ -8825,7 +8834,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>168</v>
@@ -9133,7 +9142,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>168</v>
@@ -9144,7 +9153,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>168</v>
@@ -9155,7 +9164,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>168</v>
@@ -9175,10 +9184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9193,13 +9202,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="72" t="s">
         <v>346</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>347</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>178</v>
@@ -9217,9 +9226,7 @@
       </c>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="F3" s="89" t="s">
-        <v>344</v>
-      </c>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="87" t="s">
@@ -9230,9 +9237,7 @@
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
-      <c r="F4" s="89" t="s">
-        <v>344</v>
-      </c>
+      <c r="F4" s="89"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="87" t="s">
@@ -9243,9 +9248,7 @@
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="F5" s="89" t="s">
-        <v>344</v>
-      </c>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="87" t="s">
@@ -9256,9 +9259,62 @@
       <c r="E6" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="89" t="s">
-        <v>344</v>
-      </c>
+      <c r="F6" s="89"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="89"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="89"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="89"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9270,11 +9326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9872,7 +9928,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>195</v>
@@ -10752,7 +10808,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10906,7 +10962,7 @@
       </c>
       <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AI1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10922,7 +10978,7 @@
       </c>
       <c r="AL1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AM1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -12175,7 +12231,7 @@
       <c r="AG6" s="51"/>
       <c r="AH6" s="51"/>
       <c r="AI6" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ6" s="51"/>
       <c r="AK6" s="51"/>
@@ -12191,7 +12247,7 @@
       <c r="AU6" s="51"/>
       <c r="AV6" s="51"/>
       <c r="AW6" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
@@ -13762,10 +13818,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EA20" sqref="EA20"/>
+      <selection pane="bottomRight" activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13865,7 +13921,7 @@
       </c>
       <c r="W1" s="65" t="str">
         <f t="shared" ref="W1:CH1" ca="1" si="2">IF(TODAY()=W2,"]","")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="X1" s="65" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13881,7 +13937,7 @@
       </c>
       <c r="AA1" s="65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AB1" s="65" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -14959,19 +15015,19 @@
       </c>
       <c r="W3" s="69"/>
       <c r="X3" s="69"/>
-      <c r="Y3" s="67" t="s">
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="Z3" s="67" t="s">
+      <c r="AD3" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="AA3" s="67" t="s">
+      <c r="AE3" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
       <c r="AF3" s="69"/>
       <c r="AG3" s="69"/>
       <c r="AH3" s="69"/>
@@ -14993,7 +15049,7 @@
         <v>267</v>
       </c>
       <c r="AV3" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW3" s="69"/>
       <c r="AX3" s="69"/>
@@ -15003,13 +15059,13 @@
         <v>267</v>
       </c>
       <c r="BB3" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC3" s="69"/>
       <c r="BD3" s="69"/>
       <c r="BE3" s="69"/>
       <c r="BF3" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG3" s="69"/>
       <c r="BH3" s="69"/>
@@ -15035,7 +15091,7 @@
       <c r="CB3" s="69"/>
       <c r="CC3" s="69"/>
       <c r="CD3" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE3" s="69"/>
       <c r="CF3" s="69"/>
@@ -15101,7 +15157,7 @@
         <v>267</v>
       </c>
       <c r="ED3" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="EE3" s="71" t="s">
         <v>267</v>
@@ -15213,7 +15269,7 @@
         <v>267</v>
       </c>
       <c r="AV4" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW4" s="69"/>
       <c r="AX4" s="69"/>
@@ -15225,13 +15281,13 @@
         <v>267</v>
       </c>
       <c r="BB4" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC4" s="69"/>
       <c r="BD4" s="69"/>
       <c r="BE4" s="69"/>
       <c r="BF4" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG4" s="69"/>
       <c r="BH4" s="69"/>
@@ -15261,7 +15317,7 @@
       <c r="CB4" s="69"/>
       <c r="CC4" s="69"/>
       <c r="CD4" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE4" s="69"/>
       <c r="CF4" s="69"/>
@@ -15331,7 +15387,7 @@
         <v>267</v>
       </c>
       <c r="ED4" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="EE4" s="71" t="s">
         <v>267</v>
@@ -15443,7 +15499,7 @@
         <v>267</v>
       </c>
       <c r="AV5" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW5" s="62"/>
       <c r="AX5" s="62"/>
@@ -15453,13 +15509,13 @@
         <v>267</v>
       </c>
       <c r="BB5" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC5" s="62"/>
       <c r="BD5" s="62"/>
       <c r="BE5" s="62"/>
       <c r="BF5" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG5" s="62"/>
       <c r="BH5" s="62"/>
@@ -15485,7 +15541,7 @@
       <c r="CB5" s="62"/>
       <c r="CC5" s="62"/>
       <c r="CD5" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE5" s="62"/>
       <c r="CF5" s="62"/>
@@ -15553,7 +15609,7 @@
         <v>267</v>
       </c>
       <c r="ED5" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="EE5" s="71" t="s">
         <v>267</v>
@@ -15607,7 +15663,7 @@
     </row>
     <row r="6" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B6" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
@@ -15659,7 +15715,7 @@
         <v>267</v>
       </c>
       <c r="AV6" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW6" s="69"/>
       <c r="AX6" s="69"/>
@@ -15669,13 +15725,13 @@
         <v>267</v>
       </c>
       <c r="BB6" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC6" s="69"/>
       <c r="BD6" s="69"/>
       <c r="BE6" s="69"/>
       <c r="BF6" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG6" s="69"/>
       <c r="BH6" s="69"/>
@@ -15701,7 +15757,7 @@
       <c r="CB6" s="69"/>
       <c r="CC6" s="69"/>
       <c r="CD6" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE6" s="69"/>
       <c r="CF6" s="69"/>
@@ -15767,7 +15823,7 @@
         <v>267</v>
       </c>
       <c r="ED6" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="EE6" s="71" t="s">
         <v>267</v>
@@ -15823,7 +15879,7 @@
     </row>
     <row r="7" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B7" s="66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
@@ -15875,7 +15931,7 @@
         <v>267</v>
       </c>
       <c r="AV7" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW7" s="69"/>
       <c r="AX7" s="69"/>
@@ -15885,13 +15941,13 @@
         <v>267</v>
       </c>
       <c r="BB7" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC7" s="69"/>
       <c r="BD7" s="69"/>
       <c r="BE7" s="69"/>
       <c r="BF7" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG7" s="69"/>
       <c r="BH7" s="69"/>
@@ -15917,7 +15973,7 @@
       <c r="CB7" s="69"/>
       <c r="CC7" s="69"/>
       <c r="CD7" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE7" s="69"/>
       <c r="CF7" s="69"/>
@@ -15973,7 +16029,7 @@
         <v>267</v>
       </c>
       <c r="ED7" s="74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="EE7" s="71" t="s">
         <v>267</v>
@@ -16129,15 +16185,15 @@
       </c>
       <c r="Y8" s="62">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="62">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="62">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="62">
         <f t="shared" si="78"/>
@@ -16145,15 +16201,15 @@
       </c>
       <c r="AC8" s="62">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD8" s="62">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="62">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="62">
         <f t="shared" si="78"/>
@@ -16731,10 +16787,10 @@
     </row>
     <row r="16" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B16" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="86" t="s">
         <v>396</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Plan team" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$151</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="467">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1422,6 +1422,18 @@
   </si>
   <si>
     <t>APP2.0 - Migrazione</t>
+  </si>
+  <si>
+    <t>Override - incrocio assegni (BR34)</t>
+  </si>
+  <si>
+    <t>18/04 dati in sviluppo, 24/04 in syt. 27/04 inizio UAT</t>
+  </si>
+  <si>
+    <t>UAT 24/04</t>
+  </si>
+  <si>
+    <t>dati 18/04</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2195,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3910,10 +3982,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE150"/>
+  <dimension ref="A1:AE151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="D102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6802,7 +6874,7 @@
     </row>
     <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B130" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B131" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -7552,75 +7624,82 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C131" s="31"/>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="7">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="5">
+        <v>3</v>
+      </c>
+      <c r="I131" s="5">
+        <v>2</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="132" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="91" t="s">
+      <c r="C132" s="31"/>
+    </row>
+    <row r="133" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="C132" s="92" t="s">
+      <c r="C133" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="D132" s="91" t="s">
+      <c r="D133" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="E132" s="90" t="s">
+      <c r="E133" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="F132" s="90" t="s">
+      <c r="F133" s="90" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="94" t="s">
+    <row r="134" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C133" s="95" t="s">
+      <c r="C134" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="D133" s="96">
+      <c r="D134" s="96">
         <v>42815</v>
       </c>
-      <c r="E133" s="93" t="s">
+      <c r="E134" s="93" t="s">
         <v>419</v>
       </c>
-      <c r="F133" s="93">
+      <c r="F134" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="98" t="s">
+    <row r="135" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="C134" s="99" t="s">
+      <c r="C135" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="D134" s="100">
+      <c r="D135" s="100">
         <v>42814</v>
       </c>
-      <c r="E134" s="97" t="s">
+      <c r="E135" s="97" t="s">
         <v>421</v>
       </c>
-      <c r="F134" s="97">
+      <c r="F135" s="97">
         <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C135" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D135" s="104">
-        <v>42814</v>
-      </c>
-      <c r="E135" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="F135" s="101">
-        <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7628,13 +7707,13 @@
         <v>425</v>
       </c>
       <c r="C136" s="103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D136" s="104">
-        <v>42816</v>
+        <v>42814</v>
       </c>
       <c r="E136" s="101" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F136" s="101">
         <v>1</v>
@@ -7645,10 +7724,10 @@
         <v>425</v>
       </c>
       <c r="C137" s="103" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D137" s="104">
-        <v>42818</v>
+        <v>42816</v>
       </c>
       <c r="E137" s="101" t="s">
         <v>427</v>
@@ -7662,13 +7741,13 @@
         <v>425</v>
       </c>
       <c r="C138" s="103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D138" s="104">
         <v>42818</v>
       </c>
       <c r="E138" s="101" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F138" s="101">
         <v>1</v>
@@ -7679,16 +7758,16 @@
         <v>425</v>
       </c>
       <c r="C139" s="103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D139" s="104">
         <v>42818</v>
       </c>
       <c r="E139" s="101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F139" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7696,13 +7775,13 @@
         <v>425</v>
       </c>
       <c r="C140" s="103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D140" s="104">
         <v>42818</v>
       </c>
       <c r="E140" s="101" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F140" s="101">
         <v>0</v>
@@ -7713,13 +7792,13 @@
         <v>425</v>
       </c>
       <c r="C141" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D141" s="102" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="D141" s="104">
+        <v>42818</v>
       </c>
       <c r="E141" s="101" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F141" s="101">
         <v>0</v>
@@ -7730,13 +7809,13 @@
         <v>425</v>
       </c>
       <c r="C142" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D142" s="102" t="s">
         <v>434</v>
       </c>
       <c r="E142" s="101" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F142" s="101">
         <v>0</v>
@@ -7747,13 +7826,13 @@
         <v>425</v>
       </c>
       <c r="C143" s="103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D143" s="102" t="s">
         <v>434</v>
       </c>
       <c r="E143" s="101" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F143" s="101">
         <v>0</v>
@@ -7764,83 +7843,83 @@
         <v>425</v>
       </c>
       <c r="C144" s="103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D144" s="102" t="s">
         <v>434</v>
       </c>
       <c r="E144" s="101" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="F144" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="106" t="s">
-        <v>439</v>
-      </c>
-      <c r="C145" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="D145" s="108">
-        <v>42815</v>
-      </c>
-      <c r="E145" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="F145" s="105">
-        <v>1</v>
+      <c r="B145" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C145" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="E145" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="F145" s="101">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="C146" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" s="108">
+        <v>42815</v>
+      </c>
+      <c r="E146" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="F146" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="107" t="s">
+      <c r="C147" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="D146" s="108">
+      <c r="D147" s="108">
         <v>42817</v>
       </c>
-      <c r="E146" s="105" t="s">
+      <c r="E147" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="F146" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="110" t="s">
+      <c r="F147" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C147" s="111" t="s">
+      <c r="C148" s="111" t="s">
         <v>442</v>
       </c>
-      <c r="D147" s="112">
+      <c r="D148" s="112">
         <v>42824</v>
       </c>
-      <c r="E147" s="109" t="s">
+      <c r="E148" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="F147" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C148" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" s="116">
-        <v>42822</v>
-      </c>
-      <c r="E148" s="113" t="s">
-        <v>436</v>
-      </c>
-      <c r="F148" s="113">
+      <c r="F148" s="109">
         <v>0</v>
       </c>
     </row>
@@ -7849,13 +7928,13 @@
         <v>443</v>
       </c>
       <c r="C149" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D149" s="116">
-        <v>42825</v>
+        <v>42822</v>
       </c>
       <c r="E149" s="113" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F149" s="113">
         <v>0</v>
@@ -7866,7 +7945,7 @@
         <v>443</v>
       </c>
       <c r="C150" s="115" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D150" s="116">
         <v>42825</v>
@@ -7878,714 +7957,746 @@
         <v>0</v>
       </c>
     </row>
+    <row r="151" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C151" s="115" t="s">
+        <v>446</v>
+      </c>
+      <c r="D151" s="116">
+        <v>42825</v>
+      </c>
+      <c r="E151" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="F151" s="113">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:J150">
+  <autoFilter ref="B1:J151">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
+    <cfRule type="cellIs" dxfId="146" priority="185" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="145" priority="184" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="144" priority="183" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="143" priority="182" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="142" priority="181" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="141" priority="180" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="140" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="139" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="138" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="137" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="136" priority="175" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="135" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="134" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="133" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="132" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="131" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="130" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="129" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="128" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="127" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="126" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="125" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="124" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="123" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="122" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="121" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="120" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="119" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="118" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="117" priority="156" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="116" priority="155" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="115" priority="154" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="114" priority="153" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="113" priority="152" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="112" priority="151" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="111" priority="147" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="110" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="109" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="107" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="149" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="112" priority="147" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="111" priority="146" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="110" priority="145" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="109" priority="144" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="108" priority="143" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="107" priority="142" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="106" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="105" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="104" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="103" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="102" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="101" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="100" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="99" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="98" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="97" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="96" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="95" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="94" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="93" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="92" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="91" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="90" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="89" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="88" priority="123" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="87" priority="122" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="86" priority="121" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="85" priority="120" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="84" priority="119" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="83" priority="118" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="82" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="81" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="79" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="84" priority="106" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="83" priority="105" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="82" priority="104" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="80" priority="102" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="79" priority="101" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="78" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="77" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="76" priority="98" operator="lessThan">
+  <conditionalFormatting sqref="E99:E100">
+    <cfRule type="cellIs" dxfId="76" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="75" priority="97" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="75" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="74" priority="96" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="lessThan">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="73" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="72" priority="94" operator="lessThan">
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="72" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="71" priority="93" operator="lessThan">
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E100">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="70" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="69" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="68" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="67" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="66" priority="86" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="63" priority="83" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="61" priority="78" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="60" priority="80" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="59" priority="79" operator="lessThan">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="64" priority="83" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="62" priority="81" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="61" priority="80" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="58" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="57" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="56" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="55" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="54" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="53" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="52" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="51" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="50" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="49" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="48" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="47" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="46" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="45" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="44" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="43" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="42" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="38" priority="57" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="37" priority="56" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:G121">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:G121">
     <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="F122:G122 F125:G125">
     <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="F122:G122 F125:G125">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E122 E125">
     <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
+  <conditionalFormatting sqref="F111:G112">
     <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
+  <conditionalFormatting sqref="F110">
     <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
+  <conditionalFormatting sqref="G110">
     <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G122 F125:G125">
+  <conditionalFormatting sqref="F96:G96 F93:G94">
     <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G122 F125:G125">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122 E125">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
+  <conditionalFormatting sqref="F127:G129">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G112">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="F127:G129">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="E127:E129">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="F126:G126">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="F126:G126">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127:G130">
+  <conditionalFormatting sqref="F123:G124">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127:G130">
+  <conditionalFormatting sqref="F123:G124">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E130">
+  <conditionalFormatting sqref="E123:E124">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="F130:G131">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="F130:G131">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E130:E131">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10286,13 +10397,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV54"/>
+  <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10311,7 +10422,8 @@
     <col min="20" max="21" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.5" style="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="31" max="39" width="5.296875" style="16" bestFit="1" customWidth="1"/>
     <col min="40" max="43" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
@@ -10390,11 +10502,11 @@
       </c>
       <c r="U1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="V1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="W1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10693,7 +10805,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -10747,7 +10859,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -10805,7 +10917,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -10859,7 +10971,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -10917,7 +11029,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -10975,7 +11087,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -11033,7 +11145,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -11089,7 +11201,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -11147,7 +11259,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -11203,7 +11315,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
+        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
         <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
@@ -11258,18 +11370,18 @@
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>testare AQR per Banca BIB</v>
+        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Override - incrocio assegni (BR34)</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -11284,9 +11396,15 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+      <c r="X13" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z13" s="35" t="s">
+        <v>196</v>
+      </c>
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="23"/>
@@ -11312,34 +11430,30 @@
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>motore ALEX BANK</v>
+        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="29" t="s">
-        <v>196</v>
-      </c>
+      <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
@@ -11370,11 +11484,11 @@
     </row>
     <row r="15" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>file test e TCK ALEX BANK</v>
+        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>motore ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -11382,18 +11496,22 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="29" t="s">
+        <v>243</v>
+      </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="U15" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
@@ -11424,47 +11542,35 @@
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>motore CIB BANK</v>
+        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="X16" s="28" t="s">
-        <v>198</v>
-      </c>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="28" t="s">
-        <v>196</v>
-      </c>
+      <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
@@ -11490,35 +11596,47 @@
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>file test e TCK CIB BANK</v>
+        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>motore CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="28" t="s">
+        <v>190</v>
+      </c>
       <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="28" t="s">
+        <v>198</v>
+      </c>
       <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
+      <c r="S17" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
+      <c r="W17" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>198</v>
+      </c>
       <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
@@ -11544,11 +11662,11 @@
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>ISPRO - motore</v>
+        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -11562,30 +11680,22 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
-      <c r="AB18" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
-      <c r="AE18" s="37" t="s">
-        <v>196</v>
-      </c>
+      <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
@@ -11606,11 +11716,11 @@
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>ISPRO - file test e TCK</v>
+        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>ISPRO - motore</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -11625,21 +11735,29 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="37" t="s">
+        <v>190</v>
+      </c>
       <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
+      <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
+      <c r="W19" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
+      <c r="AB19" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
+      <c r="AE19" s="37" t="s">
+        <v>196</v>
+      </c>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
       <c r="AH19" s="23"/>
@@ -11660,11 +11778,11 @@
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>ISPRO - file test e TCK</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -11674,7 +11792,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="35"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -11682,76 +11800,43 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
-      <c r="AA20" s="35" t="s">
-        <v>242</v>
-      </c>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
-      <c r="AE20" s="35" t="s">
-        <v>106</v>
-      </c>
+      <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
-      <c r="AH20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV20" s="35" t="s">
-        <v>196</v>
-      </c>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>Retail: test di performance (2 mio di dati)</v>
+        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -11762,7 +11847,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
@@ -11776,36 +11861,69 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
+      <c r="AA21" s="35" t="s">
+        <v>242</v>
+      </c>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
+      <c r="AE21" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="AF21" s="23"/>
       <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
+      <c r="AH21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV21" s="35" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>VM - Retail: nodo Riempimento</v>
+        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -11815,11 +11933,11 @@
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
@@ -11853,13 +11971,13 @@
       <c r="AU22" s="23"/>
       <c r="AV22" s="23"/>
     </row>
-    <row r="23" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>Retail: sviluppo indicatori</v>
+        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>VM - Retail: nodo Riempimento</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -11872,68 +11990,48 @@
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="R23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="T23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="U23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="V23" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="W23" s="119" t="s">
-        <v>189</v>
-      </c>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
-      <c r="AA23" s="119" t="s">
-        <v>106</v>
-      </c>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
-      <c r="AH23" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
     </row>
     <row r="24" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>Retail: configurazione start-up app (excel)</v>
+        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -11947,22 +12045,38 @@
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
+      <c r="P24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="R24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="S24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="U24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="W24" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
+      <c r="AA24" s="119" t="s">
+        <v>106</v>
+      </c>
       <c r="AB24" s="23"/>
-      <c r="AC24" s="119" t="s">
-        <v>106</v>
-      </c>
+      <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
@@ -11987,11 +12101,11 @@
     </row>
     <row r="25" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -12009,20 +12123,20 @@
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="119"/>
       <c r="V25" s="119"/>
       <c r="W25" s="119"/>
       <c r="X25" s="119"/>
       <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
+      <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
+      <c r="AC25" s="119" t="s">
+        <v>106</v>
+      </c>
       <c r="AD25" s="23"/>
-      <c r="AE25" s="119" t="s">
-        <v>106</v>
-      </c>
+      <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="119" t="s">
@@ -12045,11 +12159,11 @@
     </row>
     <row r="26" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>ISBA - motore</v>
+        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -12068,26 +12182,22 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38" t="s">
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="119" t="s">
         <v>106</v>
       </c>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="38" t="s">
+      <c r="AH26" s="119" t="s">
         <v>196</v>
       </c>
       <c r="AI26" s="1"/>
@@ -12105,13 +12215,13 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>ISBA - file test e TCK</v>
+        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>ISBA - motore</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -12131,41 +12241,49 @@
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
+      <c r="V27" s="38" t="s">
+        <v>190</v>
+      </c>
       <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38" t="s">
+        <v>242</v>
+      </c>
       <c r="AB27" s="38"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="AF27" s="23"/>
       <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="23"/>
-    </row>
-    <row r="28" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH27" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B28" s="22">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C28" s="23" t="str">
-        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>APP2.0 - Configurazione</v>
+        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>ISBA - file test e TCK</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -12184,42 +12302,42 @@
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
     </row>
     <row r="29" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="22">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>APP2.0 - Migrazione</v>
+        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>APP2.0 - Configurazione</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -12242,13 +12360,13 @@
       <c r="V29" s="121"/>
       <c r="W29" s="121"/>
       <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
+      <c r="AC29" s="1"/>
       <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
+      <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -12267,13 +12385,13 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
     </row>
-    <row r="30" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v xml:space="preserve">SME Retail - fil excel </v>
+        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>APP2.0 - Migrazione</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -12293,16 +12411,16 @@
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -12323,11 +12441,11 @@
     </row>
     <row r="31" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="22">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>SME Retail - AFU</v>
+        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v xml:space="preserve">SME Retail - fil excel </v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -12346,18 +12464,14 @@
       <c r="R31" s="23"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="U31" s="117" t="s">
-        <v>456</v>
-      </c>
+      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="117" t="s">
-        <v>190</v>
-      </c>
+      <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -12381,11 +12495,11 @@
     </row>
     <row r="32" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>SME Retail - Sviluppo indicatori</v>
+        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>SME Retail - AFU</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -12404,41 +12518,27 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="117" t="s">
+        <v>456</v>
+      </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF32" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG32" s="118" t="s">
-        <v>189</v>
-      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="120" t="s">
-        <v>106</v>
-      </c>
+      <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -12453,11 +12553,11 @@
     </row>
     <row r="33" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="23" t="str">
-        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>SME Retail - test indicatori</v>
+        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>SME Retail - Sviluppo indicatori</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -12525,11 +12625,11 @@
     </row>
     <row r="34" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="22">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>SME Retail - Configurazione start-up app (excel)</v>
+        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>SME Retail - test indicatori</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -12553,18 +12653,36 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="1"/>
+      <c r="Z34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG34" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="120" t="s">
+        <v>106</v>
+      </c>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
@@ -12579,11 +12697,11 @@
     </row>
     <row r="35" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="22">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$313,2,FALSE)</f>
-        <v>SME Retail - Configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>SME Retail - Configurazione start-up app (excel)</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -12631,116 +12749,170 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
     </row>
-    <row r="36" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="16" t="s">
+    <row r="36" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="22">
+        <v>129</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f>VLOOKUP(B36,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <v>SME Retail - Configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="120"/>
+      <c r="AG36" s="120"/>
+      <c r="AH36" s="120"/>
+      <c r="AI36" s="120"/>
+      <c r="AJ36" s="120"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+    </row>
+    <row r="37" spans="2:48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B39" s="35"/>
+      <c r="C39" s="16" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="16" t="s">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B40" s="24"/>
+      <c r="C40" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="16" t="s">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B41" s="119"/>
-      <c r="C41" s="16" t="s">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B42" s="119"/>
+      <c r="C42" s="16" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="16" t="s">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="16" t="s">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B44" s="36"/>
+      <c r="C44" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="16" t="s">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B45" s="30"/>
+      <c r="C45" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B45" s="117"/>
-      <c r="C45" s="16" t="s">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B46" s="117"/>
+      <c r="C46" s="16" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B47" s="60">
-        <v>42782</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B48" s="60">
-        <v>42786</v>
+        <v>42782</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="60">
-        <v>42790</v>
+        <v>42786</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="60">
-        <v>42786</v>
+        <v>42790</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="60">
-        <v>42796</v>
+        <v>42786</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="60">
-        <v>42797</v>
+        <v>42796</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="60">
-        <v>42802</v>
+        <v>42797</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="60">
+        <v>42802</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="60">
         <v>42803</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -12759,7 +12931,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12"/>
+      <selection pane="bottomRight" activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12969,11 +13141,11 @@
       </c>
       <c r="AV1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AW1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AX1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15769,10 +15941,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomRight" activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -15928,11 +16100,11 @@
       </c>
       <c r="AK1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AL1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AM1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -17894,7 +18066,9 @@
       <c r="AV7" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="AW7" s="68"/>
+      <c r="AW7" s="69" t="s">
+        <v>259</v>
+      </c>
       <c r="AX7" s="68"/>
       <c r="AY7" s="68"/>
       <c r="AZ7" s="68"/>
@@ -18233,7 +18407,7 @@
       <c r="AV8" s="61"/>
       <c r="AW8" s="61">
         <f>COUNTBLANK(AW3:AW7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="61">
         <f>COUNTBLANK(AX3:AX7)</f>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="467">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -2195,37 +2195,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="144">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7981,722 +7951,722 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
-    <cfRule type="cellIs" dxfId="146" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="145" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="184" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="144" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="143" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="182" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="142" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="181" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="141" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="140" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="139" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="138" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="137" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="136" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="135" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="134" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="133" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="132" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="131" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="130" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="129" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="128" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="127" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="126" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="125" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="124" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="123" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="122" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="121" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="120" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="119" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="118" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="116" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="115" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="114" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="113" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="149" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="112" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="147" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="111" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="110" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="109" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="108" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="107" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="106" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="105" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="104" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="103" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="102" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="101" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="100" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="99" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="98" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="97" priority="132" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="96" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="95" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="94" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="93" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="92" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="91" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="90" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="89" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="88" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="87" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="86" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="85" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="84" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="83" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="82" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="80" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="79" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="78" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="77" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="76" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="75" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="73" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="72" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="70" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="69" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="67" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="86" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="64" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="62" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="61" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="59" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="58" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="57" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="56" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="55" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="54" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="52" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="49" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="48" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="47" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="46" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="44" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="43" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="42" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="41" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="38" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122 E125">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G112">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127:E129">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130:G131">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130:G131">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E131">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10400,10 +10370,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12581,9 +12551,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="118" t="s">
-        <v>189</v>
-      </c>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="118" t="s">
         <v>189</v>
       </c>
@@ -12653,15 +12621,9 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA34" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB34" s="118" t="s">
-        <v>189</v>
-      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
       <c r="AC34" s="118" t="s">
         <v>189</v>
       </c>
@@ -13145,7 +13107,7 @@
       </c>
       <c r="AW1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AX1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13157,7 +13119,7 @@
       </c>
       <c r="AZ1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BA1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -16104,7 +16066,7 @@
       </c>
       <c r="AL1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AM1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16116,7 +16078,7 @@
       </c>
       <c r="AO1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AP1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
     <sheet name="Rilascio 2701" sheetId="5" r:id="rId2"/>
     <sheet name="Rilascio 1003" sheetId="8" r:id="rId3"/>
     <sheet name="Rilascio 2403" sheetId="9" r:id="rId4"/>
-    <sheet name="Plan DEV" sheetId="4" r:id="rId5"/>
-    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId6"/>
-    <sheet name="Plan team" sheetId="7" r:id="rId7"/>
+    <sheet name="Rilascio 0505" sheetId="10" r:id="rId5"/>
+    <sheet name="Plan DEV" sheetId="4" r:id="rId6"/>
+    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId7"/>
+    <sheet name="Plan team" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$156</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="475">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -767,27 +768,6 @@
     <t>dati/output</t>
   </si>
   <si>
-    <t>fine sviluppi</t>
-  </si>
-  <si>
-    <t>fine test</t>
-  </si>
-  <si>
-    <t>apertura UDC</t>
-  </si>
-  <si>
-    <t>campi ETL in test</t>
-  </si>
-  <si>
-    <t>campi ETL in dev</t>
-  </si>
-  <si>
-    <t>chiusura UDC o UDE</t>
-  </si>
-  <si>
-    <t>go-live</t>
-  </si>
-  <si>
     <t>intervento correttivo XRA</t>
   </si>
   <si>
@@ -1400,9 +1380,6 @@
     <t>MC/MD/MC</t>
   </si>
   <si>
-    <t xml:space="preserve">SME Retail - fil excel </t>
-  </si>
-  <si>
     <t>BRB</t>
   </si>
   <si>
@@ -1434,6 +1411,54 @@
   </si>
   <si>
     <t>dati 18/04</t>
+  </si>
+  <si>
+    <t>metà luglio</t>
+  </si>
+  <si>
+    <t>fine luglio su Corporate</t>
+  </si>
+  <si>
+    <t>fine agosto su Retail</t>
+  </si>
+  <si>
+    <t>app 2.0 - rifare AFU Banche estere</t>
+  </si>
+  <si>
+    <t>app 2.0 - rifare AFU Corporate</t>
+  </si>
+  <si>
+    <t>app 2.0 - rifare AFU Retail</t>
+  </si>
+  <si>
+    <t>app 2.0 - presentazione novità</t>
+  </si>
+  <si>
+    <t>app 2.0 - presentazione funzionalità</t>
+  </si>
+  <si>
+    <t>FM/IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME Retail - file excel </t>
+  </si>
+  <si>
+    <t>BR34bis</t>
+  </si>
+  <si>
+    <t>IND_34_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_34_FL_SUPER</t>
+  </si>
+  <si>
+    <t>BR34</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_34_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_34_FL_SUPER</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +3977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE151"/>
+  <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="D102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4748,7 +4773,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
@@ -6444,9 +6469,11 @@
         <v>131</v>
       </c>
       <c r="E86" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F86" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="13">
+        <v>1</v>
+      </c>
       <c r="G86" s="13"/>
       <c r="H86" s="5">
         <v>1</v>
@@ -6469,8 +6496,12 @@
       <c r="D87" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="13">
+        <v>1</v>
+      </c>
       <c r="G87" s="13"/>
       <c r="H87" s="5">
         <v>1</v>
@@ -6544,7 +6575,7 @@
         <v>131</v>
       </c>
       <c r="E90" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -6569,7 +6600,9 @@
       <c r="D91" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="13"/>
+      <c r="E91" s="13">
+        <v>1</v>
+      </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="5">
@@ -6800,7 +6833,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -6844,11 +6877,11 @@
     </row>
     <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B131" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B136" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>161</v>
@@ -6884,7 +6917,7 @@
         <v>161</v>
       </c>
       <c r="E102" s="13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -6935,7 +6968,9 @@
       <c r="D104" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E104" s="13"/>
+      <c r="E104" s="13">
+        <v>0.8</v>
+      </c>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="5">
@@ -7018,7 +7053,9 @@
       <c r="E107" s="13">
         <v>1</v>
       </c>
-      <c r="F107" s="13"/>
+      <c r="F107" s="13">
+        <v>1</v>
+      </c>
       <c r="G107" s="13"/>
       <c r="H107" s="5">
         <v>2</v>
@@ -7235,7 +7272,9 @@
       <c r="D115" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E115" s="13"/>
+      <c r="E115" s="13">
+        <v>1</v>
+      </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
       <c r="H115" s="5">
@@ -7259,7 +7298,9 @@
       <c r="D116" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="13"/>
+      <c r="E116" s="13">
+        <v>1</v>
+      </c>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
       <c r="H116" s="5">
@@ -7283,7 +7324,9 @@
       <c r="D117" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E117" s="13"/>
+      <c r="E117" s="13">
+        <v>1</v>
+      </c>
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
       <c r="H117" s="5">
@@ -7323,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -7332,10 +7375,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E119" s="13">
         <v>1</v>
@@ -7360,7 +7403,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>35</v>
@@ -7386,10 +7429,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E121" s="13">
         <v>1</v>
@@ -7410,10 +7453,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
@@ -7432,10 +7475,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
@@ -7450,10 +7493,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
@@ -7468,12 +7511,14 @@
         <v>124</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="13"/>
+      <c r="E125" s="13">
+        <v>0.8</v>
+      </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
@@ -7490,10 +7535,10 @@
         <v>125</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
@@ -7512,7 +7557,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D127" s="17" t="s">
         <v>35</v>
@@ -7534,7 +7579,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>35</v>
@@ -7556,7 +7601,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>35</v>
@@ -7578,10 +7623,10 @@
         <v>129</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
@@ -7600,12 +7645,14 @@
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E131" s="13"/>
+      <c r="E131" s="13">
+        <v>1</v>
+      </c>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="5">
@@ -7615,337 +7662,453 @@
         <v>2</v>
       </c>
       <c r="J131" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="7">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="5">
+        <v>2</v>
+      </c>
+      <c r="I132" s="5">
+        <v>3</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="7">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="5">
+        <v>2</v>
+      </c>
+      <c r="I133" s="5">
+        <v>3</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" s="7">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C132" s="31"/>
-    </row>
-    <row r="133" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="91" t="s">
+      <c r="D134" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="5">
+        <v>2</v>
+      </c>
+      <c r="I134" s="5">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="7">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="5">
+        <v>2</v>
+      </c>
+      <c r="I135" s="5">
+        <v>3</v>
+      </c>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="7">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="5">
+        <v>2</v>
+      </c>
+      <c r="I136" s="5">
+        <v>3</v>
+      </c>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="31"/>
+    </row>
+    <row r="138" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="D138" s="91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E138" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="F138" s="90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="D139" s="96">
+        <v>42815</v>
+      </c>
+      <c r="E139" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="F139" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="98" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="C133" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="D133" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="E133" s="90" t="s">
-        <v>415</v>
-      </c>
-      <c r="F133" s="90" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="C134" s="95" t="s">
-        <v>420</v>
-      </c>
-      <c r="D134" s="96">
-        <v>42815</v>
-      </c>
-      <c r="E134" s="93" t="s">
-        <v>419</v>
-      </c>
-      <c r="F134" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="98" t="s">
-        <v>422</v>
-      </c>
-      <c r="C135" s="99" t="s">
-        <v>423</v>
-      </c>
-      <c r="D135" s="100">
+      <c r="D140" s="100">
         <v>42814</v>
       </c>
-      <c r="E135" s="97" t="s">
-        <v>421</v>
-      </c>
-      <c r="F135" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C136" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D136" s="104">
-        <v>42814</v>
-      </c>
-      <c r="E136" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="F136" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C137" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="D137" s="104">
-        <v>42816</v>
-      </c>
-      <c r="E137" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="F137" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C138" s="103" t="s">
-        <v>429</v>
-      </c>
-      <c r="D138" s="104">
-        <v>42818</v>
-      </c>
-      <c r="E138" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="F138" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C139" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="D139" s="104">
-        <v>42818</v>
-      </c>
-      <c r="E139" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="F139" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="C140" s="103" t="s">
-        <v>431</v>
-      </c>
-      <c r="D140" s="104">
-        <v>42818</v>
-      </c>
-      <c r="E140" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="F140" s="101">
+      <c r="E140" s="97" t="s">
+        <v>414</v>
+      </c>
+      <c r="F140" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="102" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C141" s="103" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D141" s="104">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="E141" s="101" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F141" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="102" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C142" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D142" s="102" t="s">
-        <v>434</v>
+        <v>421</v>
+      </c>
+      <c r="D142" s="104">
+        <v>42816</v>
       </c>
       <c r="E142" s="101" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F142" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="102" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C143" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="D143" s="102" t="s">
-        <v>434</v>
+        <v>422</v>
+      </c>
+      <c r="D143" s="104">
+        <v>42818</v>
       </c>
       <c r="E143" s="101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F143" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="102" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C144" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="D144" s="102" t="s">
-        <v>434</v>
+        <v>423</v>
+      </c>
+      <c r="D144" s="104">
+        <v>42818</v>
       </c>
       <c r="E144" s="101" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="F144" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="102" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C145" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D145" s="102" t="s">
-        <v>434</v>
+        <v>424</v>
+      </c>
+      <c r="D145" s="104">
+        <v>42818</v>
       </c>
       <c r="E145" s="101" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F145" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="106" t="s">
+      <c r="B146" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C146" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="D146" s="104">
+        <v>42818</v>
+      </c>
+      <c r="E146" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="F146" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C147" s="103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D147" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E147" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="F147" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C148" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="D148" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E148" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="F148" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="D149" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E149" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="F149" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="D150" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="F150" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C151" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D151" s="108">
+        <v>42815</v>
+      </c>
+      <c r="E151" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="D152" s="108">
+        <v>42817</v>
+      </c>
+      <c r="E152" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="F152" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="111" t="s">
+        <v>435</v>
+      </c>
+      <c r="D153" s="112">
+        <v>42824</v>
+      </c>
+      <c r="E153" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="F153" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="114" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="D154" s="116">
+        <v>42822</v>
+      </c>
+      <c r="E154" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="F154" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="114" t="s">
+        <v>436</v>
+      </c>
+      <c r="C155" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="D155" s="116">
+        <v>42825</v>
+      </c>
+      <c r="E155" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="F155" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="114" t="s">
+        <v>436</v>
+      </c>
+      <c r="C156" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="C146" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="D146" s="108">
-        <v>42815</v>
-      </c>
-      <c r="E146" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="F146" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="C147" s="107" t="s">
-        <v>441</v>
-      </c>
-      <c r="D147" s="108">
-        <v>42817</v>
-      </c>
-      <c r="E147" s="105" t="s">
-        <v>427</v>
-      </c>
-      <c r="F147" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="111" t="s">
-        <v>442</v>
-      </c>
-      <c r="D148" s="112">
-        <v>42824</v>
-      </c>
-      <c r="E148" s="109" t="s">
-        <v>419</v>
-      </c>
-      <c r="F148" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D149" s="116">
-        <v>42822</v>
-      </c>
-      <c r="E149" s="113" t="s">
-        <v>436</v>
-      </c>
-      <c r="F149" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C150" s="115" t="s">
-        <v>445</v>
-      </c>
-      <c r="D150" s="116">
+      <c r="D156" s="116">
         <v>42825</v>
       </c>
-      <c r="E150" s="113" t="s">
-        <v>419</v>
-      </c>
-      <c r="F150" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C151" s="115" t="s">
-        <v>446</v>
-      </c>
-      <c r="D151" s="116">
-        <v>42825</v>
-      </c>
-      <c r="E151" s="113" t="s">
-        <v>419</v>
-      </c>
-      <c r="F151" s="113">
-        <v>0</v>
+      <c r="E156" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="F156" s="113">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J151">
+  <autoFilter ref="B1:J156">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
@@ -8655,17 +8818,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130:G131">
+  <conditionalFormatting sqref="F130:G136">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130:G131">
+  <conditionalFormatting sqref="F130:G136">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E131">
+  <conditionalFormatting sqref="E130:E136">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8870,13 +9033,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>178</v>
@@ -8887,7 +9050,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>168</v>
@@ -8898,7 +9061,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>168</v>
@@ -8909,7 +9072,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>168</v>
@@ -8920,7 +9083,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>168</v>
@@ -8931,7 +9094,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>168</v>
@@ -8942,7 +9105,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>168</v>
@@ -8953,7 +9116,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>168</v>
@@ -8964,7 +9127,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>168</v>
@@ -8975,7 +9138,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>168</v>
@@ -8986,7 +9149,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>168</v>
@@ -8997,7 +9160,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>168</v>
@@ -9008,7 +9171,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>168</v>
@@ -9019,7 +9182,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>168</v>
@@ -9030,7 +9193,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>168</v>
@@ -9041,7 +9204,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>168</v>
@@ -9052,7 +9215,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>168</v>
@@ -9063,7 +9226,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>168</v>
@@ -9074,7 +9237,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>168</v>
@@ -9085,7 +9248,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>168</v>
@@ -9096,7 +9259,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>168</v>
@@ -9107,7 +9270,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>168</v>
@@ -9118,7 +9281,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>168</v>
@@ -9129,7 +9292,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>168</v>
@@ -9140,7 +9303,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>168</v>
@@ -9151,7 +9314,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>168</v>
@@ -9162,7 +9325,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>168</v>
@@ -9173,7 +9336,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>168</v>
@@ -9184,7 +9347,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>168</v>
@@ -9195,7 +9358,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>168</v>
@@ -9206,7 +9369,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>168</v>
@@ -9217,7 +9380,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>168</v>
@@ -9228,7 +9391,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>168</v>
@@ -9239,7 +9402,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>168</v>
@@ -9250,7 +9413,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>168</v>
@@ -9261,7 +9424,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>168</v>
@@ -9272,7 +9435,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>168</v>
@@ -9283,7 +9446,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>168</v>
@@ -9294,7 +9457,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>168</v>
@@ -9305,7 +9468,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>168</v>
@@ -9316,7 +9479,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>168</v>
@@ -9327,7 +9490,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>168</v>
@@ -9338,7 +9501,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>168</v>
@@ -9349,7 +9512,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>168</v>
@@ -9360,7 +9523,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>168</v>
@@ -9371,7 +9534,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>168</v>
@@ -9382,7 +9545,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>168</v>
@@ -9393,7 +9556,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>168</v>
@@ -9404,7 +9567,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>168</v>
@@ -9415,7 +9578,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>168</v>
@@ -9426,7 +9589,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>168</v>
@@ -9437,7 +9600,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>168</v>
@@ -9448,7 +9611,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>168</v>
@@ -9459,7 +9622,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>168</v>
@@ -9470,7 +9633,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>168</v>
@@ -9481,7 +9644,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>168</v>
@@ -9492,7 +9655,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>168</v>
@@ -9503,7 +9666,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>168</v>
@@ -9514,7 +9677,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>168</v>
@@ -9525,7 +9688,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>168</v>
@@ -9536,7 +9699,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>168</v>
@@ -9547,7 +9710,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>168</v>
@@ -9558,7 +9721,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>168</v>
@@ -9569,7 +9732,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>168</v>
@@ -9580,7 +9743,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>168</v>
@@ -9591,7 +9754,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>168</v>
@@ -9602,7 +9765,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>168</v>
@@ -9613,7 +9776,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>168</v>
@@ -9624,7 +9787,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>168</v>
@@ -9635,7 +9798,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>168</v>
@@ -9646,7 +9809,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>168</v>
@@ -9657,7 +9820,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>168</v>
@@ -9668,7 +9831,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>168</v>
@@ -9679,7 +9842,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>168</v>
@@ -9690,7 +9853,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>168</v>
@@ -9701,7 +9864,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>168</v>
@@ -9712,7 +9875,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>168</v>
@@ -9723,7 +9886,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>168</v>
@@ -9734,7 +9897,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>168</v>
@@ -9745,7 +9908,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>168</v>
@@ -9756,7 +9919,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>168</v>
@@ -9767,7 +9930,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>168</v>
@@ -9778,7 +9941,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>168</v>
@@ -9789,7 +9952,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>168</v>
@@ -9800,7 +9963,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>168</v>
@@ -9811,7 +9974,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>168</v>
@@ -9822,7 +9985,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>168</v>
@@ -9833,7 +9996,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>168</v>
@@ -9844,7 +10007,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>168</v>
@@ -9855,7 +10018,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>168</v>
@@ -9866,7 +10029,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>168</v>
@@ -9877,7 +10040,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>168</v>
@@ -9888,7 +10051,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>168</v>
@@ -9899,7 +10062,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>168</v>
@@ -9910,7 +10073,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>168</v>
@@ -9921,7 +10084,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>168</v>
@@ -9932,7 +10095,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>168</v>
@@ -9943,7 +10106,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>168</v>
@@ -9954,7 +10117,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>168</v>
@@ -9965,7 +10128,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>168</v>
@@ -9976,7 +10139,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>168</v>
@@ -9987,7 +10150,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -9998,7 +10161,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -10009,7 +10172,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -10020,7 +10183,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -10031,7 +10194,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -10042,7 +10205,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -10053,7 +10216,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -10064,7 +10227,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -10075,7 +10238,7 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -10086,7 +10249,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -10097,7 +10260,7 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -10108,7 +10271,7 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -10119,7 +10282,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -10130,7 +10293,7 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -10141,7 +10304,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -10152,7 +10315,7 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -10163,7 +10326,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -10174,7 +10337,7 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -10185,7 +10348,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>168</v>
@@ -10196,7 +10359,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>168</v>
@@ -10207,7 +10370,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>168</v>
@@ -10245,13 +10408,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>178</v>
@@ -10262,7 +10425,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="86" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>168</v>
@@ -10273,7 +10436,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="86" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>168</v>
@@ -10284,7 +10447,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>168</v>
@@ -10295,7 +10458,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="86" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -10306,7 +10469,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
@@ -10317,7 +10480,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -10328,7 +10491,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -10339,7 +10502,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -10350,7 +10513,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -10367,13 +10530,123 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="86" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="88"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="88"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="86" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="88"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:F8">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10476,7 +10749,7 @@
       </c>
       <c r="V1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="W1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10484,7 +10757,7 @@
       </c>
       <c r="X1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="Y1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10775,7 +11048,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -10829,7 +11102,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -10887,7 +11160,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -10941,7 +11214,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -10955,7 +11228,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -10999,7 +11272,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -11013,7 +11286,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -11057,7 +11330,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -11071,7 +11344,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -11115,7 +11388,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -11171,7 +11444,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -11190,7 +11463,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>195</v>
@@ -11229,7 +11502,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -11285,7 +11558,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
@@ -11300,7 +11573,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -11343,7 +11616,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Override - incrocio assegni (BR34)</v>
       </c>
       <c r="D13" s="23"/>
@@ -11367,10 +11640,10 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="35" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Y13" s="35" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="Z13" s="35" t="s">
         <v>196</v>
@@ -11403,7 +11676,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D14" s="23"/>
@@ -11457,7 +11730,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
@@ -11515,7 +11788,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D16" s="23"/>
@@ -11569,7 +11842,7 @@
         <v>85</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
@@ -11598,12 +11871,12 @@
       <c r="U17" s="28"/>
       <c r="V17" s="23"/>
       <c r="W17" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="X17" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="Y17" s="23"/>
       <c r="Z17" s="28" t="s">
         <v>196</v>
       </c>
@@ -11635,7 +11908,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D18" s="23"/>
@@ -11689,7 +11962,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>ISPRO - motore</v>
       </c>
       <c r="D19" s="23"/>
@@ -11751,7 +12024,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>ISPRO - file test e TCK</v>
       </c>
       <c r="D20" s="23"/>
@@ -11805,7 +12078,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D21" s="23"/>
@@ -11892,7 +12165,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D22" s="23"/>
@@ -11946,7 +12219,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>VM - Retail: nodo Riempimento</v>
       </c>
       <c r="D23" s="23"/>
@@ -12000,7 +12273,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D24" s="23"/>
@@ -12074,7 +12347,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D25" s="23"/>
@@ -12132,7 +12405,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D26" s="23"/>
@@ -12190,7 +12463,7 @@
         <v>114</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>ISBA - motore</v>
       </c>
       <c r="D27" s="23"/>
@@ -12252,7 +12525,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="23" t="str">
-        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>ISBA - file test e TCK</v>
       </c>
       <c r="D28" s="23"/>
@@ -12306,7 +12579,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>APP2.0 - Configurazione</v>
       </c>
       <c r="D29" s="23"/>
@@ -12360,7 +12633,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>APP2.0 - Migrazione</v>
       </c>
       <c r="D30" s="23"/>
@@ -12414,8 +12687,8 @@
         <v>124</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
-        <v xml:space="preserve">SME Retail - fil excel </v>
+        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <v xml:space="preserve">SME Retail - file excel </v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -12468,7 +12741,7 @@
         <v>125</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>SME Retail - AFU</v>
       </c>
       <c r="D32" s="23"/>
@@ -12489,7 +12762,7 @@
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="117" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -12526,7 +12799,7 @@
         <v>126</v>
       </c>
       <c r="C33" s="23" t="str">
-        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>SME Retail - Sviluppo indicatori</v>
       </c>
       <c r="D33" s="23"/>
@@ -12596,7 +12869,7 @@
         <v>127</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>SME Retail - test indicatori</v>
       </c>
       <c r="D34" s="23"/>
@@ -12662,7 +12935,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>SME Retail - Configurazione start-up app (excel)</v>
       </c>
       <c r="D35" s="23"/>
@@ -12716,7 +12989,7 @@
         <v>129</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f>VLOOKUP(B36,Elenco_attività!$B$47:$C$314,2,FALSE)</f>
+        <f>VLOOKUP(B36,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
         <v>SME Retail - Configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D36" s="23"/>
@@ -12769,7 +13042,7 @@
     <row r="39" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B39" s="35"/>
       <c r="C39" s="16" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.3">
@@ -12787,7 +13060,7 @@
     <row r="42" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B42" s="119"/>
       <c r="C42" s="16" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.3">
@@ -12811,72 +13084,32 @@
     <row r="46" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B46" s="117"/>
       <c r="C46" s="16" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B48" s="60">
-        <v>42782</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="60">
-        <v>42786</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="60">
-        <v>42790</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="60">
-        <v>42786</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="60">
-        <v>42796</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="60">
-        <v>42797</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="60">
-        <v>42802</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="60">
-        <v>42803</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>250</v>
-      </c>
+      <c r="B48" s="60"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="60"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="60"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="60"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="60"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="60"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12884,7 +13117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
@@ -12893,7 +13126,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BC12" sqref="BC12"/>
+      <selection pane="bottomRight" activeCell="BH9" sqref="BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13119,7 +13352,7 @@
       </c>
       <c r="AZ1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BA1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13151,7 +13384,7 @@
       </c>
       <c r="BH1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BI1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14316,7 +14549,7 @@
       <c r="AG6" s="50"/>
       <c r="AH6" s="50"/>
       <c r="AI6" s="50" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AJ6" s="50"/>
       <c r="AK6" s="50"/>
@@ -14332,7 +14565,7 @@
       <c r="AU6" s="50"/>
       <c r="AV6" s="50"/>
       <c r="AW6" s="50" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AX6" s="50"/>
       <c r="AY6" s="50"/>
@@ -15898,15 +16131,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:FU16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW7" sqref="AW7"/>
+      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16078,7 +16311,7 @@
       </c>
       <c r="AO1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AP1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16110,7 +16343,7 @@
       </c>
       <c r="AW1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AX1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -17059,22 +17292,22 @@
     </row>
     <row r="3" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
       <c r="I3" s="67" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
@@ -17082,21 +17315,21 @@
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
       <c r="O3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="R3" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="S3" s="68"/>
       <c r="T3" s="68"/>
       <c r="U3" s="62" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="W3" s="68"/>
       <c r="X3" s="68"/>
@@ -17105,21 +17338,21 @@
       <c r="AA3" s="68"/>
       <c r="AB3" s="68"/>
       <c r="AC3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AD3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AE3" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
       <c r="AH3" s="62" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AI3" s="62" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AJ3" s="68"/>
       <c r="AK3" s="68"/>
@@ -17132,29 +17365,27 @@
       <c r="AR3" s="68"/>
       <c r="AS3" s="68"/>
       <c r="AT3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AU3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AV3" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AW3" s="68"/>
       <c r="AX3" s="68"/>
       <c r="AY3" s="68"/>
       <c r="AZ3" s="68"/>
-      <c r="BA3" s="70" t="s">
-        <v>267</v>
-      </c>
+      <c r="BA3" s="68"/>
       <c r="BB3" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC3" s="68"/>
       <c r="BD3" s="68"/>
       <c r="BE3" s="68"/>
       <c r="BF3" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG3" s="68"/>
       <c r="BH3" s="68"/>
@@ -17180,7 +17411,7 @@
       <c r="CB3" s="68"/>
       <c r="CC3" s="68"/>
       <c r="CD3" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CE3" s="68"/>
       <c r="CF3" s="68"/>
@@ -17228,34 +17459,34 @@
       <c r="DV3" s="68"/>
       <c r="DW3" s="68"/>
       <c r="DX3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DY3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DZ3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EA3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EB3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EC3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="ED3" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="EE3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EF3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EG3" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EH3" s="68"/>
       <c r="EI3" s="68"/>
@@ -17300,21 +17531,21 @@
     </row>
     <row r="4" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="68"/>
@@ -17340,7 +17571,7 @@
       <c r="AF4" s="68"/>
       <c r="AG4" s="68"/>
       <c r="AH4" s="62" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AI4" s="68"/>
       <c r="AJ4" s="68"/>
@@ -17354,35 +17585,35 @@
       <c r="AR4" s="68"/>
       <c r="AS4" s="68"/>
       <c r="AT4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AU4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AV4" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AW4" s="68"/>
       <c r="AX4" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AY4" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AZ4" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="BA4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BB4" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC4" s="68"/>
       <c r="BD4" s="68"/>
       <c r="BE4" s="68"/>
       <c r="BF4" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG4" s="68"/>
       <c r="BH4" s="68"/>
@@ -17392,10 +17623,10 @@
       <c r="BL4" s="68"/>
       <c r="BM4" s="68"/>
       <c r="BN4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="BO4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="BP4" s="68"/>
       <c r="BQ4" s="68"/>
@@ -17412,7 +17643,7 @@
       <c r="CB4" s="68"/>
       <c r="CC4" s="68"/>
       <c r="CD4" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CE4" s="68"/>
       <c r="CF4" s="68"/>
@@ -17428,10 +17659,10 @@
       <c r="CP4" s="68"/>
       <c r="CQ4" s="68"/>
       <c r="CR4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="CS4" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="CT4" s="68"/>
       <c r="CU4" s="68"/>
@@ -17464,40 +17695,40 @@
       <c r="DV4" s="68"/>
       <c r="DW4" s="68"/>
       <c r="DX4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DY4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DZ4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EA4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EB4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EC4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="ED4" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="EE4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EF4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EG4" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EH4" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EI4" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EJ4" s="61"/>
       <c r="EK4" s="68"/>
@@ -17540,7 +17771,7 @@
     </row>
     <row r="5" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
@@ -17559,7 +17790,7 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="S5" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="T5" s="61"/>
       <c r="U5" s="61"/>
@@ -17588,29 +17819,29 @@
       <c r="AR5" s="61"/>
       <c r="AS5" s="61"/>
       <c r="AT5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AU5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AV5" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AW5" s="61"/>
       <c r="AX5" s="61"/>
       <c r="AY5" s="61"/>
       <c r="AZ5" s="61"/>
       <c r="BA5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BB5" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC5" s="61"/>
       <c r="BD5" s="61"/>
       <c r="BE5" s="61"/>
       <c r="BF5" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG5" s="61"/>
       <c r="BH5" s="61"/>
@@ -17636,7 +17867,7 @@
       <c r="CB5" s="61"/>
       <c r="CC5" s="61"/>
       <c r="CD5" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CE5" s="61"/>
       <c r="CF5" s="61"/>
@@ -17644,7 +17875,7 @@
       <c r="CH5" s="61"/>
       <c r="CI5" s="61"/>
       <c r="CJ5" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="CK5" s="61"/>
       <c r="CL5" s="61"/>
@@ -17686,34 +17917,34 @@
       <c r="DV5" s="61"/>
       <c r="DW5" s="61"/>
       <c r="DX5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DY5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DZ5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EA5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EB5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EC5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="ED5" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="EE5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EF5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EG5" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EH5" s="61"/>
       <c r="EI5" s="61"/>
@@ -17758,7 +17989,7 @@
     </row>
     <row r="6" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -17804,29 +18035,29 @@
       <c r="AR6" s="68"/>
       <c r="AS6" s="68"/>
       <c r="AT6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AU6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AV6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AW6" s="68"/>
       <c r="AX6" s="68"/>
       <c r="AY6" s="68"/>
       <c r="AZ6" s="68"/>
       <c r="BA6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BB6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC6" s="68"/>
       <c r="BD6" s="68"/>
       <c r="BE6" s="68"/>
       <c r="BF6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG6" s="68"/>
       <c r="BH6" s="68"/>
@@ -17852,7 +18083,7 @@
       <c r="CB6" s="68"/>
       <c r="CC6" s="68"/>
       <c r="CD6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CE6" s="68"/>
       <c r="CF6" s="68"/>
@@ -17900,37 +18131,37 @@
       <c r="DV6" s="68"/>
       <c r="DW6" s="68"/>
       <c r="DX6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DY6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DZ6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EA6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EB6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EC6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="ED6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="EE6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EF6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EG6" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EH6" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EI6" s="68"/>
       <c r="EJ6" s="68"/>
@@ -17974,7 +18205,7 @@
     </row>
     <row r="7" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -18020,31 +18251,31 @@
       <c r="AR7" s="68"/>
       <c r="AS7" s="68"/>
       <c r="AT7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AU7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AV7" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AW7" s="69" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AX7" s="68"/>
       <c r="AY7" s="68"/>
       <c r="AZ7" s="68"/>
       <c r="BA7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BB7" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC7" s="68"/>
       <c r="BD7" s="68"/>
       <c r="BE7" s="68"/>
       <c r="BF7" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG7" s="68"/>
       <c r="BH7" s="68"/>
@@ -18070,7 +18301,7 @@
       <c r="CB7" s="68"/>
       <c r="CC7" s="68"/>
       <c r="CD7" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CE7" s="68"/>
       <c r="CF7" s="68"/>
@@ -18123,34 +18354,34 @@
       <c r="EA7" s="68"/>
       <c r="EB7" s="68"/>
       <c r="EC7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="ED7" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="EE7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EF7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EG7" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="EH7" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EI7" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EJ7" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EK7" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EL7" s="89" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="EM7" s="68"/>
       <c r="EN7" s="68"/>
@@ -18190,7 +18421,7 @@
     </row>
     <row r="8" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C8" s="61">
         <f t="shared" ref="C8" si="77">COUNTBLANK(C3:C7)</f>
@@ -18383,7 +18614,10 @@
         <f>COUNTBLANK(AZ3:AZ7)</f>
         <v>4</v>
       </c>
-      <c r="BA8" s="61"/>
+      <c r="BA8" s="61">
+        <f>COUNTBLANK(BA3:BA7)</f>
+        <v>1</v>
+      </c>
       <c r="BB8" s="61"/>
       <c r="BC8" s="61">
         <f t="shared" ref="BC8:CG8" si="79">COUNTBLANK(BC3:BC7)</f>
@@ -18844,54 +19078,54 @@
     </row>
     <row r="11" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B11" s="74" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B12" s="75" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B13" s="76" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B14" s="77" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B15" s="78" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:177" x14ac:dyDescent="0.3">
       <c r="B16" s="79" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:BA8 BC8:BE8 EE8:EG8 CE8:EC8 BG8:CC8">
+  <conditionalFormatting sqref="BC8:BE8 EE8:EG8 CE8:EC8 BG8:CC8 C8:BA8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="475">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -3979,8 +3979,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6474,7 +6474,9 @@
       <c r="F86" s="13">
         <v>1</v>
       </c>
-      <c r="G86" s="13"/>
+      <c r="G86" s="13">
+        <v>1</v>
+      </c>
       <c r="H86" s="5">
         <v>1</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6502,7 +6504,9 @@
       <c r="F87" s="13">
         <v>1</v>
       </c>
-      <c r="G87" s="13"/>
+      <c r="G87" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="H87" s="5">
         <v>1</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>161</v>
       </c>
       <c r="E102" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -6969,7 +6973,7 @@
         <v>161</v>
       </c>
       <c r="E104" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
@@ -7039,7 +7043,7 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -7056,7 +7060,9 @@
       <c r="F107" s="13">
         <v>1</v>
       </c>
-      <c r="G107" s="13"/>
+      <c r="G107" s="13">
+        <v>1</v>
+      </c>
       <c r="H107" s="5">
         <v>2</v>
       </c>
@@ -7249,7 +7255,9 @@
       <c r="E114" s="13">
         <v>1</v>
       </c>
-      <c r="F114" s="13"/>
+      <c r="F114" s="13">
+        <v>1</v>
+      </c>
       <c r="G114" s="13"/>
       <c r="H114" s="5">
         <v>2</v>
@@ -10643,10 +10651,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10757,11 +10765,11 @@
       </c>
       <c r="X1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="Y1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="Z1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13122,11 +13130,11 @@
   <dimension ref="B1:DR23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BH9" sqref="BH9"/>
+      <selection pane="bottomRight" activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13384,7 +13392,7 @@
       </c>
       <c r="BH1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BI1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13416,7 +13424,7 @@
       </c>
       <c r="BP1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BQ1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -16135,11 +16143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:FU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16343,7 +16351,7 @@
       </c>
       <c r="AW1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AX1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16375,7 +16383,7 @@
       </c>
       <c r="BE1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BF1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
     <sheet name="Rilascio 2701" sheetId="5" r:id="rId2"/>
     <sheet name="Rilascio 1003" sheetId="8" r:id="rId3"/>
     <sheet name="Rilascio 2403" sheetId="9" r:id="rId4"/>
-    <sheet name="Rilascio 0505" sheetId="10" r:id="rId5"/>
+    <sheet name="Rilascio 1905" sheetId="10" r:id="rId5"/>
     <sheet name="Plan DEV" sheetId="4" r:id="rId6"/>
     <sheet name="Roadmap BigBang" sheetId="6" r:id="rId7"/>
     <sheet name="Plan team" sheetId="7" r:id="rId8"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="476">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>ERROR_MSG_IND_34_FL_SUPER</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -3979,8 +3982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5707,7 +5710,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5722,7 +5725,9 @@
       <c r="F59" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="13"/>
+      <c r="G59" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="H59" s="5">
         <v>2</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5802,7 +5807,9 @@
       <c r="F62" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="H62" s="5">
         <v>3</v>
       </c>
@@ -5899,7 +5906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5914,7 +5921,9 @@
       <c r="F66" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="H66" s="5">
         <v>1</v>
       </c>
@@ -5925,7 +5934,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5939,10 +5948,12 @@
       <c r="E67" s="13">
         <v>1</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="13"/>
+      <c r="F67" s="13">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1</v>
+      </c>
       <c r="H67" s="5">
         <v>3</v>
       </c>
@@ -6923,7 +6934,9 @@
       <c r="E102" s="13">
         <v>1</v>
       </c>
-      <c r="F102" s="13"/>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
       <c r="G102" s="13"/>
       <c r="H102" s="5">
         <v>2</v>
@@ -6949,7 +6962,9 @@
       <c r="E103" s="13">
         <v>1</v>
       </c>
-      <c r="F103" s="13"/>
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
       <c r="G103" s="13"/>
       <c r="H103" s="5">
         <v>2</v>
@@ -7017,7 +7032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="7">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -7031,10 +7046,12 @@
       <c r="E106" s="13">
         <v>1</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" s="13"/>
+      <c r="F106" s="13">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13">
+        <v>1</v>
+      </c>
       <c r="H106" s="5">
         <v>3</v>
       </c>
@@ -7073,7 +7090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -7090,7 +7107,9 @@
       <c r="F108" s="13">
         <v>1</v>
       </c>
-      <c r="G108" s="13"/>
+      <c r="G108" s="13">
+        <v>1</v>
+      </c>
       <c r="H108" s="5">
         <v>1</v>
       </c>
@@ -7488,7 +7507,9 @@
       <c r="D123" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E123" s="13"/>
+      <c r="E123" s="13">
+        <v>0.8</v>
+      </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="5"/>
@@ -7506,7 +7527,9 @@
       <c r="D124" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E124" s="13"/>
+      <c r="E124" s="13">
+        <v>0.15</v>
+      </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="5"/>
@@ -8121,7 +8144,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
+  <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
     <cfRule type="cellIs" dxfId="143" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -10541,7 +10564,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10651,10 +10674,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10769,7 +10792,7 @@
       </c>
       <c r="Y1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="Z1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10777,7 +10800,7 @@
       </c>
       <c r="AA1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13130,11 +13153,11 @@
   <dimension ref="B1:DR23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BO2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BS9" sqref="BS9"/>
+      <selection pane="bottomRight" activeCell="BT16" sqref="BT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13424,7 +13447,7 @@
       </c>
       <c r="BP1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BQ1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13452,7 +13475,7 @@
       </c>
       <c r="BW1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BX1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16141,13 +16164,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:FU16"/>
+  <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="DX7" sqref="DX7:EB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16164,7 +16187,10 @@
     <col min="178" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>475</v>
+      </c>
       <c r="C1" s="64" t="str">
         <f t="shared" ref="C1" ca="1" si="0">IF(TODAY()=C2,"]","")</f>
         <v/>
@@ -16383,7 +16409,7 @@
       </c>
       <c r="BE1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BF1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16411,7 +16437,7 @@
       </c>
       <c r="BL1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BM1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16598,7 +16624,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B2" s="40" t="s">
         <v>240</v>
       </c>
@@ -17298,7 +17324,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="3" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>248</v>
       </c>
@@ -17401,8 +17427,12 @@
       <c r="BJ3" s="68"/>
       <c r="BK3" s="68"/>
       <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
+      <c r="BM3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN3" s="67" t="s">
+        <v>251</v>
+      </c>
       <c r="BO3" s="68"/>
       <c r="BP3" s="68"/>
       <c r="BQ3" s="68"/>
@@ -17451,8 +17481,12 @@
       <c r="DF3" s="68"/>
       <c r="DG3" s="68"/>
       <c r="DH3" s="68"/>
-      <c r="DI3" s="68"/>
-      <c r="DJ3" s="68"/>
+      <c r="DI3" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="DJ3" s="84" t="s">
+        <v>252</v>
+      </c>
       <c r="DK3" s="68"/>
       <c r="DL3" s="68"/>
       <c r="DM3" s="68"/>
@@ -17537,7 +17571,7 @@
       <c r="FT3" s="68"/>
       <c r="FU3" s="68"/>
     </row>
-    <row r="4" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
         <v>249</v>
       </c>
@@ -17628,8 +17662,12 @@
       <c r="BI4" s="68"/>
       <c r="BJ4" s="68"/>
       <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
+      <c r="BL4" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM4" s="67" t="s">
+        <v>251</v>
+      </c>
       <c r="BN4" s="66" t="s">
         <v>250</v>
       </c>
@@ -17777,7 +17815,7 @@
       <c r="FT4" s="68"/>
       <c r="FU4" s="68"/>
     </row>
-    <row r="5" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>261</v>
       </c>
@@ -17995,7 +18033,7 @@
       <c r="FT5" s="61"/>
       <c r="FU5" s="61"/>
     </row>
-    <row r="6" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
         <v>387</v>
       </c>
@@ -18211,7 +18249,7 @@
       <c r="FT6" s="68"/>
       <c r="FU6" s="68"/>
     </row>
-    <row r="7" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
         <v>396</v>
       </c>
@@ -18427,7 +18465,7 @@
       <c r="FT7" s="68"/>
       <c r="FU7" s="68"/>
     </row>
-    <row r="8" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
         <v>256</v>
       </c>
@@ -18662,15 +18700,15 @@
       </c>
       <c r="BL8" s="61">
         <f t="shared" si="79"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM8" s="61">
         <f t="shared" si="79"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BN8" s="61">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO8" s="61">
         <f t="shared" si="79"/>
@@ -18855,11 +18893,11 @@
       </c>
       <c r="DI8" s="61">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DJ8" s="61">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DK8" s="61">
         <f t="shared" si="80"/>
@@ -19084,7 +19122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B11" s="74" t="s">
         <v>257</v>
       </c>
@@ -19092,7 +19130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B12" s="75" t="s">
         <v>258</v>
       </c>
@@ -19100,7 +19138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B13" s="76" t="s">
         <v>253</v>
       </c>
@@ -19108,7 +19146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B14" s="77" t="s">
         <v>259</v>
       </c>
@@ -19116,7 +19154,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B15" s="78" t="s">
         <v>254</v>
       </c>
@@ -19124,7 +19162,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="2:177" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B16" s="79" t="s">
         <v>388</v>
       </c>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -3982,8 +3982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6848,7 +6848,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -7485,7 +7485,9 @@
       <c r="D122" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E122" s="13"/>
+      <c r="E122" s="13">
+        <v>1</v>
+      </c>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="5">
@@ -7528,7 +7530,7 @@
         <v>398</v>
       </c>
       <c r="E124" s="13">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
@@ -7548,7 +7550,7 @@
         <v>24</v>
       </c>
       <c r="E125" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -7571,7 +7573,9 @@
       <c r="D126" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="E126" s="13"/>
+      <c r="E126" s="13">
+        <v>0.75</v>
+      </c>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="5">
@@ -7779,7 +7783,9 @@
       <c r="D135" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E135" s="13"/>
+      <c r="E135" s="13">
+        <v>1</v>
+      </c>
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="H135" s="5">
@@ -10674,10 +10680,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10800,11 +10806,11 @@
       </c>
       <c r="AA1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AC1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13157,7 +13163,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BT16" sqref="BT16"/>
+      <selection pane="bottomRight" activeCell="CE12" sqref="CE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13475,7 +13481,7 @@
       </c>
       <c r="BW1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BX1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13507,7 +13513,7 @@
       </c>
       <c r="CE1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CF1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16166,11 +16172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DR3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DX7" sqref="DX7:EB7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16437,7 +16443,7 @@
       </c>
       <c r="BL1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BM1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16469,7 +16475,7 @@
       </c>
       <c r="BT1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="BU1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="476">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -3982,7 +3982,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AC1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="AF1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AG1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="CE1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CF1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="CX1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CY1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16172,11 +16172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="CP4" sqref="CP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="BT1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="BU1" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="CM1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CN1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17470,7 +17470,9 @@
       <c r="CO3" s="68"/>
       <c r="CP3" s="68"/>
       <c r="CQ3" s="68"/>
-      <c r="CR3" s="68"/>
+      <c r="CR3" s="62" t="s">
+        <v>255</v>
+      </c>
       <c r="CS3" s="68"/>
       <c r="CT3" s="68"/>
       <c r="CU3" s="68"/>
@@ -17926,11 +17928,11 @@
       <c r="CG5" s="61"/>
       <c r="CH5" s="61"/>
       <c r="CI5" s="61"/>
-      <c r="CJ5" s="69" t="s">
+      <c r="CJ5" s="68"/>
+      <c r="CK5" s="61"/>
+      <c r="CL5" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="CK5" s="61"/>
-      <c r="CL5" s="61"/>
       <c r="CM5" s="61"/>
       <c r="CN5" s="61"/>
       <c r="CO5" s="61"/>
@@ -18799,7 +18801,7 @@
       </c>
       <c r="CJ8" s="61">
         <f t="shared" si="80"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK8" s="61">
         <f t="shared" si="80"/>
@@ -18807,7 +18809,7 @@
       </c>
       <c r="CL8" s="61">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM8" s="61">
         <f t="shared" si="80"/>
@@ -18831,7 +18833,7 @@
       </c>
       <c r="CR8" s="61">
         <f t="shared" si="80"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS8" s="61">
         <f t="shared" si="80"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -3982,8 +3982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6850,7 +6850,9 @@
       <c r="E99" s="13">
         <v>1</v>
       </c>
-      <c r="F99" s="13"/>
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
       <c r="G99" s="13"/>
       <c r="H99" s="5">
         <v>2</v>
@@ -7354,7 +7356,9 @@
       <c r="E117" s="13">
         <v>1</v>
       </c>
-      <c r="F117" s="13"/>
+      <c r="F117" s="13">
+        <v>1</v>
+      </c>
       <c r="G117" s="13"/>
       <c r="H117" s="5">
         <v>2</v>
@@ -7464,7 +7468,9 @@
       <c r="E121" s="13">
         <v>1</v>
       </c>
-      <c r="F121" s="13"/>
+      <c r="F121" s="13">
+        <v>1</v>
+      </c>
       <c r="G121" s="13"/>
       <c r="H121" s="5">
         <v>3</v>
@@ -7510,7 +7516,7 @@
         <v>398</v>
       </c>
       <c r="E123" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
@@ -7530,7 +7536,7 @@
         <v>398</v>
       </c>
       <c r="E124" s="13">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
@@ -7552,7 +7558,9 @@
       <c r="E125" s="13">
         <v>1</v>
       </c>
-      <c r="F125" s="13"/>
+      <c r="F125" s="13">
+        <v>1</v>
+      </c>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
         <v>3</v>
@@ -7597,7 +7605,9 @@
       <c r="D127" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E127" s="13"/>
+      <c r="E127" s="13">
+        <v>0.25</v>
+      </c>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
@@ -7619,7 +7629,9 @@
       <c r="D128" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E128" s="13"/>
+      <c r="E128" s="13">
+        <v>0.25</v>
+      </c>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="5">
@@ -7641,7 +7653,9 @@
       <c r="D129" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E129" s="13"/>
+      <c r="E129" s="13">
+        <v>0.25</v>
+      </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
@@ -7711,7 +7725,9 @@
       <c r="D132" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E132" s="13"/>
+      <c r="E132" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="5">
@@ -7786,8 +7802,12 @@
       <c r="E135" s="13">
         <v>1</v>
       </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
+      <c r="F135" s="13">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13">
+        <v>1</v>
+      </c>
       <c r="H135" s="5">
         <v>2</v>
       </c>
@@ -10680,10 +10700,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10826,11 +10846,11 @@
       </c>
       <c r="AF1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AG1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13159,11 +13179,11 @@
   <dimension ref="B1:DR23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="CL2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="CE12" sqref="CE12"/>
+      <selection pane="bottomRight" activeCell="CZ15" sqref="CZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13589,7 +13609,7 @@
       </c>
       <c r="CX1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CY1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13597,7 +13617,7 @@
       </c>
       <c r="CZ1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DA1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16172,11 +16192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CP3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CP4" sqref="CP4"/>
+      <selection pane="bottomRight" activeCell="DD1" sqref="DD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16551,7 +16571,7 @@
       </c>
       <c r="CM1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CN1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16559,7 +16579,7 @@
       </c>
       <c r="CO1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CP1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="476">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -3982,8 +3982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="CZ1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DA1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="DB1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DC1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16192,11 +16192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DD1" sqref="DD1"/>
+      <selection pane="bottomRight" activeCell="DF4" sqref="DF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="CO1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CP1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="CQ1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CR1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18237,10 +18237,18 @@
       <c r="EH6" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="EI6" s="68"/>
-      <c r="EJ6" s="68"/>
-      <c r="EK6" s="68"/>
-      <c r="EL6" s="68"/>
+      <c r="EI6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EJ6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EL6" s="89" t="s">
+        <v>252</v>
+      </c>
       <c r="EM6" s="68"/>
       <c r="EN6" s="68"/>
       <c r="EO6" s="68"/>
@@ -18457,11 +18465,21 @@
       <c r="EL7" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="EM7" s="68"/>
-      <c r="EN7" s="68"/>
-      <c r="EO7" s="68"/>
-      <c r="EP7" s="68"/>
-      <c r="EQ7" s="68"/>
+      <c r="EM7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EN7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EO7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EP7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EQ7" s="89" t="s">
+        <v>252</v>
+      </c>
       <c r="ER7" s="68"/>
       <c r="ES7" s="68"/>
       <c r="ET7" s="68"/>
@@ -18995,39 +19013,39 @@
       </c>
       <c r="EI8" s="61">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EJ8" s="61">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EK8" s="61">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EL8" s="61">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EM8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EN8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EO8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EP8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EQ8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="ER8" s="61">
         <f t="shared" si="82"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="476">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -3982,8 +3982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6836,7 +6836,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
         <f t="shared" ref="B99" si="2">+B98+1</f>
         <v>98</v>
@@ -6853,7 +6853,9 @@
       <c r="F99" s="13">
         <v>1</v>
       </c>
-      <c r="G99" s="13"/>
+      <c r="G99" s="13">
+        <v>1</v>
+      </c>
       <c r="H99" s="5">
         <v>2</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -6939,7 +6941,9 @@
       <c r="F102" s="13">
         <v>1</v>
       </c>
-      <c r="G102" s="13"/>
+      <c r="G102" s="13">
+        <v>1</v>
+      </c>
       <c r="H102" s="5">
         <v>2</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -6967,7 +6971,9 @@
       <c r="F103" s="13">
         <v>1</v>
       </c>
-      <c r="G103" s="13"/>
+      <c r="G103" s="13">
+        <v>1</v>
+      </c>
       <c r="H103" s="5">
         <v>2</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -6992,8 +6998,12 @@
       <c r="E104" s="13">
         <v>1</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+      <c r="F104" s="13">
+        <v>1</v>
+      </c>
+      <c r="G104" s="13">
+        <v>1</v>
+      </c>
       <c r="H104" s="5">
         <v>2</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>398</v>
       </c>
       <c r="E124" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
@@ -7606,7 +7616,7 @@
         <v>35</v>
       </c>
       <c r="E127" s="13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
@@ -7630,7 +7640,7 @@
         <v>35</v>
       </c>
       <c r="E128" s="13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
@@ -7726,7 +7736,7 @@
         <v>467</v>
       </c>
       <c r="E132" s="13">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
@@ -7788,7 +7798,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -10850,11 +10860,11 @@
       </c>
       <c r="AG1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AI1" s="26" t="str">
         <f t="shared" ref="AI1" ca="1" si="1">IF(TODAY()&gt;=AI2,IF(TODAY()&lt;AJ2,"]",""),"")</f>
@@ -13625,7 +13635,7 @@
       </c>
       <c r="DB1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DC1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13637,7 +13647,7 @@
       </c>
       <c r="DE1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DF1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16192,11 +16202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CL3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DF4" sqref="DF4"/>
+      <selection pane="bottomRight" activeCell="DH4" sqref="DH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16587,7 +16597,7 @@
       </c>
       <c r="CQ1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CR1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16599,7 +16609,7 @@
       </c>
       <c r="CT1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="CU1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17448,7 +17458,9 @@
         <v>389</v>
       </c>
       <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
+      <c r="BH3" s="62" t="s">
+        <v>255</v>
+      </c>
       <c r="BI3" s="68"/>
       <c r="BJ3" s="68"/>
       <c r="BK3" s="68"/>
@@ -17686,7 +17698,9 @@
         <v>389</v>
       </c>
       <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
+      <c r="BH4" s="62" t="s">
+        <v>255</v>
+      </c>
       <c r="BI4" s="68"/>
       <c r="BJ4" s="68"/>
       <c r="BK4" s="68"/>
@@ -18730,7 +18744,7 @@
       </c>
       <c r="BH8" s="61">
         <f t="shared" si="79"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI8" s="61">
         <f t="shared" si="79"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="477">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1462,13 +1462,16 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1572,8 +1575,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,6 +1792,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1972,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2219,11 +2235,24 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="145">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3982,8 +4011,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5736,7 +5765,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5753,7 +5782,9 @@
       <c r="F60" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="13">
+        <v>1</v>
+      </c>
       <c r="H60" s="5">
         <v>3</v>
       </c>
@@ -6578,7 +6609,7 @@
       </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6592,8 +6623,12 @@
       <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+      <c r="F90" s="13">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13">
+        <v>1</v>
+      </c>
       <c r="H90" s="5">
         <v>1</v>
       </c>
@@ -6604,7 +6639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6618,8 +6653,12 @@
       <c r="E91" s="13">
         <v>1</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="F91" s="13">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13">
+        <v>1</v>
+      </c>
       <c r="H91" s="5">
         <v>1</v>
       </c>
@@ -7314,7 +7353,9 @@
       <c r="E115" s="13">
         <v>1</v>
       </c>
-      <c r="F115" s="13"/>
+      <c r="F115" s="13">
+        <v>1</v>
+      </c>
       <c r="G115" s="13"/>
       <c r="H115" s="5">
         <v>2</v>
@@ -7340,7 +7381,9 @@
       <c r="E116" s="13">
         <v>1</v>
       </c>
-      <c r="F116" s="13"/>
+      <c r="F116" s="13">
+        <v>1</v>
+      </c>
       <c r="G116" s="13"/>
       <c r="H116" s="5">
         <v>3</v>
@@ -7438,7 +7481,7 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7">
         <f t="shared" si="4"/>
         <v>119</v>
@@ -7455,7 +7498,9 @@
       <c r="F120" s="13">
         <v>1</v>
       </c>
-      <c r="G120" s="13"/>
+      <c r="G120" s="13">
+        <v>1</v>
+      </c>
       <c r="H120" s="5">
         <v>3</v>
       </c>
@@ -7502,7 +7547,7 @@
         <v>398</v>
       </c>
       <c r="E122" s="13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
@@ -7528,7 +7573,9 @@
       <c r="E123" s="13">
         <v>1</v>
       </c>
-      <c r="F123" s="13"/>
+      <c r="F123" s="13">
+        <v>1</v>
+      </c>
       <c r="G123" s="13"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -7548,7 +7595,9 @@
       <c r="E124" s="13">
         <v>0.8</v>
       </c>
-      <c r="F124" s="13"/>
+      <c r="F124" s="13">
+        <v>0.75</v>
+      </c>
       <c r="G124" s="13"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -7616,7 +7665,7 @@
         <v>35</v>
       </c>
       <c r="E127" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
@@ -7664,7 +7713,7 @@
         <v>35</v>
       </c>
       <c r="E129" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
@@ -7687,7 +7736,9 @@
       <c r="D130" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E130" s="13"/>
+      <c r="E130" s="13">
+        <v>1</v>
+      </c>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="5">
@@ -7698,7 +7749,7 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="7">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -7712,8 +7763,12 @@
       <c r="E131" s="13">
         <v>1</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
+      <c r="F131" s="13">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13">
+        <v>1</v>
+      </c>
       <c r="H131" s="5">
         <v>3</v>
       </c>
@@ -7736,7 +7791,7 @@
         <v>467</v>
       </c>
       <c r="E132" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
@@ -7761,7 +7816,9 @@
       <c r="D133" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E133" s="13"/>
+      <c r="E133" s="13">
+        <v>1</v>
+      </c>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
       <c r="H133" s="5">
@@ -7785,7 +7842,9 @@
       <c r="D134" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E134" s="13"/>
+      <c r="E134" s="13">
+        <v>1</v>
+      </c>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="5">
@@ -7826,7 +7885,7 @@
       </c>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -7837,9 +7896,15 @@
       <c r="D136" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
+      <c r="E136" s="13">
+        <v>1</v>
+      </c>
+      <c r="F136" s="13">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13">
+        <v>1</v>
+      </c>
       <c r="H136" s="5">
         <v>2</v>
       </c>
@@ -8181,147 +8246,152 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
+    <cfRule type="cellIs" dxfId="144" priority="186" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
     <cfRule type="cellIs" dxfId="143" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E69:G69">
     <cfRule type="cellIs" dxfId="142" priority="184" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="141" priority="183" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="140" priority="182" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="139" priority="181" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="138" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="137" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="136" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="135" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="134" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="133" priority="175" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="132" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="130" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="129" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="128" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="127" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="126" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="125" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="124" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="123" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="122" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="121" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="120" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="118" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="117" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="116" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="115" priority="157" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="115" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8330,12 +8400,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="E81:E82">
     <cfRule type="cellIs" dxfId="113" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="112" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8345,8 +8415,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="110" priority="149" operator="lessThan">
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="110" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8355,12 +8425,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="108" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="107" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8370,12 +8440,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="105" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="104" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8385,12 +8455,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="102" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="101" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8400,12 +8470,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="99" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="98" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8415,42 +8485,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="96" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="95" priority="133" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="94" priority="132" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="93" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="92" priority="130" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="91" priority="129" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="90" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="89" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8460,42 +8510,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="87" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="86" priority="124" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="85" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="84" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
+    <cfRule type="cellIs" dxfId="84" priority="111" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
     <cfRule type="cellIs" dxfId="83" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="82" priority="109" operator="lessThan">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="82" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="81" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="80" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8505,12 +8555,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="78" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="77" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8520,18 +8570,18 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="75" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="74" priority="99" operator="lessThan">
+  <conditionalFormatting sqref="E99:E100">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="73" priority="93" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="73" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8540,13 +8590,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="71" priority="94" operator="lessThan">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="70" priority="90" operator="lessThan">
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="70" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8555,13 +8605,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="68" priority="91" operator="lessThan">
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="67" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8570,13 +8620,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="65" priority="88" operator="lessThan">
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="lessThan">
+  <conditionalFormatting sqref="F104:G104">
+    <cfRule type="cellIs" dxfId="64" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8585,8 +8635,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="62" priority="85" operator="lessThan">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="62" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8595,7 +8645,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="60" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8605,7 +8655,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="58" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8615,7 +8665,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="56" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8625,12 +8675,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="54" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="53" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8640,7 +8690,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8650,12 +8700,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="49" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="48" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8665,12 +8715,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="46" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="45" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8680,12 +8730,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="43" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="42" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8695,43 +8745,43 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="40" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="38" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114:G117">
     <cfRule type="cellIs" dxfId="37" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="35" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8740,7 +8790,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="F118:G118">
     <cfRule type="cellIs" dxfId="31" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8750,13 +8800,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
+  <conditionalFormatting sqref="E118">
     <cfRule type="cellIs" dxfId="29" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="lessThan">
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8765,22 +8815,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
+  <conditionalFormatting sqref="E119">
     <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="24" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="F120:G121">
     <cfRule type="cellIs" dxfId="23" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8790,12 +8840,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
+  <conditionalFormatting sqref="F122:G122 F125:G125">
     <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8805,38 +8855,38 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G122 F125:G125">
+  <conditionalFormatting sqref="E122 E125">
     <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122 E125">
+  <conditionalFormatting sqref="F111:G112">
     <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G112">
+  <conditionalFormatting sqref="F110">
     <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
+  <conditionalFormatting sqref="G110">
     <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110">
+  <conditionalFormatting sqref="F96:G96 F93:G94">
     <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96 F93:G94">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThan">
+  <conditionalFormatting sqref="F127:G129">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8845,12 +8895,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127:G129">
+  <conditionalFormatting sqref="E127:E129">
     <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E129">
+  <conditionalFormatting sqref="F126:G126">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8860,12 +8910,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126:G126">
+  <conditionalFormatting sqref="E126">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
+  <conditionalFormatting sqref="F123:G124">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8875,13 +8925,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G124">
+  <conditionalFormatting sqref="E123:E124">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="F130:G136">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8890,12 +8940,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130:G136">
+  <conditionalFormatting sqref="E130:E136">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E136">
+  <conditionalFormatting sqref="F90:G91">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -10710,10 +10760,10 @@
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG1048576"/>
+      <selection pane="bottomRight" activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10864,7 +10914,7 @@
       </c>
       <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AI1" s="26" t="str">
         <f t="shared" ref="AI1" ca="1" si="1">IF(TODAY()&gt;=AI2,IF(TODAY()&lt;AJ2,"]",""),"")</f>
@@ -10872,7 +10922,7 @@
       </c>
       <c r="AJ1" s="26" t="str">
         <f t="shared" ref="AJ1" ca="1" si="2">IF(TODAY()&gt;=AJ2,IF(TODAY()&lt;AK2,"]",""),"")</f>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AK1" s="26" t="str">
         <f t="shared" ref="AK1" ca="1" si="3">IF(TODAY()&gt;=AK2,IF(TODAY()&lt;AL2,"]",""),"")</f>
@@ -13647,7 +13697,7 @@
       </c>
       <c r="DE1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DF1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13687,7 +13737,7 @@
       </c>
       <c r="DO1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DP1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16200,13 +16250,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FU16"/>
+  <dimension ref="A1:FU15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DH4" sqref="DH4"/>
+      <selection pane="bottomRight" activeCell="DD8" sqref="DD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16609,7 +16659,7 @@
       </c>
       <c r="CT1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="CU1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16649,7 +16699,7 @@
       </c>
       <c r="DD1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DE1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18514,16 +18564,36 @@
       <c r="FI7" s="68"/>
       <c r="FJ7" s="68"/>
       <c r="FK7" s="68"/>
-      <c r="FL7" s="68"/>
-      <c r="FM7" s="68"/>
-      <c r="FN7" s="68"/>
-      <c r="FO7" s="68"/>
-      <c r="FP7" s="68"/>
-      <c r="FQ7" s="68"/>
-      <c r="FR7" s="68"/>
-      <c r="FS7" s="68"/>
-      <c r="FT7" s="68"/>
-      <c r="FU7" s="68"/>
+      <c r="FL7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FM7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FN7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FO7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FP7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FQ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FR7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FS7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FT7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FU7" s="122" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="8" spans="1:177" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
@@ -19143,90 +19213,90 @@
       </c>
       <c r="FL8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FM8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FN8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FO8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FP8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FQ8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FR8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FS8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FT8" s="61">
         <f t="shared" si="82"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU8" s="61">
         <f t="shared" ref="FU8" si="83">COUNTBLANK(FU3:FU7)</f>
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B11" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>251</v>
+      <c r="B11" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>255</v>
+      <c r="B12" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B13" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>250</v>
+      <c r="B13" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>260</v>
+      <c r="B14" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B16" s="79" t="s">
+      <c r="B15" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C15" s="85" t="s">
         <v>389</v>
       </c>
     </row>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="477">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1988,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2238,51 +2238,14 @@
     <xf numFmtId="0" fontId="15" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="141">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4011,7 +3974,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
@@ -8246,252 +8209,252 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
-    <cfRule type="cellIs" dxfId="144" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="186" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="143" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="142" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="184" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="141" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="183" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="140" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="182" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="139" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="181" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="138" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="137" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="136" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="135" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="134" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="133" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="175" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="132" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="130" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="129" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="128" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="127" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="126" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="125" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="124" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="123" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="122" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="121" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="120" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="118" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="117" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="159" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="116" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="158" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="115" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="114" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="113" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="112" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="111" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="110" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="109" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="147" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="108" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="107" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="106" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="105" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="104" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="103" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="102" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="101" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="100" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="99" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="98" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="97" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="96" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="93" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13238,12 +13201,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="CL2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="CW2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="CZ15" sqref="CZ15"/>
+      <selection pane="bottomRight" activeCell="DE20" sqref="DE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13737,11 +13700,11 @@
       </c>
       <c r="DO1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DP1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DQ1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -16253,10 +16216,10 @@
   <dimension ref="A1:FU15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DD8" sqref="DD8"/>
+      <selection pane="bottomRight" activeCell="DP16" sqref="DP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16699,11 +16662,11 @@
       </c>
       <c r="DD1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DE1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DF1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17571,14 +17534,14 @@
       <c r="DF3" s="68"/>
       <c r="DG3" s="68"/>
       <c r="DH3" s="68"/>
-      <c r="DI3" s="84" t="s">
+      <c r="DI3" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="DJ3" s="84" t="s">
+      <c r="DJ3" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="DK3" s="68"/>
-      <c r="DL3" s="68"/>
+      <c r="DK3" s="123"/>
+      <c r="DL3" s="123"/>
       <c r="DM3" s="68"/>
       <c r="DN3" s="68"/>
       <c r="DO3" s="68"/>
@@ -17818,9 +17781,15 @@
       <c r="DG4" s="68"/>
       <c r="DH4" s="68"/>
       <c r="DI4" s="68"/>
-      <c r="DJ4" s="68"/>
-      <c r="DK4" s="68"/>
-      <c r="DL4" s="68"/>
+      <c r="DJ4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DL4" s="89" t="s">
+        <v>252</v>
+      </c>
       <c r="DM4" s="68"/>
       <c r="DN4" s="68"/>
       <c r="DO4" s="68"/>
@@ -19027,15 +18996,15 @@
       </c>
       <c r="DJ8" s="61">
         <f t="shared" si="80"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DK8" s="61">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DL8" s="61">
         <f t="shared" si="80"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DM8" s="61">
         <f t="shared" si="80"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -13201,7 +13201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="CW2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
@@ -13704,11 +13704,11 @@
       </c>
       <c r="DP1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DQ1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>]</v>
       </c>
     </row>
     <row r="2" spans="2:122" x14ac:dyDescent="0.3">
@@ -16215,11 +16215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DL3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DP16" sqref="DP16"/>
+      <selection pane="bottomRight" activeCell="DD18" sqref="DD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16666,11 +16666,11 @@
       </c>
       <c r="DE1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DF1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
     </row>
     <row r="2" spans="1:177" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Rilascio 1003" sheetId="8" r:id="rId3"/>
     <sheet name="Rilascio 2403" sheetId="9" r:id="rId4"/>
     <sheet name="Rilascio 1905" sheetId="10" r:id="rId5"/>
-    <sheet name="Plan DEV" sheetId="4" r:id="rId6"/>
-    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId7"/>
-    <sheet name="Plan team" sheetId="7" r:id="rId8"/>
+    <sheet name="Plan team" sheetId="7" r:id="rId6"/>
+    <sheet name="Plan DEV" sheetId="4" r:id="rId7"/>
+    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$186</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="533">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1465,6 +1465,181 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Terminare i test sui simulativi SME</t>
+  </si>
+  <si>
+    <t>Portare in svil 1.0 indicatori tecnici nuovi e mandare mail Loriana, Petito, Turchetta RETAIL</t>
+  </si>
+  <si>
+    <t>ISBA Portare in produzione</t>
+  </si>
+  <si>
+    <t>ISBA in produzione - test finale</t>
+  </si>
+  <si>
+    <t>Fare test e dare ok</t>
+  </si>
+  <si>
+    <t>ISBA verificare configurazione 2.0</t>
+  </si>
+  <si>
+    <t>Da testare 1.0 vs 2.0 in svil su dati di svil</t>
+  </si>
+  <si>
+    <t>UAT SME Retail</t>
+  </si>
+  <si>
+    <t>Iniziata ind. High Priority</t>
+  </si>
+  <si>
+    <t>condivisione AFU da pianificare</t>
+  </si>
+  <si>
+    <t>UAT SME - Query Indicatori SME</t>
+  </si>
+  <si>
+    <t>SME Configurazione Business Analyst</t>
+  </si>
+  <si>
+    <t>Test in SYT su indicatori Qualitativi (entro 14/07)</t>
+  </si>
+  <si>
+    <t>SME Visual Modeling</t>
+  </si>
+  <si>
+    <t>(Fernando /Ilaria entro 21/07) Verificata configurazione, trovati refusi. Refusi corretti</t>
+  </si>
+  <si>
+    <t>Test di non regressione Retail (Fernando /Ilaria entro 21/07)</t>
+  </si>
+  <si>
+    <t>(Fernando /Ilaria)</t>
+  </si>
+  <si>
+    <t>Test di non regressione ISPRO</t>
+  </si>
+  <si>
+    <t>Test di non regressione ISBA</t>
+  </si>
+  <si>
+    <t>Indicatori 901-902</t>
+  </si>
+  <si>
+    <t>modificare variabile elementare (M3,M6)</t>
+  </si>
+  <si>
+    <t>Indicatori 901-902-903-904 test</t>
+  </si>
+  <si>
+    <t>Ilaria/Michele</t>
+  </si>
+  <si>
+    <t>Indicatori 901-902-903-904 rilascio in syt</t>
+  </si>
+  <si>
+    <t>rilasciare in SYT dal 18/07</t>
+  </si>
+  <si>
+    <t>SME Retail in syt</t>
+  </si>
+  <si>
+    <t>(dal 24 al 28/07)</t>
+  </si>
+  <si>
+    <t>predisporre i pacchetti</t>
+  </si>
+  <si>
+    <t>BUG Retail Prod - correggere l'indicatore 52 woe nel VM</t>
+  </si>
+  <si>
+    <t>correzione, test e UAT</t>
+  </si>
+  <si>
+    <t>CIB rilascio nuovi segmenti nel ws Corporate (syt, prod e app2.0)</t>
+  </si>
+  <si>
+    <t>seguire tempistiche ETL/Client team</t>
+  </si>
+  <si>
+    <t>AFU 2.0 BE - inviare a Client team</t>
+  </si>
+  <si>
+    <t>CR Banche estere</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>forma estesa (264 campi)</t>
+  </si>
+  <si>
+    <t>CR Corporate - fase II</t>
+  </si>
+  <si>
+    <t>fare stime e pianificazione</t>
+  </si>
+  <si>
+    <t>Data quality - Test</t>
+  </si>
+  <si>
+    <t>pianificata call (Michele)</t>
+  </si>
+  <si>
+    <t>SME Output - Consegnare II versione</t>
+  </si>
+  <si>
+    <t>SME Retail - modifiche Carta Commerciale</t>
+  </si>
+  <si>
+    <t>Cambiare campi di input e segno numeratore</t>
+  </si>
+  <si>
+    <t>Dati di Mercato - nuovo schema</t>
+  </si>
+  <si>
+    <t>Configurazione e test</t>
+  </si>
+  <si>
+    <t>(Alberto)</t>
+  </si>
+  <si>
+    <t>CR Retail - BRB revisione - qualitativo togliere arancione e AUTOR</t>
+  </si>
+  <si>
+    <t>CR SME Retail - BRB revisione - togliere AUTOR</t>
+  </si>
+  <si>
+    <t>verificare e togliere gli indicatori che si riferiscono a questo da app e xls (Michele) e AFU (Ilaria)</t>
+  </si>
+  <si>
+    <t>stimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR SME Retail - BRB revisione - modifica NOPG e AUTOR </t>
+  </si>
+  <si>
+    <t>- NOPG: vedere come l'ETL gestirà la soluzione. Trascinamento?
+- Autor: gestisce ETL. Al momento non prevedo impatti</t>
+  </si>
+  <si>
+    <t>- Avremo i campi per calcolare l'indicatore 105 e fare la soglia (10%)? NO
+- Rate impagate: togliere 2 br e spostarne altre 2 dal DL
+- CdQ: togliere una br e spostare l'altra dall'arancio al rosso nel DL
+- Sconfino di CC: togliere una br e spostare l'altra dall'arancio al rosso nel DL
+- Forborne: cambiare soglia BR148
+- Disallineamenti SAG/SAB: Indicatore + BR (Blu scuro)
+- Autor: gestisce ETL. Al momento non vedo impatti</t>
+  </si>
+  <si>
+    <t>CR Corporate - modifica NOPG</t>
+  </si>
+  <si>
+    <t>- NOPG: vedere come l'ETL gestirà la soluzione. Trascinamento?</t>
+  </si>
+  <si>
+    <t>Creata</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2241,11 +2416,324 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="172">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3972,11 +4460,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE156"/>
+  <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6898,7 +7384,7 @@
     </row>
     <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B136" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B166" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -7274,7 +7760,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7">
         <f t="shared" si="4"/>
         <v>113</v>
@@ -7291,7 +7777,9 @@
       <c r="F114" s="13">
         <v>1</v>
       </c>
-      <c r="G114" s="13"/>
+      <c r="G114" s="13">
+        <v>1</v>
+      </c>
       <c r="H114" s="5">
         <v>2</v>
       </c>
@@ -7302,7 +7790,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7">
         <f t="shared" si="4"/>
         <v>114</v>
@@ -7319,7 +7807,9 @@
       <c r="F115" s="13">
         <v>1</v>
       </c>
-      <c r="G115" s="13"/>
+      <c r="G115" s="13">
+        <v>1</v>
+      </c>
       <c r="H115" s="5">
         <v>2</v>
       </c>
@@ -7330,7 +7820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -7347,7 +7837,9 @@
       <c r="F116" s="13">
         <v>1</v>
       </c>
-      <c r="G116" s="13"/>
+      <c r="G116" s="13">
+        <v>1</v>
+      </c>
       <c r="H116" s="5">
         <v>3</v>
       </c>
@@ -7358,7 +7850,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -7375,7 +7867,9 @@
       <c r="F117" s="13">
         <v>1</v>
       </c>
-      <c r="G117" s="13"/>
+      <c r="G117" s="13">
+        <v>1</v>
+      </c>
       <c r="H117" s="5">
         <v>2</v>
       </c>
@@ -7472,7 +7966,7 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -7489,7 +7983,9 @@
       <c r="F121" s="13">
         <v>1</v>
       </c>
-      <c r="G121" s="13"/>
+      <c r="G121" s="13">
+        <v>1</v>
+      </c>
       <c r="H121" s="5">
         <v>3</v>
       </c>
@@ -7510,9 +8006,11 @@
         <v>398</v>
       </c>
       <c r="E122" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F122" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="13">
+        <v>1</v>
+      </c>
       <c r="G122" s="13"/>
       <c r="H122" s="5">
         <v>3</v>
@@ -7556,10 +8054,10 @@
         <v>398</v>
       </c>
       <c r="E124" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F124" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="5"/>
@@ -7742,7 +8240,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -7756,8 +8254,12 @@
       <c r="E132" s="13">
         <v>1</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
+      <c r="F132" s="13">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13">
+        <v>1</v>
+      </c>
       <c r="H132" s="5">
         <v>2</v>
       </c>
@@ -7876,1039 +8378,1829 @@
       </c>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C137" s="31"/>
-    </row>
-    <row r="138" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="91" t="s">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="7">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="13">
+        <v>1</v>
+      </c>
+      <c r="F137" s="13">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="7">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="13">
+        <v>1</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="7">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="13">
+        <v>1</v>
+      </c>
+      <c r="F139" s="13">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13">
+        <v>1</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="7">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="13">
+        <v>1</v>
+      </c>
+      <c r="F140" s="13">
+        <v>1</v>
+      </c>
+      <c r="G140" s="13">
+        <v>1</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="7">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="13">
+        <v>1</v>
+      </c>
+      <c r="F141" s="13">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="7">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="G142" s="13"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="7">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="F143" s="13">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="7">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="13">
+        <v>1</v>
+      </c>
+      <c r="F144" s="13">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" s="7">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="13">
+        <v>1</v>
+      </c>
+      <c r="F145" s="13">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" s="7">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="13">
+        <v>1</v>
+      </c>
+      <c r="F146" s="13">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="7">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="13">
+        <v>1</v>
+      </c>
+      <c r="F147" s="13">
+        <v>1</v>
+      </c>
+      <c r="G147" s="13">
+        <v>1</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="7">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="13">
+        <v>1</v>
+      </c>
+      <c r="F148" s="13">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13">
+        <v>1</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="7">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="13">
+        <v>1</v>
+      </c>
+      <c r="F149" s="13">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" s="7">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="13">
+        <v>1</v>
+      </c>
+      <c r="F150" s="13">
+        <v>1</v>
+      </c>
+      <c r="G150" s="13"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" s="7">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D151" s="17"/>
+      <c r="E151" s="13">
+        <v>1</v>
+      </c>
+      <c r="F151" s="13">
+        <v>1</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" s="7">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D152" s="17"/>
+      <c r="E152" s="13">
+        <v>1</v>
+      </c>
+      <c r="F152" s="13">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" s="7">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F153" s="13">
+        <v>1</v>
+      </c>
+      <c r="G153" s="13"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="7">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="13">
+        <v>1</v>
+      </c>
+      <c r="F154" s="13">
+        <v>1</v>
+      </c>
+      <c r="G154" s="13">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="7">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="13">
+        <v>1</v>
+      </c>
+      <c r="F155" s="13">
+        <v>1</v>
+      </c>
+      <c r="G155" s="13">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="7">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="13">
+        <v>1</v>
+      </c>
+      <c r="F156" s="13">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157" s="7">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158" s="7">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="7">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" s="7">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="13">
+        <v>1</v>
+      </c>
+      <c r="F160" s="13">
+        <v>1</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" s="7">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D161" s="17"/>
+      <c r="E161" s="13">
+        <v>1</v>
+      </c>
+      <c r="F161" s="13">
+        <v>1</v>
+      </c>
+      <c r="G161" s="13"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" s="7">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="B163" s="7">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D163" s="17"/>
+      <c r="E163" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="124" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B164" s="7">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D164" s="17"/>
+      <c r="E164" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="124" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="7">
+        <f t="shared" ref="B165" si="5">+B164+1</f>
+        <v>164</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D165" s="17"/>
+      <c r="E165" s="13">
+        <v>1</v>
+      </c>
+      <c r="F165" s="13">
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B166" s="7">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="124" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C167" s="31"/>
+    </row>
+    <row r="168" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="92" t="s">
+      <c r="C168" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="91" t="s">
+      <c r="D168" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="E138" s="90" t="s">
+      <c r="E168" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="F138" s="90" t="s">
+      <c r="F168" s="90" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="94" t="s">
+    <row r="169" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="95" t="s">
+      <c r="C169" s="95" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="96">
+      <c r="D169" s="96">
         <v>42815</v>
       </c>
-      <c r="E139" s="93" t="s">
+      <c r="E169" s="93" t="s">
         <v>412</v>
       </c>
-      <c r="F139" s="93">
+      <c r="F169" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="98" t="s">
+    <row r="170" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="99" t="s">
+      <c r="C170" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="100">
+      <c r="D170" s="100">
         <v>42814</v>
       </c>
-      <c r="E140" s="97" t="s">
+      <c r="E170" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="F140" s="97">
+      <c r="F170" s="97">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="102" t="s">
+    <row r="171" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="103" t="s">
+      <c r="C171" s="103" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="104">
+      <c r="D171" s="104">
         <v>42814</v>
       </c>
-      <c r="E141" s="101" t="s">
+      <c r="E171" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="F141" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="102" t="s">
+      <c r="F171" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C142" s="103" t="s">
+      <c r="C172" s="103" t="s">
         <v>421</v>
       </c>
-      <c r="D142" s="104">
+      <c r="D172" s="104">
         <v>42816</v>
       </c>
-      <c r="E142" s="101" t="s">
+      <c r="E172" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="F142" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="102" t="s">
+      <c r="F172" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C143" s="103" t="s">
+      <c r="C173" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="D143" s="104">
+      <c r="D173" s="104">
         <v>42818</v>
       </c>
-      <c r="E143" s="101" t="s">
+      <c r="E173" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="F143" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="102" t="s">
+      <c r="F173" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C144" s="103" t="s">
+      <c r="C174" s="103" t="s">
         <v>423</v>
       </c>
-      <c r="D144" s="104">
+      <c r="D174" s="104">
         <v>42818</v>
       </c>
-      <c r="E144" s="101" t="s">
+      <c r="E174" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="F144" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="102" t="s">
+      <c r="F174" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B175" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C145" s="103" t="s">
+      <c r="C175" s="103" t="s">
         <v>424</v>
       </c>
-      <c r="D145" s="104">
+      <c r="D175" s="104">
         <v>42818</v>
       </c>
-      <c r="E145" s="101" t="s">
+      <c r="E175" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="F145" s="101">
+      <c r="F175" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="102" t="s">
+    <row r="176" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C146" s="103" t="s">
+      <c r="C176" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="D146" s="104">
+      <c r="D176" s="104">
         <v>42818</v>
       </c>
-      <c r="E146" s="101" t="s">
+      <c r="E176" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="F146" s="101">
+      <c r="F176" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="102" t="s">
+    <row r="177" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C147" s="103" t="s">
+      <c r="C177" s="103" t="s">
         <v>426</v>
       </c>
-      <c r="D147" s="102" t="s">
+      <c r="D177" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="E147" s="101" t="s">
+      <c r="E177" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="F147" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="102" t="s">
+      <c r="F177" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C148" s="103" t="s">
+      <c r="C178" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="D148" s="102" t="s">
+      <c r="D178" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="101" t="s">
+      <c r="E178" s="101" t="s">
         <v>412</v>
       </c>
-      <c r="F148" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="102" t="s">
+      <c r="F178" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="103" t="s">
+      <c r="C179" s="103" t="s">
         <v>430</v>
       </c>
-      <c r="D149" s="102" t="s">
+      <c r="D179" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="E149" s="101" t="s">
+      <c r="E179" s="101" t="s">
         <v>429</v>
       </c>
-      <c r="F149" s="101">
+      <c r="F179" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="102" t="s">
+    <row r="180" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="103" t="s">
+      <c r="C180" s="103" t="s">
         <v>431</v>
       </c>
-      <c r="D150" s="102" t="s">
+      <c r="D180" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="101" t="s">
+      <c r="E180" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="F150" s="101">
+      <c r="F180" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="106" t="s">
+    <row r="181" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="C151" s="107" t="s">
+      <c r="C181" s="107" t="s">
         <v>433</v>
       </c>
-      <c r="D151" s="108">
+      <c r="D181" s="108">
         <v>42815</v>
       </c>
-      <c r="E151" s="105" t="s">
+      <c r="E181" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="F151" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="106" t="s">
+      <c r="F181" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C152" s="107" t="s">
+      <c r="C182" s="107" t="s">
         <v>434</v>
       </c>
-      <c r="D152" s="108">
+      <c r="D182" s="108">
         <v>42817</v>
       </c>
-      <c r="E152" s="105" t="s">
+      <c r="E182" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="F152" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="110" t="s">
+      <c r="F182" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C153" s="111" t="s">
+      <c r="C183" s="111" t="s">
         <v>435</v>
       </c>
-      <c r="D153" s="112">
+      <c r="D183" s="112">
         <v>42824</v>
       </c>
-      <c r="E153" s="109" t="s">
+      <c r="E183" s="109" t="s">
         <v>412</v>
       </c>
-      <c r="F153" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="114" t="s">
+      <c r="F183" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="114" t="s">
         <v>436</v>
       </c>
-      <c r="C154" s="115" t="s">
+      <c r="C184" s="115" t="s">
         <v>437</v>
       </c>
-      <c r="D154" s="116">
+      <c r="D184" s="116">
         <v>42822</v>
       </c>
-      <c r="E154" s="113" t="s">
+      <c r="E184" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="F154" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="114" t="s">
+      <c r="F184" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="114" t="s">
         <v>436</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C185" s="115" t="s">
         <v>438</v>
       </c>
-      <c r="D155" s="116">
+      <c r="D185" s="116">
         <v>42825</v>
       </c>
-      <c r="E155" s="113" t="s">
+      <c r="E185" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="F155" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="114" t="s">
+      <c r="F185" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="114" t="s">
         <v>436</v>
       </c>
-      <c r="C156" s="115" t="s">
+      <c r="C186" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="D156" s="116">
+      <c r="D186" s="116">
         <v>42825</v>
       </c>
-      <c r="E156" s="113" t="s">
+      <c r="E186" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="F156" s="113">
+      <c r="F186" s="113">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J156">
+  <autoFilter ref="B1:J186">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
-    <cfRule type="cellIs" dxfId="140" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="212" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="139" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="211" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="138" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="210" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="137" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="209" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="136" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="208" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="135" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="207" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="134" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="206" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="133" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="205" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="132" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="204" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="131" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="203" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="130" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="202" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="129" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="201" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="128" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="200" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="127" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="199" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="126" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="198" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="125" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="197" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="124" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="196" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="123" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="195" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="122" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="194" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="121" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="193" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="120" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="192" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="119" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="191" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="118" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="190" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="117" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="189" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="116" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="188" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="115" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="187" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="114" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="186" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="113" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="112" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="184" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="111" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="110" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="109" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="108" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="107" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="106" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="105" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="104" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="103" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="102" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="101" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="100" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="99" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="98" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="97" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="96" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="95" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="94" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="93" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="92" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="91" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="90" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="89" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="88" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="87" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="86" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="85" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="84" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="83" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="82" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="81" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="80" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="79" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="78" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="77" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="76" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="75" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="73" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="72" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="70" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="69" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="67" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="66" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="64" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="63" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="62" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="60" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="58" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="57" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="56" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="54" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="53" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="50" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="49" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="48" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="47" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="46" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="45" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="44" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="43" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="42" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="40" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="39" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="lessThan">
+  <conditionalFormatting sqref="F120:G120 F121">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G121">
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="lessThan">
+  <conditionalFormatting sqref="F120:G120 F121">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122 E125">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G112">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127:E129">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130:G136">
+  <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E140 E142 E144:E152">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:G91">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153 E157:E159 E162:E165">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154:E156">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F137:F138">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F139:G140">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141:G141">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144:F146">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147:G149">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F150:F152">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F154:G154">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F153">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155:G155">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F156:G156">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F160">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166:G166">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166:G166">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130:G136">
+  <conditionalFormatting sqref="G121">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E136">
+  <conditionalFormatting sqref="F142">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G91">
+  <conditionalFormatting sqref="E143:G143">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -10720,13 +12012,3417 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FU15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DO3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="DU15" sqref="DU15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="16" customWidth="1"/>
+    <col min="3" max="14" width="5.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="37" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="57" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="80" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="81" max="123" width="5.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="124" max="146" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="147" max="177" width="5.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="178" max="16384" width="8.796875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="64" t="str">
+        <f t="shared" ref="C1" ca="1" si="0">IF(TODAY()=C2,"]","")</f>
+        <v/>
+      </c>
+      <c r="D1" s="64" t="str">
+        <f t="shared" ref="D1:V1" ca="1" si="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"]",""),"")</f>
+        <v/>
+      </c>
+      <c r="E1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="I1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="K1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="M1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="P1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Q1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="R1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="S1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="T1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="U1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="V1" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="W1" s="64" t="str">
+        <f t="shared" ref="W1:CH1" ca="1" si="2">IF(TODAY()=W2,"]","")</f>
+        <v/>
+      </c>
+      <c r="X1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AE1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AF1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AG1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AH1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AI1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AK1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AL1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AM1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AN1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AO1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AP1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AR1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AS1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AT1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AU1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AV1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AW1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AX1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AY1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AZ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BA1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BB1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BC1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BD1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BE1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BF1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BG1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BH1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BI1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BJ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BK1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BL1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BM1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BN1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BO1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BP1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BQ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BR1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BS1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BT1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BU1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BV1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BW1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BX1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BY1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BZ1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CA1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CB1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CC1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CD1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CE1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CF1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CG1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CH1" s="64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CI1" s="64" t="str">
+        <f t="shared" ref="CI1:ET1" ca="1" si="3">IF(TODAY()=CI2,"]","")</f>
+        <v/>
+      </c>
+      <c r="CJ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CK1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CL1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CM1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CN1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CO1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CP1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CQ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CR1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CS1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CT1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CU1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CV1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CW1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CX1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CY1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="CZ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DA1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DB1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DC1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DD1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DE1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DF1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DG1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DH1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DI1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DJ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DK1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DL1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DM1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DN1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DO1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DP1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DQ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>]</v>
+      </c>
+      <c r="DR1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DS1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DT1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DU1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DV1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DW1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DX1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DY1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="DZ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EA1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EB1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EC1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="ED1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EE1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EF1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EG1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EH1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EI1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EJ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EK1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EL1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EM1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EN1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EO1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EP1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EQ1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="ER1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="ES1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="ET1" s="64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="EU1" s="64" t="str">
+        <f t="shared" ref="EU1:FU1" ca="1" si="4">IF(TODAY()=EU2,"]","")</f>
+        <v/>
+      </c>
+      <c r="EV1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="EW1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="EX1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="EY1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="EZ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FA1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FB1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FC1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FD1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FE1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FF1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FG1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FH1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FI1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FJ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FK1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FL1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FM1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FN1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FO1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FP1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FQ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FR1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FS1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FT1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FU1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="42">
+        <v>42779</v>
+      </c>
+      <c r="D2" s="43">
+        <v>42780</v>
+      </c>
+      <c r="E2" s="43">
+        <v>42781</v>
+      </c>
+      <c r="F2" s="43">
+        <v>42782</v>
+      </c>
+      <c r="G2" s="43">
+        <v>42783</v>
+      </c>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2:AU2" si="5">+C2+7</f>
+        <v>42786</v>
+      </c>
+      <c r="I2" s="43">
+        <f t="shared" si="5"/>
+        <v>42787</v>
+      </c>
+      <c r="J2" s="43">
+        <f t="shared" si="5"/>
+        <v>42788</v>
+      </c>
+      <c r="K2" s="43">
+        <f t="shared" si="5"/>
+        <v>42789</v>
+      </c>
+      <c r="L2" s="43">
+        <f t="shared" si="5"/>
+        <v>42790</v>
+      </c>
+      <c r="M2" s="42">
+        <f t="shared" si="5"/>
+        <v>42793</v>
+      </c>
+      <c r="N2" s="43">
+        <f t="shared" si="5"/>
+        <v>42794</v>
+      </c>
+      <c r="O2" s="43">
+        <f t="shared" si="5"/>
+        <v>42795</v>
+      </c>
+      <c r="P2" s="43">
+        <f t="shared" si="5"/>
+        <v>42796</v>
+      </c>
+      <c r="Q2" s="43">
+        <f t="shared" si="5"/>
+        <v>42797</v>
+      </c>
+      <c r="R2" s="42">
+        <f t="shared" si="5"/>
+        <v>42800</v>
+      </c>
+      <c r="S2" s="43">
+        <f t="shared" si="5"/>
+        <v>42801</v>
+      </c>
+      <c r="T2" s="43">
+        <f t="shared" si="5"/>
+        <v>42802</v>
+      </c>
+      <c r="U2" s="43">
+        <f t="shared" si="5"/>
+        <v>42803</v>
+      </c>
+      <c r="V2" s="43">
+        <f t="shared" si="5"/>
+        <v>42804</v>
+      </c>
+      <c r="W2" s="42">
+        <f t="shared" si="5"/>
+        <v>42807</v>
+      </c>
+      <c r="X2" s="43">
+        <f t="shared" si="5"/>
+        <v>42808</v>
+      </c>
+      <c r="Y2" s="43">
+        <f t="shared" si="5"/>
+        <v>42809</v>
+      </c>
+      <c r="Z2" s="43">
+        <f t="shared" si="5"/>
+        <v>42810</v>
+      </c>
+      <c r="AA2" s="43">
+        <f t="shared" si="5"/>
+        <v>42811</v>
+      </c>
+      <c r="AB2" s="42">
+        <f t="shared" si="5"/>
+        <v>42814</v>
+      </c>
+      <c r="AC2" s="43">
+        <f t="shared" si="5"/>
+        <v>42815</v>
+      </c>
+      <c r="AD2" s="43">
+        <f t="shared" si="5"/>
+        <v>42816</v>
+      </c>
+      <c r="AE2" s="43">
+        <f t="shared" si="5"/>
+        <v>42817</v>
+      </c>
+      <c r="AF2" s="43">
+        <f t="shared" si="5"/>
+        <v>42818</v>
+      </c>
+      <c r="AG2" s="42">
+        <f t="shared" si="5"/>
+        <v>42821</v>
+      </c>
+      <c r="AH2" s="43">
+        <f t="shared" si="5"/>
+        <v>42822</v>
+      </c>
+      <c r="AI2" s="43">
+        <f t="shared" si="5"/>
+        <v>42823</v>
+      </c>
+      <c r="AJ2" s="43">
+        <f t="shared" si="5"/>
+        <v>42824</v>
+      </c>
+      <c r="AK2" s="43">
+        <f t="shared" si="5"/>
+        <v>42825</v>
+      </c>
+      <c r="AL2" s="42">
+        <f t="shared" si="5"/>
+        <v>42828</v>
+      </c>
+      <c r="AM2" s="43">
+        <f t="shared" si="5"/>
+        <v>42829</v>
+      </c>
+      <c r="AN2" s="43">
+        <f t="shared" si="5"/>
+        <v>42830</v>
+      </c>
+      <c r="AO2" s="43">
+        <f t="shared" si="5"/>
+        <v>42831</v>
+      </c>
+      <c r="AP2" s="43">
+        <f t="shared" si="5"/>
+        <v>42832</v>
+      </c>
+      <c r="AQ2" s="42">
+        <f t="shared" si="5"/>
+        <v>42835</v>
+      </c>
+      <c r="AR2" s="43">
+        <f t="shared" si="5"/>
+        <v>42836</v>
+      </c>
+      <c r="AS2" s="43">
+        <f t="shared" si="5"/>
+        <v>42837</v>
+      </c>
+      <c r="AT2" s="43">
+        <f t="shared" si="5"/>
+        <v>42838</v>
+      </c>
+      <c r="AU2" s="43">
+        <f t="shared" si="5"/>
+        <v>42839</v>
+      </c>
+      <c r="AV2" s="42">
+        <f>+AQ2+7</f>
+        <v>42842</v>
+      </c>
+      <c r="AW2" s="43">
+        <f>+AR2+7</f>
+        <v>42843</v>
+      </c>
+      <c r="AX2" s="43">
+        <f t="shared" ref="AX2:BY2" si="6">+AS2+7</f>
+        <v>42844</v>
+      </c>
+      <c r="AY2" s="43">
+        <f t="shared" si="6"/>
+        <v>42845</v>
+      </c>
+      <c r="AZ2" s="43">
+        <f t="shared" si="6"/>
+        <v>42846</v>
+      </c>
+      <c r="BA2" s="42">
+        <f t="shared" si="6"/>
+        <v>42849</v>
+      </c>
+      <c r="BB2" s="43">
+        <f t="shared" si="6"/>
+        <v>42850</v>
+      </c>
+      <c r="BC2" s="43">
+        <f t="shared" si="6"/>
+        <v>42851</v>
+      </c>
+      <c r="BD2" s="43">
+        <f t="shared" si="6"/>
+        <v>42852</v>
+      </c>
+      <c r="BE2" s="43">
+        <f t="shared" si="6"/>
+        <v>42853</v>
+      </c>
+      <c r="BF2" s="42">
+        <f t="shared" si="6"/>
+        <v>42856</v>
+      </c>
+      <c r="BG2" s="43">
+        <f t="shared" si="6"/>
+        <v>42857</v>
+      </c>
+      <c r="BH2" s="43">
+        <f t="shared" si="6"/>
+        <v>42858</v>
+      </c>
+      <c r="BI2" s="43">
+        <f t="shared" si="6"/>
+        <v>42859</v>
+      </c>
+      <c r="BJ2" s="43">
+        <f t="shared" si="6"/>
+        <v>42860</v>
+      </c>
+      <c r="BK2" s="42">
+        <f t="shared" si="6"/>
+        <v>42863</v>
+      </c>
+      <c r="BL2" s="43">
+        <f t="shared" si="6"/>
+        <v>42864</v>
+      </c>
+      <c r="BM2" s="43">
+        <f t="shared" si="6"/>
+        <v>42865</v>
+      </c>
+      <c r="BN2" s="43">
+        <f t="shared" si="6"/>
+        <v>42866</v>
+      </c>
+      <c r="BO2" s="43">
+        <f t="shared" si="6"/>
+        <v>42867</v>
+      </c>
+      <c r="BP2" s="42">
+        <f t="shared" si="6"/>
+        <v>42870</v>
+      </c>
+      <c r="BQ2" s="43">
+        <f t="shared" si="6"/>
+        <v>42871</v>
+      </c>
+      <c r="BR2" s="43">
+        <f t="shared" si="6"/>
+        <v>42872</v>
+      </c>
+      <c r="BS2" s="43">
+        <f t="shared" si="6"/>
+        <v>42873</v>
+      </c>
+      <c r="BT2" s="43">
+        <f t="shared" si="6"/>
+        <v>42874</v>
+      </c>
+      <c r="BU2" s="42">
+        <f t="shared" si="6"/>
+        <v>42877</v>
+      </c>
+      <c r="BV2" s="43">
+        <f t="shared" si="6"/>
+        <v>42878</v>
+      </c>
+      <c r="BW2" s="43">
+        <f t="shared" si="6"/>
+        <v>42879</v>
+      </c>
+      <c r="BX2" s="43">
+        <f t="shared" si="6"/>
+        <v>42880</v>
+      </c>
+      <c r="BY2" s="43">
+        <f t="shared" si="6"/>
+        <v>42881</v>
+      </c>
+      <c r="BZ2" s="42">
+        <f>+BU2+7</f>
+        <v>42884</v>
+      </c>
+      <c r="CA2" s="43">
+        <f>+BV2+7</f>
+        <v>42885</v>
+      </c>
+      <c r="CB2" s="43">
+        <f t="shared" ref="CB2:DC2" si="7">+BW2+7</f>
+        <v>42886</v>
+      </c>
+      <c r="CC2" s="43">
+        <f t="shared" si="7"/>
+        <v>42887</v>
+      </c>
+      <c r="CD2" s="43">
+        <f t="shared" si="7"/>
+        <v>42888</v>
+      </c>
+      <c r="CE2" s="42">
+        <f t="shared" si="7"/>
+        <v>42891</v>
+      </c>
+      <c r="CF2" s="43">
+        <f t="shared" si="7"/>
+        <v>42892</v>
+      </c>
+      <c r="CG2" s="43">
+        <f t="shared" si="7"/>
+        <v>42893</v>
+      </c>
+      <c r="CH2" s="43">
+        <f t="shared" si="7"/>
+        <v>42894</v>
+      </c>
+      <c r="CI2" s="43">
+        <f t="shared" si="7"/>
+        <v>42895</v>
+      </c>
+      <c r="CJ2" s="42">
+        <f t="shared" si="7"/>
+        <v>42898</v>
+      </c>
+      <c r="CK2" s="43">
+        <f t="shared" si="7"/>
+        <v>42899</v>
+      </c>
+      <c r="CL2" s="43">
+        <f t="shared" si="7"/>
+        <v>42900</v>
+      </c>
+      <c r="CM2" s="43">
+        <f t="shared" si="7"/>
+        <v>42901</v>
+      </c>
+      <c r="CN2" s="43">
+        <f t="shared" si="7"/>
+        <v>42902</v>
+      </c>
+      <c r="CO2" s="42">
+        <f t="shared" si="7"/>
+        <v>42905</v>
+      </c>
+      <c r="CP2" s="43">
+        <f t="shared" si="7"/>
+        <v>42906</v>
+      </c>
+      <c r="CQ2" s="43">
+        <f t="shared" si="7"/>
+        <v>42907</v>
+      </c>
+      <c r="CR2" s="43">
+        <f t="shared" si="7"/>
+        <v>42908</v>
+      </c>
+      <c r="CS2" s="43">
+        <f t="shared" si="7"/>
+        <v>42909</v>
+      </c>
+      <c r="CT2" s="42">
+        <f t="shared" si="7"/>
+        <v>42912</v>
+      </c>
+      <c r="CU2" s="43">
+        <f t="shared" si="7"/>
+        <v>42913</v>
+      </c>
+      <c r="CV2" s="43">
+        <f t="shared" si="7"/>
+        <v>42914</v>
+      </c>
+      <c r="CW2" s="43">
+        <f t="shared" si="7"/>
+        <v>42915</v>
+      </c>
+      <c r="CX2" s="43">
+        <f t="shared" si="7"/>
+        <v>42916</v>
+      </c>
+      <c r="CY2" s="42">
+        <f t="shared" si="7"/>
+        <v>42919</v>
+      </c>
+      <c r="CZ2" s="43">
+        <f t="shared" si="7"/>
+        <v>42920</v>
+      </c>
+      <c r="DA2" s="43">
+        <f t="shared" si="7"/>
+        <v>42921</v>
+      </c>
+      <c r="DB2" s="43">
+        <f t="shared" si="7"/>
+        <v>42922</v>
+      </c>
+      <c r="DC2" s="43">
+        <f t="shared" si="7"/>
+        <v>42923</v>
+      </c>
+      <c r="DD2" s="42">
+        <f t="shared" ref="DD2" si="8">+CY2+7</f>
+        <v>42926</v>
+      </c>
+      <c r="DE2" s="43">
+        <f t="shared" ref="DE2" si="9">+CZ2+7</f>
+        <v>42927</v>
+      </c>
+      <c r="DF2" s="43">
+        <f t="shared" ref="DF2" si="10">+DA2+7</f>
+        <v>42928</v>
+      </c>
+      <c r="DG2" s="43">
+        <f t="shared" ref="DG2" si="11">+DB2+7</f>
+        <v>42929</v>
+      </c>
+      <c r="DH2" s="43">
+        <f t="shared" ref="DH2" si="12">+DC2+7</f>
+        <v>42930</v>
+      </c>
+      <c r="DI2" s="42">
+        <f t="shared" ref="DI2" si="13">+DD2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="DJ2" s="43">
+        <f t="shared" ref="DJ2" si="14">+DE2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="DK2" s="43">
+        <f t="shared" ref="DK2" si="15">+DF2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="DL2" s="43">
+        <f t="shared" ref="DL2" si="16">+DG2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="DM2" s="43">
+        <f t="shared" ref="DM2" si="17">+DH2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="DN2" s="42">
+        <f t="shared" ref="DN2" si="18">+DI2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="DO2" s="43">
+        <f t="shared" ref="DO2" si="19">+DJ2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="DP2" s="43">
+        <f t="shared" ref="DP2" si="20">+DK2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="DQ2" s="43">
+        <f t="shared" ref="DQ2" si="21">+DL2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="DR2" s="43">
+        <f t="shared" ref="DR2" si="22">+DM2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="DS2" s="42">
+        <f t="shared" ref="DS2" si="23">+DN2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="DT2" s="43">
+        <f t="shared" ref="DT2" si="24">+DO2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="DU2" s="43">
+        <f t="shared" ref="DU2" si="25">+DP2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="DV2" s="43">
+        <f t="shared" ref="DV2" si="26">+DQ2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="DW2" s="43">
+        <f t="shared" ref="DW2" si="27">+DR2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="DX2" s="42">
+        <f t="shared" ref="DX2" si="28">+DS2+7</f>
+        <v>42954</v>
+      </c>
+      <c r="DY2" s="43">
+        <f t="shared" ref="DY2" si="29">+DT2+7</f>
+        <v>42955</v>
+      </c>
+      <c r="DZ2" s="43">
+        <f t="shared" ref="DZ2" si="30">+DU2+7</f>
+        <v>42956</v>
+      </c>
+      <c r="EA2" s="43">
+        <f t="shared" ref="EA2" si="31">+DV2+7</f>
+        <v>42957</v>
+      </c>
+      <c r="EB2" s="43">
+        <f t="shared" ref="EB2" si="32">+DW2+7</f>
+        <v>42958</v>
+      </c>
+      <c r="EC2" s="42">
+        <f t="shared" ref="EC2" si="33">+DX2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="ED2" s="43">
+        <f t="shared" ref="ED2" si="34">+DY2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="EE2" s="43">
+        <f t="shared" ref="EE2" si="35">+DZ2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="EF2" s="43">
+        <f t="shared" ref="EF2" si="36">+EA2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="EG2" s="43">
+        <f t="shared" ref="EG2" si="37">+EB2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="EH2" s="42">
+        <f t="shared" ref="EH2" si="38">+EC2+7</f>
+        <v>42968</v>
+      </c>
+      <c r="EI2" s="43">
+        <f t="shared" ref="EI2" si="39">+ED2+7</f>
+        <v>42969</v>
+      </c>
+      <c r="EJ2" s="43">
+        <f t="shared" ref="EJ2" si="40">+EE2+7</f>
+        <v>42970</v>
+      </c>
+      <c r="EK2" s="43">
+        <f t="shared" ref="EK2" si="41">+EF2+7</f>
+        <v>42971</v>
+      </c>
+      <c r="EL2" s="43">
+        <f t="shared" ref="EL2" si="42">+EG2+7</f>
+        <v>42972</v>
+      </c>
+      <c r="EM2" s="42">
+        <f t="shared" ref="EM2" si="43">+EH2+7</f>
+        <v>42975</v>
+      </c>
+      <c r="EN2" s="43">
+        <f t="shared" ref="EN2" si="44">+EI2+7</f>
+        <v>42976</v>
+      </c>
+      <c r="EO2" s="43">
+        <f t="shared" ref="EO2" si="45">+EJ2+7</f>
+        <v>42977</v>
+      </c>
+      <c r="EP2" s="43">
+        <f t="shared" ref="EP2" si="46">+EK2+7</f>
+        <v>42978</v>
+      </c>
+      <c r="EQ2" s="43">
+        <f t="shared" ref="EQ2" si="47">+EL2+7</f>
+        <v>42979</v>
+      </c>
+      <c r="ER2" s="42">
+        <f t="shared" ref="ER2" si="48">+EM2+7</f>
+        <v>42982</v>
+      </c>
+      <c r="ES2" s="43">
+        <f t="shared" ref="ES2" si="49">+EN2+7</f>
+        <v>42983</v>
+      </c>
+      <c r="ET2" s="43">
+        <f t="shared" ref="ET2" si="50">+EO2+7</f>
+        <v>42984</v>
+      </c>
+      <c r="EU2" s="43">
+        <f t="shared" ref="EU2" si="51">+EP2+7</f>
+        <v>42985</v>
+      </c>
+      <c r="EV2" s="43">
+        <f t="shared" ref="EV2" si="52">+EQ2+7</f>
+        <v>42986</v>
+      </c>
+      <c r="EW2" s="42">
+        <f t="shared" ref="EW2" si="53">+ER2+7</f>
+        <v>42989</v>
+      </c>
+      <c r="EX2" s="43">
+        <f t="shared" ref="EX2" si="54">+ES2+7</f>
+        <v>42990</v>
+      </c>
+      <c r="EY2" s="43">
+        <f t="shared" ref="EY2" si="55">+ET2+7</f>
+        <v>42991</v>
+      </c>
+      <c r="EZ2" s="43">
+        <f t="shared" ref="EZ2" si="56">+EU2+7</f>
+        <v>42992</v>
+      </c>
+      <c r="FA2" s="43">
+        <f t="shared" ref="FA2" si="57">+EV2+7</f>
+        <v>42993</v>
+      </c>
+      <c r="FB2" s="42">
+        <f t="shared" ref="FB2" si="58">+EW2+7</f>
+        <v>42996</v>
+      </c>
+      <c r="FC2" s="43">
+        <f t="shared" ref="FC2" si="59">+EX2+7</f>
+        <v>42997</v>
+      </c>
+      <c r="FD2" s="43">
+        <f t="shared" ref="FD2" si="60">+EY2+7</f>
+        <v>42998</v>
+      </c>
+      <c r="FE2" s="43">
+        <f t="shared" ref="FE2" si="61">+EZ2+7</f>
+        <v>42999</v>
+      </c>
+      <c r="FF2" s="43">
+        <f t="shared" ref="FF2" si="62">+FA2+7</f>
+        <v>43000</v>
+      </c>
+      <c r="FG2" s="42">
+        <f t="shared" ref="FG2" si="63">+FB2+7</f>
+        <v>43003</v>
+      </c>
+      <c r="FH2" s="43">
+        <f t="shared" ref="FH2" si="64">+FC2+7</f>
+        <v>43004</v>
+      </c>
+      <c r="FI2" s="43">
+        <f t="shared" ref="FI2" si="65">+FD2+7</f>
+        <v>43005</v>
+      </c>
+      <c r="FJ2" s="43">
+        <f t="shared" ref="FJ2" si="66">+FE2+7</f>
+        <v>43006</v>
+      </c>
+      <c r="FK2" s="43">
+        <f t="shared" ref="FK2" si="67">+FF2+7</f>
+        <v>43007</v>
+      </c>
+      <c r="FL2" s="42">
+        <f t="shared" ref="FL2" si="68">+FG2+7</f>
+        <v>43010</v>
+      </c>
+      <c r="FM2" s="43">
+        <f t="shared" ref="FM2" si="69">+FH2+7</f>
+        <v>43011</v>
+      </c>
+      <c r="FN2" s="43">
+        <f t="shared" ref="FN2" si="70">+FI2+7</f>
+        <v>43012</v>
+      </c>
+      <c r="FO2" s="43">
+        <f t="shared" ref="FO2" si="71">+FJ2+7</f>
+        <v>43013</v>
+      </c>
+      <c r="FP2" s="43">
+        <f t="shared" ref="FP2" si="72">+FK2+7</f>
+        <v>43014</v>
+      </c>
+      <c r="FQ2" s="42">
+        <f t="shared" ref="FQ2" si="73">+FL2+7</f>
+        <v>43017</v>
+      </c>
+      <c r="FR2" s="43">
+        <f t="shared" ref="FR2" si="74">+FM2+7</f>
+        <v>43018</v>
+      </c>
+      <c r="FS2" s="43">
+        <f t="shared" ref="FS2" si="75">+FN2+7</f>
+        <v>43019</v>
+      </c>
+      <c r="FT2" s="43">
+        <f t="shared" ref="FT2" si="76">+FO2+7</f>
+        <v>43020</v>
+      </c>
+      <c r="FU2" s="43">
+        <f t="shared" ref="FU2" si="77">+FP2+7</f>
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="R3" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="68"/>
+      <c r="BU3" s="68"/>
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="68"/>
+      <c r="CA3" s="68"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="68"/>
+      <c r="CD3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE3" s="68"/>
+      <c r="CF3" s="68"/>
+      <c r="CG3" s="68"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="68"/>
+      <c r="CJ3" s="68"/>
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="68"/>
+      <c r="CN3" s="68"/>
+      <c r="CO3" s="68"/>
+      <c r="CP3" s="68"/>
+      <c r="CQ3" s="68"/>
+      <c r="CR3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="CS3" s="68"/>
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="68"/>
+      <c r="CX3" s="68"/>
+      <c r="CY3" s="68"/>
+      <c r="CZ3" s="68"/>
+      <c r="DA3" s="68"/>
+      <c r="DB3" s="68"/>
+      <c r="DC3" s="68"/>
+      <c r="DD3" s="68"/>
+      <c r="DE3" s="68"/>
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="68"/>
+      <c r="DH3" s="68"/>
+      <c r="DI3" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DJ3" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK3" s="123"/>
+      <c r="DL3" s="123"/>
+      <c r="DM3" s="68"/>
+      <c r="DN3" s="68"/>
+      <c r="DO3" s="68"/>
+      <c r="DP3" s="68"/>
+      <c r="DQ3" s="68"/>
+      <c r="DR3" s="68"/>
+      <c r="DS3" s="68"/>
+      <c r="DT3" s="68"/>
+      <c r="DU3" s="68"/>
+      <c r="DV3" s="68"/>
+      <c r="DW3" s="68"/>
+      <c r="DX3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DZ3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EC3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="EE3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EF3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG3" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH3" s="68"/>
+      <c r="EI3" s="68"/>
+      <c r="EJ3" s="68"/>
+      <c r="EK3" s="68"/>
+      <c r="EL3" s="68"/>
+      <c r="EM3" s="68"/>
+      <c r="EN3" s="68"/>
+      <c r="EO3" s="68"/>
+      <c r="EP3" s="68"/>
+      <c r="EQ3" s="68"/>
+      <c r="ER3" s="68"/>
+      <c r="ES3" s="68"/>
+      <c r="ET3" s="68"/>
+      <c r="EU3" s="68"/>
+      <c r="EV3" s="68"/>
+      <c r="EW3" s="68"/>
+      <c r="EX3" s="68"/>
+      <c r="EY3" s="68"/>
+      <c r="EZ3" s="68"/>
+      <c r="FA3" s="68"/>
+      <c r="FB3" s="68"/>
+      <c r="FC3" s="68"/>
+      <c r="FD3" s="68"/>
+      <c r="FE3" s="68"/>
+      <c r="FF3" s="68"/>
+      <c r="FG3" s="68"/>
+      <c r="FH3" s="68"/>
+      <c r="FI3" s="68"/>
+      <c r="FJ3" s="68"/>
+      <c r="FK3" s="68"/>
+      <c r="FL3" s="68"/>
+      <c r="FM3" s="68"/>
+      <c r="FN3" s="68"/>
+      <c r="FO3" s="68"/>
+      <c r="FP3" s="68"/>
+      <c r="FQ3" s="68"/>
+      <c r="FR3" s="68"/>
+      <c r="FS3" s="68"/>
+      <c r="FT3" s="68"/>
+      <c r="FU3" s="68"/>
+    </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B4" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY4" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ4" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="BA4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM4" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68"/>
+      <c r="CI4" s="68"/>
+      <c r="CJ4" s="68"/>
+      <c r="CK4" s="68"/>
+      <c r="CL4" s="68"/>
+      <c r="CM4" s="68"/>
+      <c r="CN4" s="68"/>
+      <c r="CO4" s="68"/>
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="CS4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+      <c r="CV4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
+      <c r="CZ4" s="68"/>
+      <c r="DA4" s="68"/>
+      <c r="DB4" s="68"/>
+      <c r="DC4" s="68"/>
+      <c r="DD4" s="68"/>
+      <c r="DE4" s="68"/>
+      <c r="DF4" s="68"/>
+      <c r="DG4" s="68"/>
+      <c r="DH4" s="68"/>
+      <c r="DI4" s="68"/>
+      <c r="DJ4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DL4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="DM4" s="68"/>
+      <c r="DN4" s="68"/>
+      <c r="DO4" s="68"/>
+      <c r="DP4" s="68"/>
+      <c r="DQ4" s="68"/>
+      <c r="DR4" s="68"/>
+      <c r="DS4" s="68"/>
+      <c r="DT4" s="68"/>
+      <c r="DU4" s="68"/>
+      <c r="DV4" s="68"/>
+      <c r="DW4" s="68"/>
+      <c r="DX4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DZ4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EC4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="EE4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EF4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EI4" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EJ4" s="61"/>
+      <c r="EK4" s="68"/>
+      <c r="EL4" s="68"/>
+      <c r="EM4" s="68"/>
+      <c r="EN4" s="68"/>
+      <c r="EO4" s="68"/>
+      <c r="EP4" s="68"/>
+      <c r="EQ4" s="68"/>
+      <c r="ER4" s="68"/>
+      <c r="ES4" s="68"/>
+      <c r="ET4" s="68"/>
+      <c r="EU4" s="68"/>
+      <c r="EV4" s="68"/>
+      <c r="EW4" s="68"/>
+      <c r="EX4" s="68"/>
+      <c r="EY4" s="68"/>
+      <c r="EZ4" s="68"/>
+      <c r="FA4" s="68"/>
+      <c r="FB4" s="68"/>
+      <c r="FC4" s="68"/>
+      <c r="FD4" s="68"/>
+      <c r="FE4" s="68"/>
+      <c r="FF4" s="68"/>
+      <c r="FG4" s="68"/>
+      <c r="FH4" s="68"/>
+      <c r="FI4" s="68"/>
+      <c r="FJ4" s="68"/>
+      <c r="FK4" s="68"/>
+      <c r="FL4" s="68"/>
+      <c r="FM4" s="68"/>
+      <c r="FN4" s="68"/>
+      <c r="FO4" s="68"/>
+      <c r="FP4" s="68"/>
+      <c r="FQ4" s="68"/>
+      <c r="FR4" s="68"/>
+      <c r="FS4" s="68"/>
+      <c r="FT4" s="68"/>
+      <c r="FU4" s="68"/>
+    </row>
+    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG5" s="61"/>
+      <c r="BH5" s="61"/>
+      <c r="BI5" s="61"/>
+      <c r="BJ5" s="61"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="61"/>
+      <c r="BP5" s="61"/>
+      <c r="BQ5" s="61"/>
+      <c r="BR5" s="61"/>
+      <c r="BS5" s="61"/>
+      <c r="BT5" s="61"/>
+      <c r="BU5" s="61"/>
+      <c r="BV5" s="61"/>
+      <c r="BW5" s="61"/>
+      <c r="BX5" s="61"/>
+      <c r="BY5" s="61"/>
+      <c r="BZ5" s="61"/>
+      <c r="CA5" s="61"/>
+      <c r="CB5" s="61"/>
+      <c r="CC5" s="61"/>
+      <c r="CD5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE5" s="61"/>
+      <c r="CF5" s="61"/>
+      <c r="CG5" s="61"/>
+      <c r="CH5" s="61"/>
+      <c r="CI5" s="61"/>
+      <c r="CJ5" s="68"/>
+      <c r="CK5" s="61"/>
+      <c r="CL5" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="CM5" s="61"/>
+      <c r="CN5" s="61"/>
+      <c r="CO5" s="61"/>
+      <c r="CP5" s="61"/>
+      <c r="CQ5" s="61"/>
+      <c r="CR5" s="61"/>
+      <c r="CS5" s="61"/>
+      <c r="CT5" s="61"/>
+      <c r="CU5" s="61"/>
+      <c r="CV5" s="61"/>
+      <c r="CW5" s="61"/>
+      <c r="CX5" s="61"/>
+      <c r="CY5" s="61"/>
+      <c r="CZ5" s="61"/>
+      <c r="DA5" s="61"/>
+      <c r="DB5" s="61"/>
+      <c r="DC5" s="61"/>
+      <c r="DD5" s="61"/>
+      <c r="DE5" s="61"/>
+      <c r="DF5" s="61"/>
+      <c r="DG5" s="61"/>
+      <c r="DH5" s="61"/>
+      <c r="DI5" s="61"/>
+      <c r="DJ5" s="61"/>
+      <c r="DK5" s="61"/>
+      <c r="DL5" s="61"/>
+      <c r="DM5" s="61"/>
+      <c r="DN5" s="61"/>
+      <c r="DO5" s="61"/>
+      <c r="DP5" s="61"/>
+      <c r="DQ5" s="61"/>
+      <c r="DR5" s="61"/>
+      <c r="DS5" s="61"/>
+      <c r="DT5" s="61"/>
+      <c r="DU5" s="61"/>
+      <c r="DV5" s="61"/>
+      <c r="DW5" s="61"/>
+      <c r="DX5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DZ5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EC5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="EE5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EF5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH5" s="61"/>
+      <c r="EI5" s="61"/>
+      <c r="EJ5" s="61"/>
+      <c r="EK5" s="61"/>
+      <c r="EL5" s="61"/>
+      <c r="EM5" s="61"/>
+      <c r="EN5" s="61"/>
+      <c r="EO5" s="61"/>
+      <c r="EP5" s="61"/>
+      <c r="EQ5" s="61"/>
+      <c r="ER5" s="61"/>
+      <c r="ES5" s="61"/>
+      <c r="ET5" s="61"/>
+      <c r="EU5" s="61"/>
+      <c r="EV5" s="61"/>
+      <c r="EW5" s="61"/>
+      <c r="EX5" s="61"/>
+      <c r="EY5" s="61"/>
+      <c r="EZ5" s="61"/>
+      <c r="FA5" s="61"/>
+      <c r="FB5" s="61"/>
+      <c r="FC5" s="61"/>
+      <c r="FD5" s="61"/>
+      <c r="FE5" s="61"/>
+      <c r="FF5" s="61"/>
+      <c r="FG5" s="61"/>
+      <c r="FH5" s="61"/>
+      <c r="FI5" s="61"/>
+      <c r="FJ5" s="61"/>
+      <c r="FK5" s="61"/>
+      <c r="FL5" s="61"/>
+      <c r="FM5" s="61"/>
+      <c r="FN5" s="61"/>
+      <c r="FO5" s="61"/>
+      <c r="FP5" s="61"/>
+      <c r="FQ5" s="61"/>
+      <c r="FR5" s="61"/>
+      <c r="FS5" s="61"/>
+      <c r="FT5" s="61"/>
+      <c r="FU5" s="61"/>
+    </row>
+    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B6" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
+      <c r="BP6" s="68"/>
+      <c r="BQ6" s="68"/>
+      <c r="BR6" s="68"/>
+      <c r="BS6" s="68"/>
+      <c r="BT6" s="68"/>
+      <c r="BU6" s="68"/>
+      <c r="BV6" s="68"/>
+      <c r="BW6" s="68"/>
+      <c r="BX6" s="68"/>
+      <c r="BY6" s="68"/>
+      <c r="BZ6" s="68"/>
+      <c r="CA6" s="68"/>
+      <c r="CB6" s="68"/>
+      <c r="CC6" s="68"/>
+      <c r="CD6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE6" s="68"/>
+      <c r="CF6" s="68"/>
+      <c r="CG6" s="68"/>
+      <c r="CH6" s="68"/>
+      <c r="CI6" s="68"/>
+      <c r="CJ6" s="68"/>
+      <c r="CK6" s="68"/>
+      <c r="CL6" s="68"/>
+      <c r="CM6" s="68"/>
+      <c r="CN6" s="68"/>
+      <c r="CO6" s="68"/>
+      <c r="CP6" s="68"/>
+      <c r="CQ6" s="68"/>
+      <c r="CR6" s="68"/>
+      <c r="CS6" s="68"/>
+      <c r="CT6" s="68"/>
+      <c r="CU6" s="68"/>
+      <c r="CV6" s="68"/>
+      <c r="CW6" s="68"/>
+      <c r="CX6" s="68"/>
+      <c r="CY6" s="68"/>
+      <c r="CZ6" s="68"/>
+      <c r="DA6" s="68"/>
+      <c r="DB6" s="68"/>
+      <c r="DC6" s="68"/>
+      <c r="DD6" s="68"/>
+      <c r="DE6" s="68"/>
+      <c r="DF6" s="68"/>
+      <c r="DG6" s="68"/>
+      <c r="DH6" s="68"/>
+      <c r="DI6" s="68"/>
+      <c r="DJ6" s="68"/>
+      <c r="DK6" s="68"/>
+      <c r="DL6" s="68"/>
+      <c r="DM6" s="68"/>
+      <c r="DN6" s="68"/>
+      <c r="DO6" s="68"/>
+      <c r="DP6" s="68"/>
+      <c r="DQ6" s="68"/>
+      <c r="DR6" s="68"/>
+      <c r="DS6" s="68"/>
+      <c r="DT6" s="68"/>
+      <c r="DU6" s="68"/>
+      <c r="DV6" s="68"/>
+      <c r="DW6" s="68"/>
+      <c r="DX6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="DZ6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EC6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="EE6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EF6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EI6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EJ6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EL6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EM6" s="68"/>
+      <c r="EN6" s="68"/>
+      <c r="EO6" s="68"/>
+      <c r="EP6" s="68"/>
+      <c r="EQ6" s="68"/>
+      <c r="ER6" s="68"/>
+      <c r="ES6" s="68"/>
+      <c r="ET6" s="68"/>
+      <c r="EU6" s="68"/>
+      <c r="EV6" s="68"/>
+      <c r="EW6" s="68"/>
+      <c r="EX6" s="68"/>
+      <c r="EY6" s="68"/>
+      <c r="EZ6" s="68"/>
+      <c r="FA6" s="68"/>
+      <c r="FB6" s="68"/>
+      <c r="FC6" s="68"/>
+      <c r="FD6" s="68"/>
+      <c r="FE6" s="68"/>
+      <c r="FF6" s="68"/>
+      <c r="FG6" s="68"/>
+      <c r="FH6" s="68"/>
+      <c r="FI6" s="68"/>
+      <c r="FJ6" s="68"/>
+      <c r="FK6" s="68"/>
+      <c r="FL6" s="68"/>
+      <c r="FM6" s="68"/>
+      <c r="FN6" s="68"/>
+      <c r="FO6" s="68"/>
+      <c r="FP6" s="68"/>
+      <c r="FQ6" s="68"/>
+      <c r="FR6" s="68"/>
+      <c r="FS6" s="68"/>
+      <c r="FT6" s="68"/>
+      <c r="FU6" s="68"/>
+    </row>
+    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B7" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW7" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="68"/>
+      <c r="BQ7" s="68"/>
+      <c r="BR7" s="68"/>
+      <c r="BS7" s="68"/>
+      <c r="BT7" s="68"/>
+      <c r="BU7" s="68"/>
+      <c r="BV7" s="68"/>
+      <c r="BW7" s="68"/>
+      <c r="BX7" s="68"/>
+      <c r="BY7" s="68"/>
+      <c r="BZ7" s="68"/>
+      <c r="CA7" s="68"/>
+      <c r="CB7" s="68"/>
+      <c r="CC7" s="68"/>
+      <c r="CD7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE7" s="68"/>
+      <c r="CF7" s="68"/>
+      <c r="CG7" s="68"/>
+      <c r="CH7" s="68"/>
+      <c r="CI7" s="68"/>
+      <c r="CJ7" s="68"/>
+      <c r="CK7" s="68"/>
+      <c r="CL7" s="68"/>
+      <c r="CM7" s="68"/>
+      <c r="CN7" s="68"/>
+      <c r="CO7" s="68"/>
+      <c r="CP7" s="68"/>
+      <c r="CQ7" s="68"/>
+      <c r="CR7" s="68"/>
+      <c r="CS7" s="68"/>
+      <c r="CT7" s="68"/>
+      <c r="CU7" s="68"/>
+      <c r="CV7" s="68"/>
+      <c r="CW7" s="68"/>
+      <c r="CX7" s="68"/>
+      <c r="CY7" s="68"/>
+      <c r="CZ7" s="68"/>
+      <c r="DA7" s="68"/>
+      <c r="DB7" s="68"/>
+      <c r="DC7" s="68"/>
+      <c r="DD7" s="68"/>
+      <c r="DE7" s="68"/>
+      <c r="DF7" s="68"/>
+      <c r="DG7" s="68"/>
+      <c r="DH7" s="68"/>
+      <c r="DI7" s="68"/>
+      <c r="DJ7" s="68"/>
+      <c r="DK7" s="68"/>
+      <c r="DL7" s="68"/>
+      <c r="DM7" s="68"/>
+      <c r="DN7" s="68"/>
+      <c r="DO7" s="68"/>
+      <c r="DP7" s="68"/>
+      <c r="DQ7" s="68"/>
+      <c r="DR7" s="68"/>
+      <c r="DS7" s="68"/>
+      <c r="DT7" s="68"/>
+      <c r="DU7" s="68"/>
+      <c r="DV7" s="68"/>
+      <c r="DW7" s="68"/>
+      <c r="DX7" s="68"/>
+      <c r="DY7" s="68"/>
+      <c r="DZ7" s="68"/>
+      <c r="EA7" s="68"/>
+      <c r="EB7" s="68"/>
+      <c r="EC7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="EE7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EF7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EI7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EJ7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EL7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EM7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EN7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EO7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EP7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="EQ7" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="ER7" s="68"/>
+      <c r="ES7" s="68"/>
+      <c r="ET7" s="68"/>
+      <c r="EU7" s="68"/>
+      <c r="EV7" s="68"/>
+      <c r="EW7" s="68"/>
+      <c r="EX7" s="68"/>
+      <c r="EY7" s="68"/>
+      <c r="EZ7" s="68"/>
+      <c r="FA7" s="68"/>
+      <c r="FB7" s="68"/>
+      <c r="FC7" s="68"/>
+      <c r="FD7" s="68"/>
+      <c r="FE7" s="68"/>
+      <c r="FF7" s="68"/>
+      <c r="FG7" s="68"/>
+      <c r="FH7" s="68"/>
+      <c r="FI7" s="68"/>
+      <c r="FJ7" s="68"/>
+      <c r="FK7" s="68"/>
+      <c r="FL7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FM7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FN7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FO7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FP7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FQ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FR7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FS7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FT7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FU7" s="122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B8" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="61">
+        <f t="shared" ref="C8" si="78">COUNTBLANK(C3:C7)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="61">
+        <f>COUNTBLANK(D3:D7)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" ref="E8:AS8" si="79">COUNTBLANK(E3:E7)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="61">
+        <f>COUNTBLANK(Q3:Q7)</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="61">
+        <f>COUNTBLANK(R3:R7)</f>
+        <v>4</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="61">
+        <f>COUNTBLANK(U3:U7)</f>
+        <v>4</v>
+      </c>
+      <c r="V8" s="61">
+        <f>COUNTBLANK(V3:V7)</f>
+        <v>4</v>
+      </c>
+      <c r="W8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="X8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="Y8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="Z8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AA8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="AD8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="AE8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="AF8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AG8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AH8" s="61">
+        <f t="shared" si="79"/>
+        <v>3</v>
+      </c>
+      <c r="AI8" s="61">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AK8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AL8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AM8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AN8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AO8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AP8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AR8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AS8" s="61">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="61">
+        <f>COUNTBLANK(AW3:AW7)</f>
+        <v>4</v>
+      </c>
+      <c r="AX8" s="61">
+        <f>COUNTBLANK(AX3:AX7)</f>
+        <v>4</v>
+      </c>
+      <c r="AY8" s="61">
+        <f>COUNTBLANK(AY3:AY7)</f>
+        <v>4</v>
+      </c>
+      <c r="AZ8" s="61">
+        <f>COUNTBLANK(AZ3:AZ7)</f>
+        <v>4</v>
+      </c>
+      <c r="BA8" s="61">
+        <f>COUNTBLANK(BA3:BA7)</f>
+        <v>1</v>
+      </c>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61">
+        <f t="shared" ref="BC8:CG8" si="80">COUNTBLANK(BC3:BC7)</f>
+        <v>5</v>
+      </c>
+      <c r="BD8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BE8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BH8" s="61">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="BI8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BK8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BL8" s="61">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="BM8" s="61">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="BN8" s="61">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="BO8" s="61">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="BP8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BQ8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BR8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BS8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BT8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BU8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BV8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BW8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BX8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BY8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="BZ8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CA8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CB8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CC8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CD8" s="61"/>
+      <c r="CE8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CF8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CG8" s="61">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="CH8" s="61">
+        <f t="shared" ref="CH8:DM8" si="81">COUNTBLANK(CH3:CH7)</f>
+        <v>5</v>
+      </c>
+      <c r="CI8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CJ8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CK8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CL8" s="61">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="CM8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CN8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CO8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CP8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CQ8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CR8" s="61">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="CS8" s="61">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="CT8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CU8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CV8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CW8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CX8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CY8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="CZ8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DA8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DB8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DC8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DD8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DE8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DF8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DG8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DH8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DI8" s="61">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="DJ8" s="61">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="DK8" s="61">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="DL8" s="61">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="DM8" s="61">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="DN8" s="61">
+        <f t="shared" ref="DN8:DW8" si="82">COUNTBLANK(DN3:DN7)</f>
+        <v>5</v>
+      </c>
+      <c r="DO8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DP8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DQ8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DR8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DS8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DT8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DU8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DV8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DW8" s="61">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="DX8" s="61"/>
+      <c r="DY8" s="61"/>
+      <c r="DZ8" s="61"/>
+      <c r="EA8" s="61"/>
+      <c r="EB8" s="61"/>
+      <c r="EC8" s="61"/>
+      <c r="ED8" s="61"/>
+      <c r="EE8" s="61"/>
+      <c r="EF8" s="61"/>
+      <c r="EG8" s="61"/>
+      <c r="EH8" s="61">
+        <f t="shared" ref="EH8:FT8" si="83">COUNTBLANK(EH3:EH7)</f>
+        <v>2</v>
+      </c>
+      <c r="EI8" s="61">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="EJ8" s="61">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="EK8" s="61">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="EL8" s="61">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="EM8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="EN8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="EO8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="EP8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="EQ8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="ER8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="ES8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="ET8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EU8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EV8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EW8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EX8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EY8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="EZ8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FA8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FB8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FC8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FD8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FE8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FF8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FG8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FH8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FI8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FJ8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FK8" s="61">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="FL8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FM8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FN8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FO8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FP8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FQ8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FR8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FS8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FT8" s="61">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="FU8" s="61">
+        <f t="shared" ref="FU8" si="84">COUNTBLANK(FU3:FU7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B11" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B13" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B14" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="B15" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BC8:BE8 EE8:EG8 CE8:EC8 BG8:CC8 C8:BA8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH8:FU8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ED8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Z27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA39" sqref="AA39"/>
+      <selection pane="bottomRight" activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10885,7 +15581,7 @@
       </c>
       <c r="AJ1" s="26" t="str">
         <f t="shared" ref="AJ1" ca="1" si="2">IF(TODAY()&gt;=AJ2,IF(TODAY()&lt;AK2,"]",""),"")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AK1" s="26" t="str">
         <f t="shared" ref="AK1" ca="1" si="3">IF(TODAY()&gt;=AK2,IF(TODAY()&lt;AL2,"]",""),"")</f>
@@ -10893,7 +15589,7 @@
       </c>
       <c r="AL1" s="26" t="str">
         <f t="shared" ref="AL1" ca="1" si="4">IF(TODAY()&gt;=AL2,IF(TODAY()&lt;AM2,"]",""),"")</f>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AM1" s="26" t="str">
         <f t="shared" ref="AM1" ca="1" si="5">IF(TODAY()&gt;=AM2,IF(TODAY()&lt;AN2,"]",""),"")</f>
@@ -13197,7 +17893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
@@ -13708,7 +18404,7 @@
       </c>
       <c r="DQ1" s="26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>]</v>
+        <v/>
       </c>
     </row>
     <row r="2" spans="2:122" x14ac:dyDescent="0.3">
@@ -16209,3140 +20905,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FU15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CY3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DD18" sqref="DD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="16" customWidth="1"/>
-    <col min="3" max="14" width="5.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="37" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="57" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="58" max="80" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="81" max="123" width="5.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="124" max="146" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="147" max="177" width="5.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="178" max="16384" width="8.796875" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C1" s="64" t="str">
-        <f t="shared" ref="C1" ca="1" si="0">IF(TODAY()=C2,"]","")</f>
-        <v/>
-      </c>
-      <c r="D1" s="64" t="str">
-        <f t="shared" ref="D1:V1" ca="1" si="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"]",""),"")</f>
-        <v/>
-      </c>
-      <c r="E1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="L1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="M1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="N1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="O1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="P1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="Q1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="R1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="S1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="T1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="U1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="V1" s="64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="W1" s="64" t="str">
-        <f t="shared" ref="W1:CH1" ca="1" si="2">IF(TODAY()=W2,"]","")</f>
-        <v/>
-      </c>
-      <c r="X1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Y1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Z1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AA1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AB1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AC1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AD1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AE1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AF1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AG1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AH1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AI1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AJ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AK1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AM1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AN1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AO1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AP1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AQ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AR1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AS1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AT1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AU1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AV1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AW1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AX1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AY1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AZ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BA1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BB1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BC1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BD1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BE1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BF1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BG1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BH1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BI1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BJ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BK1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BL1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BM1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BN1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BO1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BP1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BQ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BR1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BS1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BT1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BU1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BV1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BW1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BX1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BY1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="BZ1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CA1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CB1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CC1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CD1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CE1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CF1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CG1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CH1" s="64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="CI1" s="64" t="str">
-        <f t="shared" ref="CI1:DF1" ca="1" si="3">IF(TODAY()=CI2,"]","")</f>
-        <v/>
-      </c>
-      <c r="CJ1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CK1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CL1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CM1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CN1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CO1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CP1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CQ1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CR1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CS1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CT1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CU1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CV1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CW1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CX1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CY1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="CZ1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DA1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DB1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DC1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DD1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DE1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="DF1" s="64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="42">
-        <v>42779</v>
-      </c>
-      <c r="D2" s="43">
-        <v>42780</v>
-      </c>
-      <c r="E2" s="43">
-        <v>42781</v>
-      </c>
-      <c r="F2" s="43">
-        <v>42782</v>
-      </c>
-      <c r="G2" s="43">
-        <v>42783</v>
-      </c>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2:AU2" si="4">+C2+7</f>
-        <v>42786</v>
-      </c>
-      <c r="I2" s="43">
-        <f t="shared" si="4"/>
-        <v>42787</v>
-      </c>
-      <c r="J2" s="43">
-        <f t="shared" si="4"/>
-        <v>42788</v>
-      </c>
-      <c r="K2" s="43">
-        <f t="shared" si="4"/>
-        <v>42789</v>
-      </c>
-      <c r="L2" s="43">
-        <f t="shared" si="4"/>
-        <v>42790</v>
-      </c>
-      <c r="M2" s="42">
-        <f t="shared" si="4"/>
-        <v>42793</v>
-      </c>
-      <c r="N2" s="43">
-        <f t="shared" si="4"/>
-        <v>42794</v>
-      </c>
-      <c r="O2" s="43">
-        <f t="shared" si="4"/>
-        <v>42795</v>
-      </c>
-      <c r="P2" s="43">
-        <f t="shared" si="4"/>
-        <v>42796</v>
-      </c>
-      <c r="Q2" s="43">
-        <f t="shared" si="4"/>
-        <v>42797</v>
-      </c>
-      <c r="R2" s="42">
-        <f t="shared" si="4"/>
-        <v>42800</v>
-      </c>
-      <c r="S2" s="43">
-        <f t="shared" si="4"/>
-        <v>42801</v>
-      </c>
-      <c r="T2" s="43">
-        <f t="shared" si="4"/>
-        <v>42802</v>
-      </c>
-      <c r="U2" s="43">
-        <f t="shared" si="4"/>
-        <v>42803</v>
-      </c>
-      <c r="V2" s="43">
-        <f t="shared" si="4"/>
-        <v>42804</v>
-      </c>
-      <c r="W2" s="42">
-        <f t="shared" si="4"/>
-        <v>42807</v>
-      </c>
-      <c r="X2" s="43">
-        <f t="shared" si="4"/>
-        <v>42808</v>
-      </c>
-      <c r="Y2" s="43">
-        <f t="shared" si="4"/>
-        <v>42809</v>
-      </c>
-      <c r="Z2" s="43">
-        <f t="shared" si="4"/>
-        <v>42810</v>
-      </c>
-      <c r="AA2" s="43">
-        <f t="shared" si="4"/>
-        <v>42811</v>
-      </c>
-      <c r="AB2" s="42">
-        <f t="shared" si="4"/>
-        <v>42814</v>
-      </c>
-      <c r="AC2" s="43">
-        <f t="shared" si="4"/>
-        <v>42815</v>
-      </c>
-      <c r="AD2" s="43">
-        <f t="shared" si="4"/>
-        <v>42816</v>
-      </c>
-      <c r="AE2" s="43">
-        <f t="shared" si="4"/>
-        <v>42817</v>
-      </c>
-      <c r="AF2" s="43">
-        <f t="shared" si="4"/>
-        <v>42818</v>
-      </c>
-      <c r="AG2" s="42">
-        <f t="shared" si="4"/>
-        <v>42821</v>
-      </c>
-      <c r="AH2" s="43">
-        <f t="shared" si="4"/>
-        <v>42822</v>
-      </c>
-      <c r="AI2" s="43">
-        <f t="shared" si="4"/>
-        <v>42823</v>
-      </c>
-      <c r="AJ2" s="43">
-        <f t="shared" si="4"/>
-        <v>42824</v>
-      </c>
-      <c r="AK2" s="43">
-        <f t="shared" si="4"/>
-        <v>42825</v>
-      </c>
-      <c r="AL2" s="42">
-        <f t="shared" si="4"/>
-        <v>42828</v>
-      </c>
-      <c r="AM2" s="43">
-        <f t="shared" si="4"/>
-        <v>42829</v>
-      </c>
-      <c r="AN2" s="43">
-        <f t="shared" si="4"/>
-        <v>42830</v>
-      </c>
-      <c r="AO2" s="43">
-        <f t="shared" si="4"/>
-        <v>42831</v>
-      </c>
-      <c r="AP2" s="43">
-        <f t="shared" si="4"/>
-        <v>42832</v>
-      </c>
-      <c r="AQ2" s="42">
-        <f t="shared" si="4"/>
-        <v>42835</v>
-      </c>
-      <c r="AR2" s="43">
-        <f t="shared" si="4"/>
-        <v>42836</v>
-      </c>
-      <c r="AS2" s="43">
-        <f t="shared" si="4"/>
-        <v>42837</v>
-      </c>
-      <c r="AT2" s="43">
-        <f t="shared" si="4"/>
-        <v>42838</v>
-      </c>
-      <c r="AU2" s="43">
-        <f t="shared" si="4"/>
-        <v>42839</v>
-      </c>
-      <c r="AV2" s="42">
-        <f>+AQ2+7</f>
-        <v>42842</v>
-      </c>
-      <c r="AW2" s="43">
-        <f>+AR2+7</f>
-        <v>42843</v>
-      </c>
-      <c r="AX2" s="43">
-        <f t="shared" ref="AX2:BY2" si="5">+AS2+7</f>
-        <v>42844</v>
-      </c>
-      <c r="AY2" s="43">
-        <f t="shared" si="5"/>
-        <v>42845</v>
-      </c>
-      <c r="AZ2" s="43">
-        <f t="shared" si="5"/>
-        <v>42846</v>
-      </c>
-      <c r="BA2" s="42">
-        <f t="shared" si="5"/>
-        <v>42849</v>
-      </c>
-      <c r="BB2" s="43">
-        <f t="shared" si="5"/>
-        <v>42850</v>
-      </c>
-      <c r="BC2" s="43">
-        <f t="shared" si="5"/>
-        <v>42851</v>
-      </c>
-      <c r="BD2" s="43">
-        <f t="shared" si="5"/>
-        <v>42852</v>
-      </c>
-      <c r="BE2" s="43">
-        <f t="shared" si="5"/>
-        <v>42853</v>
-      </c>
-      <c r="BF2" s="42">
-        <f t="shared" si="5"/>
-        <v>42856</v>
-      </c>
-      <c r="BG2" s="43">
-        <f t="shared" si="5"/>
-        <v>42857</v>
-      </c>
-      <c r="BH2" s="43">
-        <f t="shared" si="5"/>
-        <v>42858</v>
-      </c>
-      <c r="BI2" s="43">
-        <f t="shared" si="5"/>
-        <v>42859</v>
-      </c>
-      <c r="BJ2" s="43">
-        <f t="shared" si="5"/>
-        <v>42860</v>
-      </c>
-      <c r="BK2" s="42">
-        <f t="shared" si="5"/>
-        <v>42863</v>
-      </c>
-      <c r="BL2" s="43">
-        <f t="shared" si="5"/>
-        <v>42864</v>
-      </c>
-      <c r="BM2" s="43">
-        <f t="shared" si="5"/>
-        <v>42865</v>
-      </c>
-      <c r="BN2" s="43">
-        <f t="shared" si="5"/>
-        <v>42866</v>
-      </c>
-      <c r="BO2" s="43">
-        <f t="shared" si="5"/>
-        <v>42867</v>
-      </c>
-      <c r="BP2" s="42">
-        <f t="shared" si="5"/>
-        <v>42870</v>
-      </c>
-      <c r="BQ2" s="43">
-        <f t="shared" si="5"/>
-        <v>42871</v>
-      </c>
-      <c r="BR2" s="43">
-        <f t="shared" si="5"/>
-        <v>42872</v>
-      </c>
-      <c r="BS2" s="43">
-        <f t="shared" si="5"/>
-        <v>42873</v>
-      </c>
-      <c r="BT2" s="43">
-        <f t="shared" si="5"/>
-        <v>42874</v>
-      </c>
-      <c r="BU2" s="42">
-        <f t="shared" si="5"/>
-        <v>42877</v>
-      </c>
-      <c r="BV2" s="43">
-        <f t="shared" si="5"/>
-        <v>42878</v>
-      </c>
-      <c r="BW2" s="43">
-        <f t="shared" si="5"/>
-        <v>42879</v>
-      </c>
-      <c r="BX2" s="43">
-        <f t="shared" si="5"/>
-        <v>42880</v>
-      </c>
-      <c r="BY2" s="43">
-        <f t="shared" si="5"/>
-        <v>42881</v>
-      </c>
-      <c r="BZ2" s="42">
-        <f>+BU2+7</f>
-        <v>42884</v>
-      </c>
-      <c r="CA2" s="43">
-        <f>+BV2+7</f>
-        <v>42885</v>
-      </c>
-      <c r="CB2" s="43">
-        <f t="shared" ref="CB2:DC2" si="6">+BW2+7</f>
-        <v>42886</v>
-      </c>
-      <c r="CC2" s="43">
-        <f t="shared" si="6"/>
-        <v>42887</v>
-      </c>
-      <c r="CD2" s="43">
-        <f t="shared" si="6"/>
-        <v>42888</v>
-      </c>
-      <c r="CE2" s="42">
-        <f t="shared" si="6"/>
-        <v>42891</v>
-      </c>
-      <c r="CF2" s="43">
-        <f t="shared" si="6"/>
-        <v>42892</v>
-      </c>
-      <c r="CG2" s="43">
-        <f t="shared" si="6"/>
-        <v>42893</v>
-      </c>
-      <c r="CH2" s="43">
-        <f t="shared" si="6"/>
-        <v>42894</v>
-      </c>
-      <c r="CI2" s="43">
-        <f t="shared" si="6"/>
-        <v>42895</v>
-      </c>
-      <c r="CJ2" s="42">
-        <f t="shared" si="6"/>
-        <v>42898</v>
-      </c>
-      <c r="CK2" s="43">
-        <f t="shared" si="6"/>
-        <v>42899</v>
-      </c>
-      <c r="CL2" s="43">
-        <f t="shared" si="6"/>
-        <v>42900</v>
-      </c>
-      <c r="CM2" s="43">
-        <f t="shared" si="6"/>
-        <v>42901</v>
-      </c>
-      <c r="CN2" s="43">
-        <f t="shared" si="6"/>
-        <v>42902</v>
-      </c>
-      <c r="CO2" s="42">
-        <f t="shared" si="6"/>
-        <v>42905</v>
-      </c>
-      <c r="CP2" s="43">
-        <f t="shared" si="6"/>
-        <v>42906</v>
-      </c>
-      <c r="CQ2" s="43">
-        <f t="shared" si="6"/>
-        <v>42907</v>
-      </c>
-      <c r="CR2" s="43">
-        <f t="shared" si="6"/>
-        <v>42908</v>
-      </c>
-      <c r="CS2" s="43">
-        <f t="shared" si="6"/>
-        <v>42909</v>
-      </c>
-      <c r="CT2" s="42">
-        <f t="shared" si="6"/>
-        <v>42912</v>
-      </c>
-      <c r="CU2" s="43">
-        <f t="shared" si="6"/>
-        <v>42913</v>
-      </c>
-      <c r="CV2" s="43">
-        <f t="shared" si="6"/>
-        <v>42914</v>
-      </c>
-      <c r="CW2" s="43">
-        <f t="shared" si="6"/>
-        <v>42915</v>
-      </c>
-      <c r="CX2" s="43">
-        <f t="shared" si="6"/>
-        <v>42916</v>
-      </c>
-      <c r="CY2" s="42">
-        <f t="shared" si="6"/>
-        <v>42919</v>
-      </c>
-      <c r="CZ2" s="43">
-        <f t="shared" si="6"/>
-        <v>42920</v>
-      </c>
-      <c r="DA2" s="43">
-        <f t="shared" si="6"/>
-        <v>42921</v>
-      </c>
-      <c r="DB2" s="43">
-        <f t="shared" si="6"/>
-        <v>42922</v>
-      </c>
-      <c r="DC2" s="43">
-        <f t="shared" si="6"/>
-        <v>42923</v>
-      </c>
-      <c r="DD2" s="42">
-        <f t="shared" ref="DD2" si="7">+CY2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="DE2" s="43">
-        <f t="shared" ref="DE2" si="8">+CZ2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="DF2" s="43">
-        <f t="shared" ref="DF2" si="9">+DA2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="DG2" s="43">
-        <f t="shared" ref="DG2" si="10">+DB2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="DH2" s="43">
-        <f t="shared" ref="DH2" si="11">+DC2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="DI2" s="42">
-        <f t="shared" ref="DI2" si="12">+DD2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="DJ2" s="43">
-        <f t="shared" ref="DJ2" si="13">+DE2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="DK2" s="43">
-        <f t="shared" ref="DK2" si="14">+DF2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="DL2" s="43">
-        <f t="shared" ref="DL2" si="15">+DG2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="DM2" s="43">
-        <f t="shared" ref="DM2" si="16">+DH2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="DN2" s="42">
-        <f t="shared" ref="DN2" si="17">+DI2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="DO2" s="43">
-        <f t="shared" ref="DO2" si="18">+DJ2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="DP2" s="43">
-        <f t="shared" ref="DP2" si="19">+DK2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="DQ2" s="43">
-        <f t="shared" ref="DQ2" si="20">+DL2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="DR2" s="43">
-        <f t="shared" ref="DR2" si="21">+DM2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="DS2" s="42">
-        <f t="shared" ref="DS2" si="22">+DN2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="DT2" s="43">
-        <f t="shared" ref="DT2" si="23">+DO2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="DU2" s="43">
-        <f t="shared" ref="DU2" si="24">+DP2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="DV2" s="43">
-        <f t="shared" ref="DV2" si="25">+DQ2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="DW2" s="43">
-        <f t="shared" ref="DW2" si="26">+DR2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="DX2" s="42">
-        <f t="shared" ref="DX2" si="27">+DS2+7</f>
-        <v>42954</v>
-      </c>
-      <c r="DY2" s="43">
-        <f t="shared" ref="DY2" si="28">+DT2+7</f>
-        <v>42955</v>
-      </c>
-      <c r="DZ2" s="43">
-        <f t="shared" ref="DZ2" si="29">+DU2+7</f>
-        <v>42956</v>
-      </c>
-      <c r="EA2" s="43">
-        <f t="shared" ref="EA2" si="30">+DV2+7</f>
-        <v>42957</v>
-      </c>
-      <c r="EB2" s="43">
-        <f t="shared" ref="EB2" si="31">+DW2+7</f>
-        <v>42958</v>
-      </c>
-      <c r="EC2" s="42">
-        <f t="shared" ref="EC2" si="32">+DX2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="ED2" s="43">
-        <f t="shared" ref="ED2" si="33">+DY2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="EE2" s="43">
-        <f t="shared" ref="EE2" si="34">+DZ2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="EF2" s="43">
-        <f t="shared" ref="EF2" si="35">+EA2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="EG2" s="43">
-        <f t="shared" ref="EG2" si="36">+EB2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="EH2" s="42">
-        <f t="shared" ref="EH2" si="37">+EC2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="EI2" s="43">
-        <f t="shared" ref="EI2" si="38">+ED2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="EJ2" s="43">
-        <f t="shared" ref="EJ2" si="39">+EE2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="EK2" s="43">
-        <f t="shared" ref="EK2" si="40">+EF2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="EL2" s="43">
-        <f t="shared" ref="EL2" si="41">+EG2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="EM2" s="42">
-        <f t="shared" ref="EM2" si="42">+EH2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="EN2" s="43">
-        <f t="shared" ref="EN2" si="43">+EI2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="EO2" s="43">
-        <f t="shared" ref="EO2" si="44">+EJ2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="EP2" s="43">
-        <f t="shared" ref="EP2" si="45">+EK2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="EQ2" s="43">
-        <f t="shared" ref="EQ2" si="46">+EL2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="ER2" s="42">
-        <f t="shared" ref="ER2" si="47">+EM2+7</f>
-        <v>42982</v>
-      </c>
-      <c r="ES2" s="43">
-        <f t="shared" ref="ES2" si="48">+EN2+7</f>
-        <v>42983</v>
-      </c>
-      <c r="ET2" s="43">
-        <f t="shared" ref="ET2" si="49">+EO2+7</f>
-        <v>42984</v>
-      </c>
-      <c r="EU2" s="43">
-        <f t="shared" ref="EU2" si="50">+EP2+7</f>
-        <v>42985</v>
-      </c>
-      <c r="EV2" s="43">
-        <f t="shared" ref="EV2" si="51">+EQ2+7</f>
-        <v>42986</v>
-      </c>
-      <c r="EW2" s="42">
-        <f t="shared" ref="EW2" si="52">+ER2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="EX2" s="43">
-        <f t="shared" ref="EX2" si="53">+ES2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="EY2" s="43">
-        <f t="shared" ref="EY2" si="54">+ET2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="EZ2" s="43">
-        <f t="shared" ref="EZ2" si="55">+EU2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="FA2" s="43">
-        <f t="shared" ref="FA2" si="56">+EV2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="FB2" s="42">
-        <f t="shared" ref="FB2" si="57">+EW2+7</f>
-        <v>42996</v>
-      </c>
-      <c r="FC2" s="43">
-        <f t="shared" ref="FC2" si="58">+EX2+7</f>
-        <v>42997</v>
-      </c>
-      <c r="FD2" s="43">
-        <f t="shared" ref="FD2" si="59">+EY2+7</f>
-        <v>42998</v>
-      </c>
-      <c r="FE2" s="43">
-        <f t="shared" ref="FE2" si="60">+EZ2+7</f>
-        <v>42999</v>
-      </c>
-      <c r="FF2" s="43">
-        <f t="shared" ref="FF2" si="61">+FA2+7</f>
-        <v>43000</v>
-      </c>
-      <c r="FG2" s="42">
-        <f t="shared" ref="FG2" si="62">+FB2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="FH2" s="43">
-        <f t="shared" ref="FH2" si="63">+FC2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="FI2" s="43">
-        <f t="shared" ref="FI2" si="64">+FD2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="FJ2" s="43">
-        <f t="shared" ref="FJ2" si="65">+FE2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="FK2" s="43">
-        <f t="shared" ref="FK2" si="66">+FF2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="FL2" s="42">
-        <f t="shared" ref="FL2" si="67">+FG2+7</f>
-        <v>43010</v>
-      </c>
-      <c r="FM2" s="43">
-        <f t="shared" ref="FM2" si="68">+FH2+7</f>
-        <v>43011</v>
-      </c>
-      <c r="FN2" s="43">
-        <f t="shared" ref="FN2" si="69">+FI2+7</f>
-        <v>43012</v>
-      </c>
-      <c r="FO2" s="43">
-        <f t="shared" ref="FO2" si="70">+FJ2+7</f>
-        <v>43013</v>
-      </c>
-      <c r="FP2" s="43">
-        <f t="shared" ref="FP2" si="71">+FK2+7</f>
-        <v>43014</v>
-      </c>
-      <c r="FQ2" s="42">
-        <f t="shared" ref="FQ2" si="72">+FL2+7</f>
-        <v>43017</v>
-      </c>
-      <c r="FR2" s="43">
-        <f t="shared" ref="FR2" si="73">+FM2+7</f>
-        <v>43018</v>
-      </c>
-      <c r="FS2" s="43">
-        <f t="shared" ref="FS2" si="74">+FN2+7</f>
-        <v>43019</v>
-      </c>
-      <c r="FT2" s="43">
-        <f t="shared" ref="FT2" si="75">+FO2+7</f>
-        <v>43020</v>
-      </c>
-      <c r="FU2" s="43">
-        <f t="shared" ref="FU2" si="76">+FP2+7</f>
-        <v>43021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="R3" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="V3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE3" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC3" s="68"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN3" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68"/>
-      <c r="BR3" s="68"/>
-      <c r="BS3" s="68"/>
-      <c r="BT3" s="68"/>
-      <c r="BU3" s="68"/>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="68"/>
-      <c r="BY3" s="68"/>
-      <c r="BZ3" s="68"/>
-      <c r="CA3" s="68"/>
-      <c r="CB3" s="68"/>
-      <c r="CC3" s="68"/>
-      <c r="CD3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE3" s="68"/>
-      <c r="CF3" s="68"/>
-      <c r="CG3" s="68"/>
-      <c r="CH3" s="68"/>
-      <c r="CI3" s="68"/>
-      <c r="CJ3" s="68"/>
-      <c r="CK3" s="68"/>
-      <c r="CL3" s="68"/>
-      <c r="CM3" s="68"/>
-      <c r="CN3" s="68"/>
-      <c r="CO3" s="68"/>
-      <c r="CP3" s="68"/>
-      <c r="CQ3" s="68"/>
-      <c r="CR3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="CS3" s="68"/>
-      <c r="CT3" s="68"/>
-      <c r="CU3" s="68"/>
-      <c r="CV3" s="68"/>
-      <c r="CW3" s="68"/>
-      <c r="CX3" s="68"/>
-      <c r="CY3" s="68"/>
-      <c r="CZ3" s="68"/>
-      <c r="DA3" s="68"/>
-      <c r="DB3" s="68"/>
-      <c r="DC3" s="68"/>
-      <c r="DD3" s="68"/>
-      <c r="DE3" s="68"/>
-      <c r="DF3" s="68"/>
-      <c r="DG3" s="68"/>
-      <c r="DH3" s="68"/>
-      <c r="DI3" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="DJ3" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="DK3" s="123"/>
-      <c r="DL3" s="123"/>
-      <c r="DM3" s="68"/>
-      <c r="DN3" s="68"/>
-      <c r="DO3" s="68"/>
-      <c r="DP3" s="68"/>
-      <c r="DQ3" s="68"/>
-      <c r="DR3" s="68"/>
-      <c r="DS3" s="68"/>
-      <c r="DT3" s="68"/>
-      <c r="DU3" s="68"/>
-      <c r="DV3" s="68"/>
-      <c r="DW3" s="68"/>
-      <c r="DX3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DZ3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EA3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EB3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EC3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="EE3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EF3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EG3" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH3" s="68"/>
-      <c r="EI3" s="68"/>
-      <c r="EJ3" s="68"/>
-      <c r="EK3" s="68"/>
-      <c r="EL3" s="68"/>
-      <c r="EM3" s="68"/>
-      <c r="EN3" s="68"/>
-      <c r="EO3" s="68"/>
-      <c r="EP3" s="68"/>
-      <c r="EQ3" s="68"/>
-      <c r="ER3" s="68"/>
-      <c r="ES3" s="68"/>
-      <c r="ET3" s="68"/>
-      <c r="EU3" s="68"/>
-      <c r="EV3" s="68"/>
-      <c r="EW3" s="68"/>
-      <c r="EX3" s="68"/>
-      <c r="EY3" s="68"/>
-      <c r="EZ3" s="68"/>
-      <c r="FA3" s="68"/>
-      <c r="FB3" s="68"/>
-      <c r="FC3" s="68"/>
-      <c r="FD3" s="68"/>
-      <c r="FE3" s="68"/>
-      <c r="FF3" s="68"/>
-      <c r="FG3" s="68"/>
-      <c r="FH3" s="68"/>
-      <c r="FI3" s="68"/>
-      <c r="FJ3" s="68"/>
-      <c r="FK3" s="68"/>
-      <c r="FL3" s="68"/>
-      <c r="FM3" s="68"/>
-      <c r="FN3" s="68"/>
-      <c r="FO3" s="68"/>
-      <c r="FP3" s="68"/>
-      <c r="FQ3" s="68"/>
-      <c r="FR3" s="68"/>
-      <c r="FS3" s="68"/>
-      <c r="FT3" s="68"/>
-      <c r="FU3" s="68"/>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV4" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY4" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ4" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB4" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM4" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="BO4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="68"/>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="68"/>
-      <c r="CG4" s="68"/>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="68"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="68"/>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="CS4" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="CT4" s="68"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="68"/>
-      <c r="DB4" s="68"/>
-      <c r="DC4" s="68"/>
-      <c r="DD4" s="68"/>
-      <c r="DE4" s="68"/>
-      <c r="DF4" s="68"/>
-      <c r="DG4" s="68"/>
-      <c r="DH4" s="68"/>
-      <c r="DI4" s="68"/>
-      <c r="DJ4" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="DK4" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="DL4" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM4" s="68"/>
-      <c r="DN4" s="68"/>
-      <c r="DO4" s="68"/>
-      <c r="DP4" s="68"/>
-      <c r="DQ4" s="68"/>
-      <c r="DR4" s="68"/>
-      <c r="DS4" s="68"/>
-      <c r="DT4" s="68"/>
-      <c r="DU4" s="68"/>
-      <c r="DV4" s="68"/>
-      <c r="DW4" s="68"/>
-      <c r="DX4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DZ4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EA4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EB4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EC4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED4" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="EE4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EF4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EG4" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH4" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EI4" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ4" s="61"/>
-      <c r="EK4" s="68"/>
-      <c r="EL4" s="68"/>
-      <c r="EM4" s="68"/>
-      <c r="EN4" s="68"/>
-      <c r="EO4" s="68"/>
-      <c r="EP4" s="68"/>
-      <c r="EQ4" s="68"/>
-      <c r="ER4" s="68"/>
-      <c r="ES4" s="68"/>
-      <c r="ET4" s="68"/>
-      <c r="EU4" s="68"/>
-      <c r="EV4" s="68"/>
-      <c r="EW4" s="68"/>
-      <c r="EX4" s="68"/>
-      <c r="EY4" s="68"/>
-      <c r="EZ4" s="68"/>
-      <c r="FA4" s="68"/>
-      <c r="FB4" s="68"/>
-      <c r="FC4" s="68"/>
-      <c r="FD4" s="68"/>
-      <c r="FE4" s="68"/>
-      <c r="FF4" s="68"/>
-      <c r="FG4" s="68"/>
-      <c r="FH4" s="68"/>
-      <c r="FI4" s="68"/>
-      <c r="FJ4" s="68"/>
-      <c r="FK4" s="68"/>
-      <c r="FL4" s="68"/>
-      <c r="FM4" s="68"/>
-      <c r="FN4" s="68"/>
-      <c r="FO4" s="68"/>
-      <c r="FP4" s="68"/>
-      <c r="FQ4" s="68"/>
-      <c r="FR4" s="68"/>
-      <c r="FS4" s="68"/>
-      <c r="FT4" s="68"/>
-      <c r="FU4" s="68"/>
-    </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV5" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB5" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
-      <c r="BJ5" s="61"/>
-      <c r="BK5" s="61"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="61"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="61"/>
-      <c r="BP5" s="61"/>
-      <c r="BQ5" s="61"/>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="61"/>
-      <c r="BT5" s="61"/>
-      <c r="BU5" s="61"/>
-      <c r="BV5" s="61"/>
-      <c r="BW5" s="61"/>
-      <c r="BX5" s="61"/>
-      <c r="BY5" s="61"/>
-      <c r="BZ5" s="61"/>
-      <c r="CA5" s="61"/>
-      <c r="CB5" s="61"/>
-      <c r="CC5" s="61"/>
-      <c r="CD5" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE5" s="61"/>
-      <c r="CF5" s="61"/>
-      <c r="CG5" s="61"/>
-      <c r="CH5" s="61"/>
-      <c r="CI5" s="61"/>
-      <c r="CJ5" s="68"/>
-      <c r="CK5" s="61"/>
-      <c r="CL5" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="CM5" s="61"/>
-      <c r="CN5" s="61"/>
-      <c r="CO5" s="61"/>
-      <c r="CP5" s="61"/>
-      <c r="CQ5" s="61"/>
-      <c r="CR5" s="61"/>
-      <c r="CS5" s="61"/>
-      <c r="CT5" s="61"/>
-      <c r="CU5" s="61"/>
-      <c r="CV5" s="61"/>
-      <c r="CW5" s="61"/>
-      <c r="CX5" s="61"/>
-      <c r="CY5" s="61"/>
-      <c r="CZ5" s="61"/>
-      <c r="DA5" s="61"/>
-      <c r="DB5" s="61"/>
-      <c r="DC5" s="61"/>
-      <c r="DD5" s="61"/>
-      <c r="DE5" s="61"/>
-      <c r="DF5" s="61"/>
-      <c r="DG5" s="61"/>
-      <c r="DH5" s="61"/>
-      <c r="DI5" s="61"/>
-      <c r="DJ5" s="61"/>
-      <c r="DK5" s="61"/>
-      <c r="DL5" s="61"/>
-      <c r="DM5" s="61"/>
-      <c r="DN5" s="61"/>
-      <c r="DO5" s="61"/>
-      <c r="DP5" s="61"/>
-      <c r="DQ5" s="61"/>
-      <c r="DR5" s="61"/>
-      <c r="DS5" s="61"/>
-      <c r="DT5" s="61"/>
-      <c r="DU5" s="61"/>
-      <c r="DV5" s="61"/>
-      <c r="DW5" s="61"/>
-      <c r="DX5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DZ5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EA5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EB5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EC5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED5" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="EE5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EF5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EG5" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH5" s="61"/>
-      <c r="EI5" s="61"/>
-      <c r="EJ5" s="61"/>
-      <c r="EK5" s="61"/>
-      <c r="EL5" s="61"/>
-      <c r="EM5" s="61"/>
-      <c r="EN5" s="61"/>
-      <c r="EO5" s="61"/>
-      <c r="EP5" s="61"/>
-      <c r="EQ5" s="61"/>
-      <c r="ER5" s="61"/>
-      <c r="ES5" s="61"/>
-      <c r="ET5" s="61"/>
-      <c r="EU5" s="61"/>
-      <c r="EV5" s="61"/>
-      <c r="EW5" s="61"/>
-      <c r="EX5" s="61"/>
-      <c r="EY5" s="61"/>
-      <c r="EZ5" s="61"/>
-      <c r="FA5" s="61"/>
-      <c r="FB5" s="61"/>
-      <c r="FC5" s="61"/>
-      <c r="FD5" s="61"/>
-      <c r="FE5" s="61"/>
-      <c r="FF5" s="61"/>
-      <c r="FG5" s="61"/>
-      <c r="FH5" s="61"/>
-      <c r="FI5" s="61"/>
-      <c r="FJ5" s="61"/>
-      <c r="FK5" s="61"/>
-      <c r="FL5" s="61"/>
-      <c r="FM5" s="61"/>
-      <c r="FN5" s="61"/>
-      <c r="FO5" s="61"/>
-      <c r="FP5" s="61"/>
-      <c r="FQ5" s="61"/>
-      <c r="FR5" s="61"/>
-      <c r="FS5" s="61"/>
-      <c r="FT5" s="61"/>
-      <c r="FU5" s="61"/>
-    </row>
-    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV6" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB6" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
-      <c r="BP6" s="68"/>
-      <c r="BQ6" s="68"/>
-      <c r="BR6" s="68"/>
-      <c r="BS6" s="68"/>
-      <c r="BT6" s="68"/>
-      <c r="BU6" s="68"/>
-      <c r="BV6" s="68"/>
-      <c r="BW6" s="68"/>
-      <c r="BX6" s="68"/>
-      <c r="BY6" s="68"/>
-      <c r="BZ6" s="68"/>
-      <c r="CA6" s="68"/>
-      <c r="CB6" s="68"/>
-      <c r="CC6" s="68"/>
-      <c r="CD6" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE6" s="68"/>
-      <c r="CF6" s="68"/>
-      <c r="CG6" s="68"/>
-      <c r="CH6" s="68"/>
-      <c r="CI6" s="68"/>
-      <c r="CJ6" s="68"/>
-      <c r="CK6" s="68"/>
-      <c r="CL6" s="68"/>
-      <c r="CM6" s="68"/>
-      <c r="CN6" s="68"/>
-      <c r="CO6" s="68"/>
-      <c r="CP6" s="68"/>
-      <c r="CQ6" s="68"/>
-      <c r="CR6" s="68"/>
-      <c r="CS6" s="68"/>
-      <c r="CT6" s="68"/>
-      <c r="CU6" s="68"/>
-      <c r="CV6" s="68"/>
-      <c r="CW6" s="68"/>
-      <c r="CX6" s="68"/>
-      <c r="CY6" s="68"/>
-      <c r="CZ6" s="68"/>
-      <c r="DA6" s="68"/>
-      <c r="DB6" s="68"/>
-      <c r="DC6" s="68"/>
-      <c r="DD6" s="68"/>
-      <c r="DE6" s="68"/>
-      <c r="DF6" s="68"/>
-      <c r="DG6" s="68"/>
-      <c r="DH6" s="68"/>
-      <c r="DI6" s="68"/>
-      <c r="DJ6" s="68"/>
-      <c r="DK6" s="68"/>
-      <c r="DL6" s="68"/>
-      <c r="DM6" s="68"/>
-      <c r="DN6" s="68"/>
-      <c r="DO6" s="68"/>
-      <c r="DP6" s="68"/>
-      <c r="DQ6" s="68"/>
-      <c r="DR6" s="68"/>
-      <c r="DS6" s="68"/>
-      <c r="DT6" s="68"/>
-      <c r="DU6" s="68"/>
-      <c r="DV6" s="68"/>
-      <c r="DW6" s="68"/>
-      <c r="DX6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="DZ6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EA6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EB6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EC6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED6" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="EE6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EF6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EG6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH6" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EI6" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ6" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EK6" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EL6" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EM6" s="68"/>
-      <c r="EN6" s="68"/>
-      <c r="EO6" s="68"/>
-      <c r="EP6" s="68"/>
-      <c r="EQ6" s="68"/>
-      <c r="ER6" s="68"/>
-      <c r="ES6" s="68"/>
-      <c r="ET6" s="68"/>
-      <c r="EU6" s="68"/>
-      <c r="EV6" s="68"/>
-      <c r="EW6" s="68"/>
-      <c r="EX6" s="68"/>
-      <c r="EY6" s="68"/>
-      <c r="EZ6" s="68"/>
-      <c r="FA6" s="68"/>
-      <c r="FB6" s="68"/>
-      <c r="FC6" s="68"/>
-      <c r="FD6" s="68"/>
-      <c r="FE6" s="68"/>
-      <c r="FF6" s="68"/>
-      <c r="FG6" s="68"/>
-      <c r="FH6" s="68"/>
-      <c r="FI6" s="68"/>
-      <c r="FJ6" s="68"/>
-      <c r="FK6" s="68"/>
-      <c r="FL6" s="68"/>
-      <c r="FM6" s="68"/>
-      <c r="FN6" s="68"/>
-      <c r="FO6" s="68"/>
-      <c r="FP6" s="68"/>
-      <c r="FQ6" s="68"/>
-      <c r="FR6" s="68"/>
-      <c r="FS6" s="68"/>
-      <c r="FT6" s="68"/>
-      <c r="FU6" s="68"/>
-    </row>
-    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW7" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="68"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="68"/>
-      <c r="BU7" s="68"/>
-      <c r="BV7" s="68"/>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="68"/>
-      <c r="BY7" s="68"/>
-      <c r="BZ7" s="68"/>
-      <c r="CA7" s="68"/>
-      <c r="CB7" s="68"/>
-      <c r="CC7" s="68"/>
-      <c r="CD7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="CE7" s="68"/>
-      <c r="CF7" s="68"/>
-      <c r="CG7" s="68"/>
-      <c r="CH7" s="68"/>
-      <c r="CI7" s="68"/>
-      <c r="CJ7" s="68"/>
-      <c r="CK7" s="68"/>
-      <c r="CL7" s="68"/>
-      <c r="CM7" s="68"/>
-      <c r="CN7" s="68"/>
-      <c r="CO7" s="68"/>
-      <c r="CP7" s="68"/>
-      <c r="CQ7" s="68"/>
-      <c r="CR7" s="68"/>
-      <c r="CS7" s="68"/>
-      <c r="CT7" s="68"/>
-      <c r="CU7" s="68"/>
-      <c r="CV7" s="68"/>
-      <c r="CW7" s="68"/>
-      <c r="CX7" s="68"/>
-      <c r="CY7" s="68"/>
-      <c r="CZ7" s="68"/>
-      <c r="DA7" s="68"/>
-      <c r="DB7" s="68"/>
-      <c r="DC7" s="68"/>
-      <c r="DD7" s="68"/>
-      <c r="DE7" s="68"/>
-      <c r="DF7" s="68"/>
-      <c r="DG7" s="68"/>
-      <c r="DH7" s="68"/>
-      <c r="DI7" s="68"/>
-      <c r="DJ7" s="68"/>
-      <c r="DK7" s="68"/>
-      <c r="DL7" s="68"/>
-      <c r="DM7" s="68"/>
-      <c r="DN7" s="68"/>
-      <c r="DO7" s="68"/>
-      <c r="DP7" s="68"/>
-      <c r="DQ7" s="68"/>
-      <c r="DR7" s="68"/>
-      <c r="DS7" s="68"/>
-      <c r="DT7" s="68"/>
-      <c r="DU7" s="68"/>
-      <c r="DV7" s="68"/>
-      <c r="DW7" s="68"/>
-      <c r="DX7" s="68"/>
-      <c r="DY7" s="68"/>
-      <c r="DZ7" s="68"/>
-      <c r="EA7" s="68"/>
-      <c r="EB7" s="68"/>
-      <c r="EC7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="EE7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EF7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EG7" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EI7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EK7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EL7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EM7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EO7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EP7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="EQ7" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="ER7" s="68"/>
-      <c r="ES7" s="68"/>
-      <c r="ET7" s="68"/>
-      <c r="EU7" s="68"/>
-      <c r="EV7" s="68"/>
-      <c r="EW7" s="68"/>
-      <c r="EX7" s="68"/>
-      <c r="EY7" s="68"/>
-      <c r="EZ7" s="68"/>
-      <c r="FA7" s="68"/>
-      <c r="FB7" s="68"/>
-      <c r="FC7" s="68"/>
-      <c r="FD7" s="68"/>
-      <c r="FE7" s="68"/>
-      <c r="FF7" s="68"/>
-      <c r="FG7" s="68"/>
-      <c r="FH7" s="68"/>
-      <c r="FI7" s="68"/>
-      <c r="FJ7" s="68"/>
-      <c r="FK7" s="68"/>
-      <c r="FL7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FM7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FN7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FO7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FP7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FQ7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FR7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FS7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FT7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="FU7" s="122" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B8" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="61">
-        <f t="shared" ref="C8" si="77">COUNTBLANK(C3:C7)</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="61">
-        <f>COUNTBLANK(D3:D7)</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="61">
-        <f t="shared" ref="E8:AS8" si="78">COUNTBLANK(E3:E7)</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="I8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="L8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="M8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="P8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="61">
-        <f>COUNTBLANK(Q3:Q7)</f>
-        <v>5</v>
-      </c>
-      <c r="R8" s="61">
-        <f>COUNTBLANK(R3:R7)</f>
-        <v>4</v>
-      </c>
-      <c r="S8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="T8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="U8" s="61">
-        <f>COUNTBLANK(U3:U7)</f>
-        <v>4</v>
-      </c>
-      <c r="V8" s="61">
-        <f>COUNTBLANK(V3:V7)</f>
-        <v>4</v>
-      </c>
-      <c r="W8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="X8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="Y8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="Z8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AA8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AB8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AC8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="AD8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="AE8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="AF8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AG8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AH8" s="61">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="AI8" s="61">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AK8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AL8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AM8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AN8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AO8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AP8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AQ8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AR8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AS8" s="61">
-        <f t="shared" si="78"/>
-        <v>5</v>
-      </c>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61">
-        <f>COUNTBLANK(AW3:AW7)</f>
-        <v>4</v>
-      </c>
-      <c r="AX8" s="61">
-        <f>COUNTBLANK(AX3:AX7)</f>
-        <v>4</v>
-      </c>
-      <c r="AY8" s="61">
-        <f>COUNTBLANK(AY3:AY7)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ8" s="61">
-        <f>COUNTBLANK(AZ3:AZ7)</f>
-        <v>4</v>
-      </c>
-      <c r="BA8" s="61">
-        <f>COUNTBLANK(BA3:BA7)</f>
-        <v>1</v>
-      </c>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61">
-        <f t="shared" ref="BC8:CG8" si="79">COUNTBLANK(BC3:BC7)</f>
-        <v>5</v>
-      </c>
-      <c r="BD8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BE8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BH8" s="61">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="BI8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BJ8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BK8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BL8" s="61">
-        <f t="shared" si="79"/>
-        <v>4</v>
-      </c>
-      <c r="BM8" s="61">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="BN8" s="61">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="BO8" s="61">
-        <f t="shared" si="79"/>
-        <v>4</v>
-      </c>
-      <c r="BP8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BQ8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BR8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BS8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BT8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BU8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BV8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BW8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BX8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BY8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="BZ8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CA8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CB8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CC8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CD8" s="61"/>
-      <c r="CE8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CF8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CG8" s="61">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="CH8" s="61">
-        <f t="shared" ref="CH8:DM8" si="80">COUNTBLANK(CH3:CH7)</f>
-        <v>5</v>
-      </c>
-      <c r="CI8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CJ8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CK8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CL8" s="61">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="CM8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CN8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CO8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CP8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CQ8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CR8" s="61">
-        <f t="shared" si="80"/>
-        <v>3</v>
-      </c>
-      <c r="CS8" s="61">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="CT8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CU8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CV8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CW8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CX8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CY8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="CZ8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DA8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DB8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DC8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DD8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DE8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DF8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DG8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DH8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DI8" s="61">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="DJ8" s="61">
-        <f t="shared" si="80"/>
-        <v>3</v>
-      </c>
-      <c r="DK8" s="61">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="DL8" s="61">
-        <f t="shared" si="80"/>
-        <v>4</v>
-      </c>
-      <c r="DM8" s="61">
-        <f t="shared" si="80"/>
-        <v>5</v>
-      </c>
-      <c r="DN8" s="61">
-        <f t="shared" ref="DN8:DW8" si="81">COUNTBLANK(DN3:DN7)</f>
-        <v>5</v>
-      </c>
-      <c r="DO8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DP8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DQ8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DR8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DS8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DT8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DU8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DV8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DW8" s="61">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="DX8" s="61"/>
-      <c r="DY8" s="61"/>
-      <c r="DZ8" s="61"/>
-      <c r="EA8" s="61"/>
-      <c r="EB8" s="61"/>
-      <c r="EC8" s="61"/>
-      <c r="ED8" s="61"/>
-      <c r="EE8" s="61"/>
-      <c r="EF8" s="61"/>
-      <c r="EG8" s="61"/>
-      <c r="EH8" s="61">
-        <f t="shared" ref="EH8:FT8" si="82">COUNTBLANK(EH3:EH7)</f>
-        <v>2</v>
-      </c>
-      <c r="EI8" s="61">
-        <f t="shared" si="82"/>
-        <v>2</v>
-      </c>
-      <c r="EJ8" s="61">
-        <f t="shared" si="82"/>
-        <v>3</v>
-      </c>
-      <c r="EK8" s="61">
-        <f t="shared" si="82"/>
-        <v>3</v>
-      </c>
-      <c r="EL8" s="61">
-        <f t="shared" si="82"/>
-        <v>3</v>
-      </c>
-      <c r="EM8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="EN8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="EO8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="EP8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="EQ8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="ER8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="ES8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="ET8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EU8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EV8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EW8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EX8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EY8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="EZ8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FA8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FB8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FC8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FD8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FE8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FF8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FG8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FH8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FI8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FJ8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FK8" s="61">
-        <f t="shared" si="82"/>
-        <v>5</v>
-      </c>
-      <c r="FL8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FM8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FN8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FO8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FP8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FQ8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FR8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FS8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FT8" s="61">
-        <f t="shared" si="82"/>
-        <v>4</v>
-      </c>
-      <c r="FU8" s="61">
-        <f t="shared" ref="FU8" si="83">COUNTBLANK(FU3:FU7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B13" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B14" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="B15" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="BC8:BE8 EE8:EG8 CE8:EC8 BG8:CC8 C8:BA8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EH8:FU8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ED8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -1491,9 +1491,6 @@
     <t>UAT SME Retail</t>
   </si>
   <si>
-    <t>Iniziata ind. High Priority</t>
-  </si>
-  <si>
     <t>condivisione AFU da pianificare</t>
   </si>
   <si>
@@ -1640,6 +1637,9 @@
   </si>
   <si>
     <t>Creata</t>
+  </si>
+  <si>
+    <t>planned</t>
   </si>
 </sst>
 </file>
@@ -2423,57 +2423,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="167">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4462,7 +4412,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8501,13 +8453,13 @@
         <v>34</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="143" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8516,11 +8468,11 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F143" s="13">
         <v>1</v>
@@ -8540,7 +8492,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="13">
@@ -8560,7 +8512,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="13">
@@ -8580,7 +8532,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="13">
@@ -8593,7 +8545,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8602,7 +8554,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="13">
@@ -8617,7 +8569,7 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8626,7 +8578,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="13">
@@ -8641,7 +8593,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8650,7 +8602,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="13">
@@ -8665,7 +8617,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
@@ -8674,7 +8626,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="13">
@@ -8687,7 +8639,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
@@ -8696,7 +8648,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="13">
@@ -8709,7 +8661,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
@@ -8718,7 +8670,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="13">
@@ -8731,7 +8683,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
@@ -8740,11 +8692,11 @@
         <v>152</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F153" s="13">
         <v>1</v>
@@ -8753,7 +8705,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="154" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8762,7 +8714,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="13">
@@ -8777,7 +8729,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8786,7 +8738,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="13">
@@ -8801,7 +8753,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8810,7 +8762,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="13">
@@ -8832,18 +8784,18 @@
         <v>156</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
@@ -8852,18 +8804,18 @@
         <v>157</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8872,7 +8824,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>59</v>
@@ -8889,7 +8841,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
@@ -8898,7 +8850,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="13">
@@ -8918,7 +8870,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="13">
@@ -8931,7 +8883,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
@@ -8940,18 +8892,18 @@
         <v>161</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="109.2" x14ac:dyDescent="0.3">
@@ -8960,18 +8912,18 @@
         <v>162</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="124" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
@@ -8980,18 +8932,18 @@
         <v>163</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -9000,7 +8952,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="13">
@@ -9015,7 +8967,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
@@ -9024,18 +8976,18 @@
         <v>165</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="124" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9371,802 +9323,802 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
-    <cfRule type="cellIs" dxfId="171" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="212" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="170" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="211" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="169" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="210" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="168" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="209" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="167" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="208" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="166" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="207" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="165" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="206" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="164" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="205" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="163" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="204" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="162" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="203" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="161" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="202" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="160" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="201" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="159" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="200" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="158" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="199" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="157" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="198" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="156" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="197" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="155" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="196" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="154" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="195" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="153" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="194" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="152" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="193" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="151" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="192" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="150" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="191" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="149" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="190" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="148" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="189" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="147" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="188" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="146" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="187" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="145" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="186" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="144" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="185" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="143" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="184" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="142" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="141" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="140" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="178" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="139" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="138" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="176" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="137" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="136" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="135" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="134" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="133" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="132" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="131" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="130" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="129" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="128" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="127" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="126" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="125" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="162" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="124" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="123" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="122" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="157" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="121" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="120" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="119" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="118" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="117" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="116" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="115" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="114" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="113" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="112" priority="132" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="111" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="110" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="109" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="108" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="107" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="106" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E100">
-    <cfRule type="cellIs" dxfId="105" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="104" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="103" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="102" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="101" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="100" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="99" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="98" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="97" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="96" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="95" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="94" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="93" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="92" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="91" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="90" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="89" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="88" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="87" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:G105">
-    <cfRule type="cellIs" dxfId="86" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="85" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="84" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="83" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="82" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:G106">
-    <cfRule type="cellIs" dxfId="81" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="80" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="79" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:G107">
-    <cfRule type="cellIs" dxfId="78" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="77" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="76" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="75" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="74" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="73" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="72" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="70" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="65" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G120 F121">
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:G120 F121">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="cellIs" dxfId="52" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122:G122 F125:G125">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122 E125">
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G112">
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="46" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127:E129">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:G126">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E140 E142 E144:E152">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G91">
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153 E157:E159 E162:E165">
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E156">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139:G140">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141:G141">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:G149">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150:F152">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154:G154">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155:G155">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156:G156">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12015,10 +11967,10 @@
   <dimension ref="A1:FU15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DU15" sqref="DU15"/>
+      <selection pane="bottomRight" activeCell="DW6" sqref="DW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12513,11 +12465,11 @@
       </c>
       <c r="DQ1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DR1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DS1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Roadmap BigBang" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$187</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="533">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1542,9 +1542,6 @@
     <t>SME Retail in syt</t>
   </si>
   <si>
-    <t>(dal 24 al 28/07)</t>
-  </si>
-  <si>
     <t>predisporre i pacchetti</t>
   </si>
   <si>
@@ -1594,9 +1591,6 @@
   </si>
   <si>
     <t>Dati di Mercato - nuovo schema</t>
-  </si>
-  <si>
-    <t>Configurazione e test</t>
   </si>
   <si>
     <t>(Alberto)</t>
@@ -1640,6 +1634,12 @@
   </si>
   <si>
     <t>planned</t>
+  </si>
+  <si>
+    <t>CR Corporate + SME - modificare RATING</t>
+  </si>
+  <si>
+    <t>per dicembre 2017</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2423,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="167">
+  <dxfs count="170">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4410,10 +4440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE186"/>
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="D157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7336,7 +7366,7 @@
     </row>
     <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B166" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B167" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -8054,9 +8084,11 @@
         <v>446</v>
       </c>
       <c r="E126" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F126" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F126" s="13">
+        <v>1</v>
+      </c>
       <c r="G126" s="13"/>
       <c r="H126" s="5">
         <v>3</v>
@@ -8080,7 +8112,9 @@
       <c r="E127" s="13">
         <v>1</v>
       </c>
-      <c r="F127" s="13"/>
+      <c r="F127" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
         <v>3</v>
@@ -8102,9 +8136,11 @@
         <v>35</v>
       </c>
       <c r="E128" s="13">
+        <v>1</v>
+      </c>
+      <c r="F128" s="13">
         <v>0.5</v>
       </c>
-      <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="5">
         <v>3</v>
@@ -8128,7 +8164,9 @@
       <c r="E129" s="13">
         <v>1</v>
       </c>
-      <c r="F129" s="13"/>
+      <c r="F129" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
         <v>3</v>
@@ -8152,7 +8190,9 @@
       <c r="E130" s="13">
         <v>1</v>
       </c>
-      <c r="F130" s="13"/>
+      <c r="F130" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G130" s="13"/>
       <c r="H130" s="5">
         <v>3</v>
@@ -8453,7 +8493,7 @@
         <v>34</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="5"/>
@@ -8472,7 +8512,7 @@
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F143" s="13">
         <v>1</v>
@@ -8695,8 +8735,8 @@
         <v>501</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="13" t="s">
-        <v>502</v>
+      <c r="E153" s="13">
+        <v>1</v>
       </c>
       <c r="F153" s="13">
         <v>1</v>
@@ -8705,7 +8745,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8714,7 +8754,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="13">
@@ -8729,7 +8769,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8738,7 +8778,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="13">
@@ -8753,7 +8793,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8762,7 +8802,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="13">
@@ -8784,18 +8824,18 @@
         <v>156</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
@@ -8804,18 +8844,18 @@
         <v>157</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8824,7 +8864,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>59</v>
@@ -8841,7 +8881,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
@@ -8850,7 +8890,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="13">
@@ -8870,7 +8910,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="13">
@@ -8883,7 +8923,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
@@ -8892,18 +8932,20 @@
         <v>161</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D162" s="17"/>
-      <c r="E162" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="F162" s="13"/>
+      <c r="E162" s="13">
+        <v>1</v>
+      </c>
+      <c r="F162" s="13">
+        <v>1</v>
+      </c>
       <c r="G162" s="13"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="109.2" x14ac:dyDescent="0.3">
@@ -8912,18 +8954,18 @@
         <v>162</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
@@ -8932,18 +8974,18 @@
         <v>163</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -8952,7 +8994,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="13">
@@ -8967,7 +9009,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
@@ -8976,89 +9018,92 @@
         <v>165</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="124" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C167" s="31"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167" s="7">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="124" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="168" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="91" t="s">
+      <c r="C168" s="31"/>
+    </row>
+    <row r="169" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C168" s="92" t="s">
+      <c r="C169" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="D168" s="91" t="s">
+      <c r="D169" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="E168" s="90" t="s">
+      <c r="E169" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="F168" s="90" t="s">
+      <c r="F169" s="90" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="94" t="s">
+    <row r="170" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C169" s="95" t="s">
+      <c r="C170" s="95" t="s">
         <v>413</v>
       </c>
-      <c r="D169" s="96">
+      <c r="D170" s="96">
         <v>42815</v>
       </c>
-      <c r="E169" s="93" t="s">
+      <c r="E170" s="93" t="s">
         <v>412</v>
       </c>
-      <c r="F169" s="93">
+      <c r="F170" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="98" t="s">
+    <row r="171" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="C170" s="99" t="s">
+      <c r="C171" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="D170" s="100">
+      <c r="D171" s="100">
         <v>42814</v>
       </c>
-      <c r="E170" s="97" t="s">
+      <c r="E171" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="F170" s="97">
+      <c r="F171" s="97">
         <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="102" t="s">
-        <v>418</v>
-      </c>
-      <c r="C171" s="103" t="s">
-        <v>419</v>
-      </c>
-      <c r="D171" s="104">
-        <v>42814</v>
-      </c>
-      <c r="E171" s="101" t="s">
-        <v>417</v>
-      </c>
-      <c r="F171" s="101">
-        <v>1</v>
       </c>
     </row>
     <row r="172" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9066,13 +9111,13 @@
         <v>418</v>
       </c>
       <c r="C172" s="103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D172" s="104">
-        <v>42816</v>
+        <v>42814</v>
       </c>
       <c r="E172" s="101" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F172" s="101">
         <v>1</v>
@@ -9083,10 +9128,10 @@
         <v>418</v>
       </c>
       <c r="C173" s="103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D173" s="104">
-        <v>42818</v>
+        <v>42816</v>
       </c>
       <c r="E173" s="101" t="s">
         <v>420</v>
@@ -9100,13 +9145,13 @@
         <v>418</v>
       </c>
       <c r="C174" s="103" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D174" s="104">
         <v>42818</v>
       </c>
       <c r="E174" s="101" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F174" s="101">
         <v>1</v>
@@ -9117,16 +9162,16 @@
         <v>418</v>
       </c>
       <c r="C175" s="103" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D175" s="104">
         <v>42818</v>
       </c>
       <c r="E175" s="101" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F175" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9134,13 +9179,13 @@
         <v>418</v>
       </c>
       <c r="C176" s="103" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D176" s="104">
         <v>42818</v>
       </c>
       <c r="E176" s="101" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F176" s="101">
         <v>0</v>
@@ -9151,16 +9196,16 @@
         <v>418</v>
       </c>
       <c r="C177" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D177" s="102" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="D177" s="104">
+        <v>42818</v>
       </c>
       <c r="E177" s="101" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F177" s="101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9168,13 +9213,13 @@
         <v>418</v>
       </c>
       <c r="C178" s="103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D178" s="102" t="s">
         <v>427</v>
       </c>
       <c r="E178" s="101" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F178" s="101">
         <v>1</v>
@@ -9185,16 +9230,16 @@
         <v>418</v>
       </c>
       <c r="C179" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D179" s="102" t="s">
         <v>427</v>
       </c>
       <c r="E179" s="101" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F179" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9202,83 +9247,83 @@
         <v>418</v>
       </c>
       <c r="C180" s="103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D180" s="102" t="s">
         <v>427</v>
       </c>
       <c r="E180" s="101" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F180" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="106" t="s">
-        <v>432</v>
-      </c>
-      <c r="C181" s="107" t="s">
-        <v>433</v>
-      </c>
-      <c r="D181" s="108">
-        <v>42815</v>
-      </c>
-      <c r="E181" s="105" t="s">
-        <v>429</v>
-      </c>
-      <c r="F181" s="105">
-        <v>1</v>
+      <c r="B181" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C181" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="D181" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E181" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="F181" s="101">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B182" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C182" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D182" s="108">
+        <v>42815</v>
+      </c>
+      <c r="E182" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="F182" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C182" s="107" t="s">
+      <c r="C183" s="107" t="s">
         <v>434</v>
       </c>
-      <c r="D182" s="108">
+      <c r="D183" s="108">
         <v>42817</v>
       </c>
-      <c r="E182" s="105" t="s">
+      <c r="E183" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="F182" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="110" t="s">
+      <c r="F183" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C183" s="111" t="s">
+      <c r="C184" s="111" t="s">
         <v>435</v>
       </c>
-      <c r="D183" s="112">
+      <c r="D184" s="112">
         <v>42824</v>
       </c>
-      <c r="E183" s="109" t="s">
+      <c r="E184" s="109" t="s">
         <v>412</v>
       </c>
-      <c r="F183" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="C184" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="D184" s="116">
-        <v>42822</v>
-      </c>
-      <c r="E184" s="113" t="s">
-        <v>429</v>
-      </c>
-      <c r="F184" s="113">
+      <c r="F184" s="109">
         <v>1</v>
       </c>
     </row>
@@ -9287,13 +9332,13 @@
         <v>436</v>
       </c>
       <c r="C185" s="115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D185" s="116">
-        <v>42825</v>
+        <v>42822</v>
       </c>
       <c r="E185" s="113" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F185" s="113">
         <v>1</v>
@@ -9304,7 +9349,7 @@
         <v>436</v>
       </c>
       <c r="C186" s="115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D186" s="116">
         <v>42825</v>
@@ -9316,843 +9361,875 @@
         <v>1</v>
       </c>
     </row>
+    <row r="187" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="114" t="s">
+        <v>436</v>
+      </c>
+      <c r="C187" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="D187" s="116">
+        <v>42825</v>
+      </c>
+      <c r="E187" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="F187" s="113">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:J186">
+  <autoFilter ref="B1:J187">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
+    <cfRule type="cellIs" dxfId="169" priority="215" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="168" priority="214" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="167" priority="213" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="166" priority="212" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="165" priority="211" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="164" priority="210" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="163" priority="209" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="162" priority="208" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="161" priority="207" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="160" priority="206" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="159" priority="205" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="158" priority="204" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="157" priority="203" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="156" priority="202" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="155" priority="201" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="154" priority="200" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="153" priority="199" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="152" priority="198" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="151" priority="197" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="150" priority="196" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="149" priority="195" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="148" priority="194" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="147" priority="193" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="146" priority="192" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="145" priority="191" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="144" priority="190" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="143" priority="189" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="142" priority="188" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="141" priority="187" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="140" priority="186" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="139" priority="185" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="138" priority="184" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="140" priority="183" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="139" priority="182" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="138" priority="181" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="137" priority="180" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="136" priority="179" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="135" priority="178" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="134" priority="177" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="133" priority="176" operator="lessThan">
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="135" priority="177" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="134" priority="176" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="132" priority="174" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="130" priority="172" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="129" priority="171" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="128" priority="170" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="127" priority="169" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="126" priority="168" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="125" priority="167" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="124" priority="166" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="123" priority="165" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="122" priority="164" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="121" priority="163" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="120" priority="162" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="119" priority="161" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="118" priority="160" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="117" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="160" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="119" priority="157" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
+    <cfRule type="cellIs" dxfId="118" priority="156" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
+    <cfRule type="cellIs" dxfId="117" priority="155" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="116" priority="154" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="115" priority="153" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="114" priority="152" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="113" priority="151" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="112" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="111" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="110" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="109" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="111" priority="136" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="110" priority="135" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="109" priority="134" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="108" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="107" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="106" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="105" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="104" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="103" priority="128" operator="lessThan">
+  <conditionalFormatting sqref="E99:E100">
+    <cfRule type="cellIs" dxfId="103" priority="123" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="102" priority="127" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="102" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="101" priority="126" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="101" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E100">
+  <conditionalFormatting sqref="E102">
     <cfRule type="cellIs" dxfId="100" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="99" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="98" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="97" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="96" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="95" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="94" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="93" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="92" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="91" priority="111" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="90" priority="113" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="89" priority="112" operator="lessThan">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="91" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="90" priority="112" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="89" priority="111" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="88" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="87" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="86" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="85" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="84" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="83" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="82" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="81" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="80" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="79" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="78" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="77" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="76" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="75" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="74" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="73" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="72" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="71" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="70" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="69" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="68" priority="90" operator="lessThan">
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="lessThan">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="67" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="66" priority="88" operator="lessThan">
+  <conditionalFormatting sqref="F114:G117">
+    <cfRule type="cellIs" dxfId="66" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="65" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E114:E117">
     <cfRule type="cellIs" dxfId="64" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="63" priority="78" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="61" priority="76" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="60" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="62" priority="75" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="61" priority="74" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
     <cfRule type="cellIs" dxfId="59" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="E118">
     <cfRule type="cellIs" dxfId="58" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="55" priority="68" operator="lessThan">
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="F120:G120 F121">
     <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="F120:G120 F121">
     <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G120 F121">
+  <conditionalFormatting sqref="F122:G122 F125:G125">
     <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:G120 F121">
+  <conditionalFormatting sqref="F122:G122 F125:G125">
     <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
+  <conditionalFormatting sqref="E122 E125">
     <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G122 F125:G125">
+  <conditionalFormatting sqref="F111:G112">
     <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G122 F125:G125">
+  <conditionalFormatting sqref="F110">
     <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122 E125">
+  <conditionalFormatting sqref="G110">
     <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G112">
+  <conditionalFormatting sqref="F96:G96 F93:G94">
     <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96 F93:G94">
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
+  <conditionalFormatting sqref="F127:G129">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:G129">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E129">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F126:G126">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127:G129">
+  <conditionalFormatting sqref="F126:G126">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E129">
+  <conditionalFormatting sqref="E126">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126:G126">
+  <conditionalFormatting sqref="F123:G124">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126:G126">
+  <conditionalFormatting sqref="F123:G124">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
+  <conditionalFormatting sqref="E123:E124">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G124">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+  <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E140 E142 E144:E152">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:G91">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G137:G138 G150:G152 G144:G146 F130:G136 G142">
+  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E140 E142 E144:E152">
+  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G91">
+  <conditionalFormatting sqref="E153 E157:E159 E162:E165">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G153 F157:G159 F162:G164 G160:G161 G165">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153 E157:E159 E162:E165">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E156">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F137:F138">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F139:G140">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="E141:G141">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137:F138">
+  <conditionalFormatting sqref="F144:F146">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F139:G140">
+  <conditionalFormatting sqref="F147:G149">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141:G141">
+  <conditionalFormatting sqref="F150:F152">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144:F146">
+  <conditionalFormatting sqref="F154:G154">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:G149">
+  <conditionalFormatting sqref="F153">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F150:F152">
+  <conditionalFormatting sqref="F155:G155">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154:G154">
+  <conditionalFormatting sqref="F156:G156">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="F160">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:G155">
+  <conditionalFormatting sqref="E161">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156:G156">
+  <conditionalFormatting sqref="F161">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="F166:G166">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166:G166">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F166:G166">
+  <conditionalFormatting sqref="G121">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="F142">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
+  <conditionalFormatting sqref="E143:G143">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
+  <conditionalFormatting sqref="F167:G167">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
+  <conditionalFormatting sqref="F167:G167">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143:G143">
+  <conditionalFormatting sqref="E167">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -11964,13 +12041,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FU15"/>
+  <dimension ref="A1:HI15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DW6" sqref="DW6"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11983,11 +12060,12 @@
     <col min="58" max="80" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="81" max="123" width="5.296875" style="16" bestFit="1" customWidth="1"/>
     <col min="124" max="146" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="147" max="177" width="5.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="178" max="16384" width="8.796875" style="16"/>
+    <col min="147" max="176" width="5.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="177" max="217" width="5.296875" style="16" customWidth="1"/>
+    <col min="218" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>475</v>
       </c>
@@ -12469,7 +12547,7 @@
       </c>
       <c r="DR1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="DS1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12489,7 +12567,7 @@
       </c>
       <c r="DW1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="DX1" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12584,7 +12662,7 @@
         <v/>
       </c>
       <c r="EU1" s="64" t="str">
-        <f t="shared" ref="EU1:FU1" ca="1" si="4">IF(TODAY()=EU2,"]","")</f>
+        <f t="shared" ref="EU1:HF1" ca="1" si="4">IF(TODAY()=EU2,"]","")</f>
         <v/>
       </c>
       <c r="EV1" s="64" t="str">
@@ -12691,8 +12769,168 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="2" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FW1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FX1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FY1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="FZ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GA1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GB1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GC1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GD1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GE1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GF1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GG1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GH1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GI1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GJ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GK1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GL1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GM1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GN1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GO1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GP1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GQ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GR1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GS1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GT1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GU1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GV1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GW1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GX1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GY1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="GZ1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HA1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HB1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HC1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HD1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HE1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HF1" s="64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="HG1" s="64" t="str">
+        <f t="shared" ref="HG1:HI1" ca="1" si="5">IF(TODAY()=HG2,"]","")</f>
+        <v/>
+      </c>
+      <c r="HH1" s="64" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="HI1" s="64" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B2" s="40" t="s">
         <v>240</v>
       </c>
@@ -12712,163 +12950,163 @@
         <v>42783</v>
       </c>
       <c r="H2" s="42">
-        <f t="shared" ref="H2:AU2" si="5">+C2+7</f>
+        <f t="shared" ref="H2:AU2" si="6">+C2+7</f>
         <v>42786</v>
       </c>
       <c r="I2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42787</v>
       </c>
       <c r="J2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42788</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42789</v>
       </c>
       <c r="L2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42790</v>
       </c>
       <c r="M2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42793</v>
       </c>
       <c r="N2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42794</v>
       </c>
       <c r="O2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42795</v>
       </c>
       <c r="P2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42796</v>
       </c>
       <c r="Q2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42797</v>
       </c>
       <c r="R2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42800</v>
       </c>
       <c r="S2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42801</v>
       </c>
       <c r="T2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42802</v>
       </c>
       <c r="U2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42803</v>
       </c>
       <c r="V2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42804</v>
       </c>
       <c r="W2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42807</v>
       </c>
       <c r="X2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42808</v>
       </c>
       <c r="Y2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42809</v>
       </c>
       <c r="Z2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42810</v>
       </c>
       <c r="AA2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42811</v>
       </c>
       <c r="AB2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42814</v>
       </c>
       <c r="AC2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42815</v>
       </c>
       <c r="AD2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42816</v>
       </c>
       <c r="AE2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42817</v>
       </c>
       <c r="AF2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42818</v>
       </c>
       <c r="AG2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42821</v>
       </c>
       <c r="AH2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42822</v>
       </c>
       <c r="AI2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42823</v>
       </c>
       <c r="AJ2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42824</v>
       </c>
       <c r="AK2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42825</v>
       </c>
       <c r="AL2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42828</v>
       </c>
       <c r="AM2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42829</v>
       </c>
       <c r="AN2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42830</v>
       </c>
       <c r="AO2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42831</v>
       </c>
       <c r="AP2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42832</v>
       </c>
       <c r="AQ2" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42835</v>
       </c>
       <c r="AR2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42836</v>
       </c>
       <c r="AS2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42837</v>
       </c>
       <c r="AT2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42838</v>
       </c>
       <c r="AU2" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42839</v>
       </c>
       <c r="AV2" s="42">
@@ -12880,115 +13118,115 @@
         <v>42843</v>
       </c>
       <c r="AX2" s="43">
-        <f t="shared" ref="AX2:BY2" si="6">+AS2+7</f>
+        <f t="shared" ref="AX2:BY2" si="7">+AS2+7</f>
         <v>42844</v>
       </c>
       <c r="AY2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42845</v>
       </c>
       <c r="AZ2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42846</v>
       </c>
       <c r="BA2" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42849</v>
       </c>
       <c r="BB2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42850</v>
       </c>
       <c r="BC2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42851</v>
       </c>
       <c r="BD2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42852</v>
       </c>
       <c r="BE2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42853</v>
       </c>
       <c r="BF2" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42856</v>
       </c>
       <c r="BG2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42857</v>
       </c>
       <c r="BH2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42858</v>
       </c>
       <c r="BI2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42859</v>
       </c>
       <c r="BJ2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42860</v>
       </c>
       <c r="BK2" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42863</v>
       </c>
       <c r="BL2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42864</v>
       </c>
       <c r="BM2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42865</v>
       </c>
       <c r="BN2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42866</v>
       </c>
       <c r="BO2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42867</v>
       </c>
       <c r="BP2" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42870</v>
       </c>
       <c r="BQ2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42871</v>
       </c>
       <c r="BR2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42872</v>
       </c>
       <c r="BS2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42873</v>
       </c>
       <c r="BT2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42874</v>
       </c>
       <c r="BU2" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42877</v>
       </c>
       <c r="BV2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42878</v>
       </c>
       <c r="BW2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42879</v>
       </c>
       <c r="BX2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42880</v>
       </c>
       <c r="BY2" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42881</v>
       </c>
       <c r="BZ2" s="42">
@@ -13000,399 +13238,559 @@
         <v>42885</v>
       </c>
       <c r="CB2" s="43">
-        <f t="shared" ref="CB2:DC2" si="7">+BW2+7</f>
+        <f t="shared" ref="CB2:DC2" si="8">+BW2+7</f>
         <v>42886</v>
       </c>
       <c r="CC2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42887</v>
       </c>
       <c r="CD2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42888</v>
       </c>
       <c r="CE2" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42891</v>
       </c>
       <c r="CF2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42892</v>
       </c>
       <c r="CG2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42893</v>
       </c>
       <c r="CH2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42894</v>
       </c>
       <c r="CI2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42895</v>
       </c>
       <c r="CJ2" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42898</v>
       </c>
       <c r="CK2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42899</v>
       </c>
       <c r="CL2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42900</v>
       </c>
       <c r="CM2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42901</v>
       </c>
       <c r="CN2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42902</v>
       </c>
       <c r="CO2" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42905</v>
       </c>
       <c r="CP2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42906</v>
       </c>
       <c r="CQ2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42907</v>
       </c>
       <c r="CR2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42908</v>
       </c>
       <c r="CS2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42909</v>
       </c>
       <c r="CT2" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42912</v>
       </c>
       <c r="CU2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42913</v>
       </c>
       <c r="CV2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42914</v>
       </c>
       <c r="CW2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42915</v>
       </c>
       <c r="CX2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42916</v>
       </c>
       <c r="CY2" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42919</v>
       </c>
       <c r="CZ2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42920</v>
       </c>
       <c r="DA2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42921</v>
       </c>
       <c r="DB2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42922</v>
       </c>
       <c r="DC2" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42923</v>
       </c>
       <c r="DD2" s="42">
-        <f t="shared" ref="DD2" si="8">+CY2+7</f>
+        <f t="shared" ref="DD2" si="9">+CY2+7</f>
         <v>42926</v>
       </c>
       <c r="DE2" s="43">
-        <f t="shared" ref="DE2" si="9">+CZ2+7</f>
+        <f t="shared" ref="DE2" si="10">+CZ2+7</f>
         <v>42927</v>
       </c>
       <c r="DF2" s="43">
-        <f t="shared" ref="DF2" si="10">+DA2+7</f>
+        <f t="shared" ref="DF2" si="11">+DA2+7</f>
         <v>42928</v>
       </c>
       <c r="DG2" s="43">
-        <f t="shared" ref="DG2" si="11">+DB2+7</f>
+        <f t="shared" ref="DG2" si="12">+DB2+7</f>
         <v>42929</v>
       </c>
       <c r="DH2" s="43">
-        <f t="shared" ref="DH2" si="12">+DC2+7</f>
+        <f t="shared" ref="DH2" si="13">+DC2+7</f>
         <v>42930</v>
       </c>
       <c r="DI2" s="42">
-        <f t="shared" ref="DI2" si="13">+DD2+7</f>
+        <f t="shared" ref="DI2" si="14">+DD2+7</f>
         <v>42933</v>
       </c>
       <c r="DJ2" s="43">
-        <f t="shared" ref="DJ2" si="14">+DE2+7</f>
+        <f t="shared" ref="DJ2" si="15">+DE2+7</f>
         <v>42934</v>
       </c>
       <c r="DK2" s="43">
-        <f t="shared" ref="DK2" si="15">+DF2+7</f>
+        <f t="shared" ref="DK2" si="16">+DF2+7</f>
         <v>42935</v>
       </c>
       <c r="DL2" s="43">
-        <f t="shared" ref="DL2" si="16">+DG2+7</f>
+        <f t="shared" ref="DL2" si="17">+DG2+7</f>
         <v>42936</v>
       </c>
       <c r="DM2" s="43">
-        <f t="shared" ref="DM2" si="17">+DH2+7</f>
+        <f t="shared" ref="DM2" si="18">+DH2+7</f>
         <v>42937</v>
       </c>
       <c r="DN2" s="42">
-        <f t="shared" ref="DN2" si="18">+DI2+7</f>
+        <f t="shared" ref="DN2" si="19">+DI2+7</f>
         <v>42940</v>
       </c>
       <c r="DO2" s="43">
-        <f t="shared" ref="DO2" si="19">+DJ2+7</f>
+        <f t="shared" ref="DO2" si="20">+DJ2+7</f>
         <v>42941</v>
       </c>
       <c r="DP2" s="43">
-        <f t="shared" ref="DP2" si="20">+DK2+7</f>
+        <f t="shared" ref="DP2" si="21">+DK2+7</f>
         <v>42942</v>
       </c>
       <c r="DQ2" s="43">
-        <f t="shared" ref="DQ2" si="21">+DL2+7</f>
+        <f t="shared" ref="DQ2" si="22">+DL2+7</f>
         <v>42943</v>
       </c>
       <c r="DR2" s="43">
-        <f t="shared" ref="DR2" si="22">+DM2+7</f>
+        <f t="shared" ref="DR2" si="23">+DM2+7</f>
         <v>42944</v>
       </c>
       <c r="DS2" s="42">
-        <f t="shared" ref="DS2" si="23">+DN2+7</f>
+        <f t="shared" ref="DS2" si="24">+DN2+7</f>
         <v>42947</v>
       </c>
       <c r="DT2" s="43">
-        <f t="shared" ref="DT2" si="24">+DO2+7</f>
+        <f t="shared" ref="DT2" si="25">+DO2+7</f>
         <v>42948</v>
       </c>
       <c r="DU2" s="43">
-        <f t="shared" ref="DU2" si="25">+DP2+7</f>
+        <f t="shared" ref="DU2" si="26">+DP2+7</f>
         <v>42949</v>
       </c>
       <c r="DV2" s="43">
-        <f t="shared" ref="DV2" si="26">+DQ2+7</f>
+        <f t="shared" ref="DV2" si="27">+DQ2+7</f>
         <v>42950</v>
       </c>
       <c r="DW2" s="43">
-        <f t="shared" ref="DW2" si="27">+DR2+7</f>
+        <f t="shared" ref="DW2" si="28">+DR2+7</f>
         <v>42951</v>
       </c>
       <c r="DX2" s="42">
-        <f t="shared" ref="DX2" si="28">+DS2+7</f>
+        <f t="shared" ref="DX2" si="29">+DS2+7</f>
         <v>42954</v>
       </c>
       <c r="DY2" s="43">
-        <f t="shared" ref="DY2" si="29">+DT2+7</f>
+        <f t="shared" ref="DY2" si="30">+DT2+7</f>
         <v>42955</v>
       </c>
       <c r="DZ2" s="43">
-        <f t="shared" ref="DZ2" si="30">+DU2+7</f>
+        <f t="shared" ref="DZ2" si="31">+DU2+7</f>
         <v>42956</v>
       </c>
       <c r="EA2" s="43">
-        <f t="shared" ref="EA2" si="31">+DV2+7</f>
+        <f t="shared" ref="EA2" si="32">+DV2+7</f>
         <v>42957</v>
       </c>
       <c r="EB2" s="43">
-        <f t="shared" ref="EB2" si="32">+DW2+7</f>
+        <f t="shared" ref="EB2" si="33">+DW2+7</f>
         <v>42958</v>
       </c>
       <c r="EC2" s="42">
-        <f t="shared" ref="EC2" si="33">+DX2+7</f>
+        <f t="shared" ref="EC2" si="34">+DX2+7</f>
         <v>42961</v>
       </c>
       <c r="ED2" s="43">
-        <f t="shared" ref="ED2" si="34">+DY2+7</f>
+        <f t="shared" ref="ED2" si="35">+DY2+7</f>
         <v>42962</v>
       </c>
       <c r="EE2" s="43">
-        <f t="shared" ref="EE2" si="35">+DZ2+7</f>
+        <f t="shared" ref="EE2" si="36">+DZ2+7</f>
         <v>42963</v>
       </c>
       <c r="EF2" s="43">
-        <f t="shared" ref="EF2" si="36">+EA2+7</f>
+        <f t="shared" ref="EF2" si="37">+EA2+7</f>
         <v>42964</v>
       </c>
       <c r="EG2" s="43">
-        <f t="shared" ref="EG2" si="37">+EB2+7</f>
+        <f t="shared" ref="EG2" si="38">+EB2+7</f>
         <v>42965</v>
       </c>
       <c r="EH2" s="42">
-        <f t="shared" ref="EH2" si="38">+EC2+7</f>
+        <f t="shared" ref="EH2" si="39">+EC2+7</f>
         <v>42968</v>
       </c>
       <c r="EI2" s="43">
-        <f t="shared" ref="EI2" si="39">+ED2+7</f>
+        <f t="shared" ref="EI2" si="40">+ED2+7</f>
         <v>42969</v>
       </c>
       <c r="EJ2" s="43">
-        <f t="shared" ref="EJ2" si="40">+EE2+7</f>
+        <f t="shared" ref="EJ2" si="41">+EE2+7</f>
         <v>42970</v>
       </c>
       <c r="EK2" s="43">
-        <f t="shared" ref="EK2" si="41">+EF2+7</f>
+        <f t="shared" ref="EK2" si="42">+EF2+7</f>
         <v>42971</v>
       </c>
       <c r="EL2" s="43">
-        <f t="shared" ref="EL2" si="42">+EG2+7</f>
+        <f t="shared" ref="EL2" si="43">+EG2+7</f>
         <v>42972</v>
       </c>
       <c r="EM2" s="42">
-        <f t="shared" ref="EM2" si="43">+EH2+7</f>
+        <f t="shared" ref="EM2" si="44">+EH2+7</f>
         <v>42975</v>
       </c>
       <c r="EN2" s="43">
-        <f t="shared" ref="EN2" si="44">+EI2+7</f>
+        <f t="shared" ref="EN2" si="45">+EI2+7</f>
         <v>42976</v>
       </c>
       <c r="EO2" s="43">
-        <f t="shared" ref="EO2" si="45">+EJ2+7</f>
+        <f t="shared" ref="EO2" si="46">+EJ2+7</f>
         <v>42977</v>
       </c>
       <c r="EP2" s="43">
-        <f t="shared" ref="EP2" si="46">+EK2+7</f>
+        <f t="shared" ref="EP2" si="47">+EK2+7</f>
         <v>42978</v>
       </c>
       <c r="EQ2" s="43">
-        <f t="shared" ref="EQ2" si="47">+EL2+7</f>
+        <f t="shared" ref="EQ2" si="48">+EL2+7</f>
         <v>42979</v>
       </c>
       <c r="ER2" s="42">
-        <f t="shared" ref="ER2" si="48">+EM2+7</f>
+        <f t="shared" ref="ER2" si="49">+EM2+7</f>
         <v>42982</v>
       </c>
       <c r="ES2" s="43">
-        <f t="shared" ref="ES2" si="49">+EN2+7</f>
+        <f t="shared" ref="ES2" si="50">+EN2+7</f>
         <v>42983</v>
       </c>
       <c r="ET2" s="43">
-        <f t="shared" ref="ET2" si="50">+EO2+7</f>
+        <f t="shared" ref="ET2" si="51">+EO2+7</f>
         <v>42984</v>
       </c>
       <c r="EU2" s="43">
-        <f t="shared" ref="EU2" si="51">+EP2+7</f>
+        <f t="shared" ref="EU2" si="52">+EP2+7</f>
         <v>42985</v>
       </c>
       <c r="EV2" s="43">
-        <f t="shared" ref="EV2" si="52">+EQ2+7</f>
+        <f t="shared" ref="EV2" si="53">+EQ2+7</f>
         <v>42986</v>
       </c>
       <c r="EW2" s="42">
-        <f t="shared" ref="EW2" si="53">+ER2+7</f>
+        <f t="shared" ref="EW2" si="54">+ER2+7</f>
         <v>42989</v>
       </c>
       <c r="EX2" s="43">
-        <f t="shared" ref="EX2" si="54">+ES2+7</f>
+        <f t="shared" ref="EX2" si="55">+ES2+7</f>
         <v>42990</v>
       </c>
       <c r="EY2" s="43">
-        <f t="shared" ref="EY2" si="55">+ET2+7</f>
+        <f t="shared" ref="EY2" si="56">+ET2+7</f>
         <v>42991</v>
       </c>
       <c r="EZ2" s="43">
-        <f t="shared" ref="EZ2" si="56">+EU2+7</f>
+        <f t="shared" ref="EZ2" si="57">+EU2+7</f>
         <v>42992</v>
       </c>
       <c r="FA2" s="43">
-        <f t="shared" ref="FA2" si="57">+EV2+7</f>
+        <f t="shared" ref="FA2" si="58">+EV2+7</f>
         <v>42993</v>
       </c>
       <c r="FB2" s="42">
-        <f t="shared" ref="FB2" si="58">+EW2+7</f>
+        <f t="shared" ref="FB2" si="59">+EW2+7</f>
         <v>42996</v>
       </c>
       <c r="FC2" s="43">
-        <f t="shared" ref="FC2" si="59">+EX2+7</f>
+        <f t="shared" ref="FC2" si="60">+EX2+7</f>
         <v>42997</v>
       </c>
       <c r="FD2" s="43">
-        <f t="shared" ref="FD2" si="60">+EY2+7</f>
+        <f t="shared" ref="FD2" si="61">+EY2+7</f>
         <v>42998</v>
       </c>
       <c r="FE2" s="43">
-        <f t="shared" ref="FE2" si="61">+EZ2+7</f>
+        <f t="shared" ref="FE2" si="62">+EZ2+7</f>
         <v>42999</v>
       </c>
       <c r="FF2" s="43">
-        <f t="shared" ref="FF2" si="62">+FA2+7</f>
+        <f t="shared" ref="FF2" si="63">+FA2+7</f>
         <v>43000</v>
       </c>
       <c r="FG2" s="42">
-        <f t="shared" ref="FG2" si="63">+FB2+7</f>
+        <f t="shared" ref="FG2" si="64">+FB2+7</f>
         <v>43003</v>
       </c>
       <c r="FH2" s="43">
-        <f t="shared" ref="FH2" si="64">+FC2+7</f>
+        <f t="shared" ref="FH2" si="65">+FC2+7</f>
         <v>43004</v>
       </c>
       <c r="FI2" s="43">
-        <f t="shared" ref="FI2" si="65">+FD2+7</f>
+        <f t="shared" ref="FI2" si="66">+FD2+7</f>
         <v>43005</v>
       </c>
       <c r="FJ2" s="43">
-        <f t="shared" ref="FJ2" si="66">+FE2+7</f>
+        <f t="shared" ref="FJ2" si="67">+FE2+7</f>
         <v>43006</v>
       </c>
       <c r="FK2" s="43">
-        <f t="shared" ref="FK2" si="67">+FF2+7</f>
+        <f t="shared" ref="FK2" si="68">+FF2+7</f>
         <v>43007</v>
       </c>
       <c r="FL2" s="42">
-        <f t="shared" ref="FL2" si="68">+FG2+7</f>
+        <f t="shared" ref="FL2" si="69">+FG2+7</f>
         <v>43010</v>
       </c>
       <c r="FM2" s="43">
-        <f t="shared" ref="FM2" si="69">+FH2+7</f>
+        <f t="shared" ref="FM2" si="70">+FH2+7</f>
         <v>43011</v>
       </c>
       <c r="FN2" s="43">
-        <f t="shared" ref="FN2" si="70">+FI2+7</f>
+        <f t="shared" ref="FN2" si="71">+FI2+7</f>
         <v>43012</v>
       </c>
       <c r="FO2" s="43">
-        <f t="shared" ref="FO2" si="71">+FJ2+7</f>
+        <f t="shared" ref="FO2" si="72">+FJ2+7</f>
         <v>43013</v>
       </c>
       <c r="FP2" s="43">
-        <f t="shared" ref="FP2" si="72">+FK2+7</f>
+        <f t="shared" ref="FP2" si="73">+FK2+7</f>
         <v>43014</v>
       </c>
       <c r="FQ2" s="42">
-        <f t="shared" ref="FQ2" si="73">+FL2+7</f>
+        <f t="shared" ref="FQ2" si="74">+FL2+7</f>
         <v>43017</v>
       </c>
       <c r="FR2" s="43">
-        <f t="shared" ref="FR2" si="74">+FM2+7</f>
+        <f t="shared" ref="FR2" si="75">+FM2+7</f>
         <v>43018</v>
       </c>
       <c r="FS2" s="43">
-        <f t="shared" ref="FS2" si="75">+FN2+7</f>
+        <f t="shared" ref="FS2" si="76">+FN2+7</f>
         <v>43019</v>
       </c>
       <c r="FT2" s="43">
-        <f t="shared" ref="FT2" si="76">+FO2+7</f>
+        <f t="shared" ref="FT2" si="77">+FO2+7</f>
         <v>43020</v>
       </c>
       <c r="FU2" s="43">
-        <f t="shared" ref="FU2" si="77">+FP2+7</f>
+        <f t="shared" ref="FU2" si="78">+FP2+7</f>
         <v>43021</v>
       </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV2" s="42">
+        <f t="shared" ref="FV2" si="79">+FQ2+7</f>
+        <v>43024</v>
+      </c>
+      <c r="FW2" s="43">
+        <f t="shared" ref="FW2" si="80">+FR2+7</f>
+        <v>43025</v>
+      </c>
+      <c r="FX2" s="43">
+        <f t="shared" ref="FX2" si="81">+FS2+7</f>
+        <v>43026</v>
+      </c>
+      <c r="FY2" s="43">
+        <f t="shared" ref="FY2" si="82">+FT2+7</f>
+        <v>43027</v>
+      </c>
+      <c r="FZ2" s="43">
+        <f t="shared" ref="FZ2" si="83">+FU2+7</f>
+        <v>43028</v>
+      </c>
+      <c r="GA2" s="42">
+        <f t="shared" ref="GA2" si="84">+FV2+7</f>
+        <v>43031</v>
+      </c>
+      <c r="GB2" s="43">
+        <f t="shared" ref="GB2" si="85">+FW2+7</f>
+        <v>43032</v>
+      </c>
+      <c r="GC2" s="43">
+        <f t="shared" ref="GC2" si="86">+FX2+7</f>
+        <v>43033</v>
+      </c>
+      <c r="GD2" s="43">
+        <f t="shared" ref="GD2" si="87">+FY2+7</f>
+        <v>43034</v>
+      </c>
+      <c r="GE2" s="43">
+        <f t="shared" ref="GE2" si="88">+FZ2+7</f>
+        <v>43035</v>
+      </c>
+      <c r="GF2" s="42">
+        <f t="shared" ref="GF2" si="89">+GA2+7</f>
+        <v>43038</v>
+      </c>
+      <c r="GG2" s="43">
+        <f t="shared" ref="GG2" si="90">+GB2+7</f>
+        <v>43039</v>
+      </c>
+      <c r="GH2" s="43">
+        <f t="shared" ref="GH2" si="91">+GC2+7</f>
+        <v>43040</v>
+      </c>
+      <c r="GI2" s="43">
+        <f t="shared" ref="GI2" si="92">+GD2+7</f>
+        <v>43041</v>
+      </c>
+      <c r="GJ2" s="43">
+        <f t="shared" ref="GJ2" si="93">+GE2+7</f>
+        <v>43042</v>
+      </c>
+      <c r="GK2" s="42">
+        <f t="shared" ref="GK2" si="94">+GF2+7</f>
+        <v>43045</v>
+      </c>
+      <c r="GL2" s="43">
+        <f t="shared" ref="GL2" si="95">+GG2+7</f>
+        <v>43046</v>
+      </c>
+      <c r="GM2" s="43">
+        <f t="shared" ref="GM2" si="96">+GH2+7</f>
+        <v>43047</v>
+      </c>
+      <c r="GN2" s="43">
+        <f t="shared" ref="GN2" si="97">+GI2+7</f>
+        <v>43048</v>
+      </c>
+      <c r="GO2" s="43">
+        <f t="shared" ref="GO2" si="98">+GJ2+7</f>
+        <v>43049</v>
+      </c>
+      <c r="GP2" s="42">
+        <f t="shared" ref="GP2" si="99">+GK2+7</f>
+        <v>43052</v>
+      </c>
+      <c r="GQ2" s="43">
+        <f t="shared" ref="GQ2" si="100">+GL2+7</f>
+        <v>43053</v>
+      </c>
+      <c r="GR2" s="43">
+        <f t="shared" ref="GR2" si="101">+GM2+7</f>
+        <v>43054</v>
+      </c>
+      <c r="GS2" s="43">
+        <f t="shared" ref="GS2" si="102">+GN2+7</f>
+        <v>43055</v>
+      </c>
+      <c r="GT2" s="43">
+        <f t="shared" ref="GT2" si="103">+GO2+7</f>
+        <v>43056</v>
+      </c>
+      <c r="GU2" s="42">
+        <f t="shared" ref="GU2" si="104">+GP2+7</f>
+        <v>43059</v>
+      </c>
+      <c r="GV2" s="43">
+        <f t="shared" ref="GV2" si="105">+GQ2+7</f>
+        <v>43060</v>
+      </c>
+      <c r="GW2" s="43">
+        <f t="shared" ref="GW2" si="106">+GR2+7</f>
+        <v>43061</v>
+      </c>
+      <c r="GX2" s="43">
+        <f t="shared" ref="GX2" si="107">+GS2+7</f>
+        <v>43062</v>
+      </c>
+      <c r="GY2" s="43">
+        <f t="shared" ref="GY2" si="108">+GT2+7</f>
+        <v>43063</v>
+      </c>
+      <c r="GZ2" s="42">
+        <f t="shared" ref="GZ2" si="109">+GU2+7</f>
+        <v>43066</v>
+      </c>
+      <c r="HA2" s="43">
+        <f t="shared" ref="HA2" si="110">+GV2+7</f>
+        <v>43067</v>
+      </c>
+      <c r="HB2" s="43">
+        <f t="shared" ref="HB2" si="111">+GW2+7</f>
+        <v>43068</v>
+      </c>
+      <c r="HC2" s="43">
+        <f t="shared" ref="HC2" si="112">+GX2+7</f>
+        <v>43069</v>
+      </c>
+      <c r="HD2" s="43">
+        <f t="shared" ref="HD2" si="113">+GY2+7</f>
+        <v>43070</v>
+      </c>
+      <c r="HE2" s="42">
+        <f t="shared" ref="HE2" si="114">+GZ2+7</f>
+        <v>43073</v>
+      </c>
+      <c r="HF2" s="43">
+        <f t="shared" ref="HF2" si="115">+HA2+7</f>
+        <v>43074</v>
+      </c>
+      <c r="HG2" s="43">
+        <f t="shared" ref="HG2" si="116">+HB2+7</f>
+        <v>43075</v>
+      </c>
+      <c r="HH2" s="43">
+        <f t="shared" ref="HH2" si="117">+HC2+7</f>
+        <v>43076</v>
+      </c>
+      <c r="HI2" s="43">
+        <f t="shared" ref="HI2" si="118">+HD2+7</f>
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>248</v>
       </c>
@@ -13642,8 +14040,48 @@
       <c r="FS3" s="68"/>
       <c r="FT3" s="68"/>
       <c r="FU3" s="68"/>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV3" s="68"/>
+      <c r="FW3" s="68"/>
+      <c r="FX3" s="68"/>
+      <c r="FY3" s="68"/>
+      <c r="FZ3" s="68"/>
+      <c r="GA3" s="68"/>
+      <c r="GB3" s="68"/>
+      <c r="GC3" s="68"/>
+      <c r="GD3" s="68"/>
+      <c r="GE3" s="68"/>
+      <c r="GF3" s="68"/>
+      <c r="GG3" s="68"/>
+      <c r="GH3" s="68"/>
+      <c r="GI3" s="68"/>
+      <c r="GJ3" s="68"/>
+      <c r="GK3" s="68"/>
+      <c r="GL3" s="68"/>
+      <c r="GM3" s="68"/>
+      <c r="GN3" s="68"/>
+      <c r="GO3" s="68"/>
+      <c r="GP3" s="68"/>
+      <c r="GQ3" s="68"/>
+      <c r="GR3" s="68"/>
+      <c r="GS3" s="68"/>
+      <c r="GT3" s="68"/>
+      <c r="GU3" s="68"/>
+      <c r="GV3" s="68"/>
+      <c r="GW3" s="68"/>
+      <c r="GX3" s="68"/>
+      <c r="GY3" s="68"/>
+      <c r="GZ3" s="68"/>
+      <c r="HA3" s="68"/>
+      <c r="HB3" s="68"/>
+      <c r="HC3" s="68"/>
+      <c r="HD3" s="68"/>
+      <c r="HE3" s="68"/>
+      <c r="HF3" s="68"/>
+      <c r="HG3" s="68"/>
+      <c r="HH3" s="68"/>
+      <c r="HI3" s="68"/>
+    </row>
+    <row r="4" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
         <v>249</v>
       </c>
@@ -13894,8 +14332,48 @@
       <c r="FS4" s="68"/>
       <c r="FT4" s="68"/>
       <c r="FU4" s="68"/>
-    </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV4" s="68"/>
+      <c r="FW4" s="68"/>
+      <c r="FX4" s="68"/>
+      <c r="FY4" s="68"/>
+      <c r="FZ4" s="68"/>
+      <c r="GA4" s="68"/>
+      <c r="GB4" s="68"/>
+      <c r="GC4" s="68"/>
+      <c r="GD4" s="68"/>
+      <c r="GE4" s="68"/>
+      <c r="GF4" s="68"/>
+      <c r="GG4" s="68"/>
+      <c r="GH4" s="68"/>
+      <c r="GI4" s="68"/>
+      <c r="GJ4" s="68"/>
+      <c r="GK4" s="68"/>
+      <c r="GL4" s="68"/>
+      <c r="GM4" s="68"/>
+      <c r="GN4" s="68"/>
+      <c r="GO4" s="68"/>
+      <c r="GP4" s="68"/>
+      <c r="GQ4" s="68"/>
+      <c r="GR4" s="68"/>
+      <c r="GS4" s="68"/>
+      <c r="GT4" s="68"/>
+      <c r="GU4" s="68"/>
+      <c r="GV4" s="68"/>
+      <c r="GW4" s="68"/>
+      <c r="GX4" s="68"/>
+      <c r="GY4" s="68"/>
+      <c r="GZ4" s="68"/>
+      <c r="HA4" s="68"/>
+      <c r="HB4" s="68"/>
+      <c r="HC4" s="68"/>
+      <c r="HD4" s="68"/>
+      <c r="HE4" s="68"/>
+      <c r="HF4" s="68"/>
+      <c r="HG4" s="68"/>
+      <c r="HH4" s="68"/>
+      <c r="HI4" s="68"/>
+    </row>
+    <row r="5" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>261</v>
       </c>
@@ -14112,8 +14590,48 @@
       <c r="FS5" s="61"/>
       <c r="FT5" s="61"/>
       <c r="FU5" s="61"/>
-    </row>
-    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV5" s="61"/>
+      <c r="FW5" s="61"/>
+      <c r="FX5" s="61"/>
+      <c r="FY5" s="61"/>
+      <c r="FZ5" s="61"/>
+      <c r="GA5" s="61"/>
+      <c r="GB5" s="61"/>
+      <c r="GC5" s="61"/>
+      <c r="GD5" s="61"/>
+      <c r="GE5" s="61"/>
+      <c r="GF5" s="61"/>
+      <c r="GG5" s="61"/>
+      <c r="GH5" s="61"/>
+      <c r="GI5" s="61"/>
+      <c r="GJ5" s="61"/>
+      <c r="GK5" s="61"/>
+      <c r="GL5" s="61"/>
+      <c r="GM5" s="61"/>
+      <c r="GN5" s="61"/>
+      <c r="GO5" s="61"/>
+      <c r="GP5" s="61"/>
+      <c r="GQ5" s="61"/>
+      <c r="GR5" s="61"/>
+      <c r="GS5" s="61"/>
+      <c r="GT5" s="61"/>
+      <c r="GU5" s="61"/>
+      <c r="GV5" s="61"/>
+      <c r="GW5" s="61"/>
+      <c r="GX5" s="61"/>
+      <c r="GY5" s="61"/>
+      <c r="GZ5" s="61"/>
+      <c r="HA5" s="61"/>
+      <c r="HB5" s="61"/>
+      <c r="HC5" s="61"/>
+      <c r="HD5" s="61"/>
+      <c r="HE5" s="61"/>
+      <c r="HF5" s="61"/>
+      <c r="HG5" s="61"/>
+      <c r="HH5" s="61"/>
+      <c r="HI5" s="61"/>
+    </row>
+    <row r="6" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
         <v>387</v>
       </c>
@@ -14335,9 +14853,53 @@
       <c r="FR6" s="68"/>
       <c r="FS6" s="68"/>
       <c r="FT6" s="68"/>
-      <c r="FU6" s="68"/>
-    </row>
-    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FU6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="FV6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="FW6" s="61"/>
+      <c r="FX6" s="61"/>
+      <c r="FY6" s="61"/>
+      <c r="FZ6" s="61"/>
+      <c r="GA6" s="61"/>
+      <c r="GB6" s="61"/>
+      <c r="GC6" s="61"/>
+      <c r="GD6" s="61"/>
+      <c r="GE6" s="61"/>
+      <c r="GF6" s="61"/>
+      <c r="GG6" s="61"/>
+      <c r="GH6" s="61"/>
+      <c r="GI6" s="61"/>
+      <c r="GJ6" s="61"/>
+      <c r="GK6" s="61"/>
+      <c r="GL6" s="61"/>
+      <c r="GM6" s="61"/>
+      <c r="GN6" s="61"/>
+      <c r="GO6" s="61"/>
+      <c r="GP6" s="61"/>
+      <c r="GQ6" s="61"/>
+      <c r="GR6" s="61"/>
+      <c r="GS6" s="61"/>
+      <c r="GT6" s="61"/>
+      <c r="GU6" s="61"/>
+      <c r="GV6" s="61"/>
+      <c r="GW6" s="61"/>
+      <c r="GX6" s="61"/>
+      <c r="GY6" s="61"/>
+      <c r="GZ6" s="61"/>
+      <c r="HA6" s="61"/>
+      <c r="HB6" s="61"/>
+      <c r="HC6" s="61"/>
+      <c r="HD6" s="61"/>
+      <c r="HE6" s="61"/>
+      <c r="HF6" s="61"/>
+      <c r="HG6" s="61"/>
+      <c r="HH6" s="61"/>
+      <c r="HI6" s="61"/>
+    </row>
+    <row r="7" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
         <v>396</v>
       </c>
@@ -14532,26 +15094,66 @@
       <c r="EQ7" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="ER7" s="68"/>
-      <c r="ES7" s="68"/>
-      <c r="ET7" s="68"/>
-      <c r="EU7" s="68"/>
-      <c r="EV7" s="68"/>
-      <c r="EW7" s="68"/>
-      <c r="EX7" s="68"/>
-      <c r="EY7" s="68"/>
-      <c r="EZ7" s="68"/>
-      <c r="FA7" s="68"/>
-      <c r="FB7" s="68"/>
-      <c r="FC7" s="68"/>
-      <c r="FD7" s="68"/>
-      <c r="FE7" s="68"/>
-      <c r="FF7" s="68"/>
-      <c r="FG7" s="68"/>
-      <c r="FH7" s="68"/>
-      <c r="FI7" s="68"/>
-      <c r="FJ7" s="68"/>
-      <c r="FK7" s="68"/>
+      <c r="ER7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="ES7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="ET7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EU7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EV7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EW7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EX7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EY7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="EZ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FA7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FB7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FC7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FD7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FE7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FF7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FG7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FH7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FI7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FJ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FK7" s="122" t="s">
+        <v>476</v>
+      </c>
       <c r="FL7" s="122" t="s">
         <v>476</v>
       </c>
@@ -14582,13 +15184,133 @@
       <c r="FU7" s="122" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FV7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FW7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FX7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FY7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="FZ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GA7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GB7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GC7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GD7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GE7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GF7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GG7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GH7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GI7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GJ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GK7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GL7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GM7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GN7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GO7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GP7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GQ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GR7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GS7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GT7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GU7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GV7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GW7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GX7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GY7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="GZ7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HA7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HB7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HC7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HD7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HE7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HF7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HG7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HH7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="HI7" s="122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
         <v>256</v>
       </c>
       <c r="C8" s="61">
-        <f t="shared" ref="C8" si="78">COUNTBLANK(C3:C7)</f>
+        <f t="shared" ref="C8" si="119">COUNTBLANK(C3:C7)</f>
         <v>5</v>
       </c>
       <c r="D8" s="61">
@@ -14596,51 +15318,51 @@
         <v>3</v>
       </c>
       <c r="E8" s="61">
-        <f t="shared" ref="E8:AS8" si="79">COUNTBLANK(E3:E7)</f>
+        <f t="shared" ref="E8:AS8" si="120">COUNTBLANK(E3:E7)</f>
         <v>3</v>
       </c>
       <c r="F8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="G8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="H8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="I8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="J8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="K8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="L8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="M8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="N8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="O8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="P8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="Q8" s="61">
@@ -14652,11 +15374,11 @@
         <v>4</v>
       </c>
       <c r="S8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="T8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="U8" s="61">
@@ -14668,95 +15390,95 @@
         <v>4</v>
       </c>
       <c r="W8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="X8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="Y8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="Z8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AA8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AB8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AC8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="AD8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="AE8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="AF8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AG8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AH8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>3</v>
       </c>
       <c r="AI8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="AJ8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AK8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AL8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AM8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AN8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AO8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AP8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AQ8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AR8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AS8" s="61">
-        <f t="shared" si="79"/>
+        <f t="shared" si="120"/>
         <v>5</v>
       </c>
       <c r="AT8" s="61"/>
@@ -14784,289 +15506,289 @@
       </c>
       <c r="BB8" s="61"/>
       <c r="BC8" s="61">
-        <f t="shared" ref="BC8:CG8" si="80">COUNTBLANK(BC3:BC7)</f>
+        <f t="shared" ref="BC8:CG8" si="121">COUNTBLANK(BC3:BC7)</f>
         <v>5</v>
       </c>
       <c r="BD8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BE8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BF8" s="61"/>
       <c r="BG8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BH8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>3</v>
       </c>
       <c r="BI8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BJ8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BK8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BL8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>4</v>
       </c>
       <c r="BM8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>3</v>
       </c>
       <c r="BN8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>3</v>
       </c>
       <c r="BO8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>4</v>
       </c>
       <c r="BP8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BQ8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BR8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BS8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BT8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BU8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BV8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BW8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BX8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BY8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="BZ8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CA8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CB8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CC8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CD8" s="61"/>
       <c r="CE8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CF8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CG8" s="61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="CH8" s="61">
-        <f t="shared" ref="CH8:DM8" si="81">COUNTBLANK(CH3:CH7)</f>
+        <f t="shared" ref="CH8:DM8" si="122">COUNTBLANK(CH3:CH7)</f>
         <v>5</v>
       </c>
       <c r="CI8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CJ8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CK8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CL8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>4</v>
       </c>
       <c r="CM8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CN8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CO8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CP8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CQ8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CR8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>3</v>
       </c>
       <c r="CS8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>4</v>
       </c>
       <c r="CT8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CU8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CV8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CW8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CX8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CY8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="CZ8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DA8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DB8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DC8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DD8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DE8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DF8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DG8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DH8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DI8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>4</v>
       </c>
       <c r="DJ8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>3</v>
       </c>
       <c r="DK8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>4</v>
       </c>
       <c r="DL8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>4</v>
       </c>
       <c r="DM8" s="61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="DN8" s="61">
-        <f t="shared" ref="DN8:DW8" si="82">COUNTBLANK(DN3:DN7)</f>
+        <f t="shared" ref="DN8:DW8" si="123">COUNTBLANK(DN3:DN7)</f>
         <v>5</v>
       </c>
       <c r="DO8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DP8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DQ8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DR8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DS8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DT8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DU8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DV8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DW8" s="61">
-        <f t="shared" si="82"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="DX8" s="61"/>
@@ -15080,167 +15802,327 @@
       <c r="EF8" s="61"/>
       <c r="EG8" s="61"/>
       <c r="EH8" s="61">
-        <f t="shared" ref="EH8:FT8" si="83">COUNTBLANK(EH3:EH7)</f>
+        <f t="shared" ref="EH8:FT8" si="124">COUNTBLANK(EH3:EH7)</f>
         <v>2</v>
       </c>
       <c r="EI8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>2</v>
       </c>
       <c r="EJ8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>3</v>
       </c>
       <c r="EK8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>3</v>
       </c>
       <c r="EL8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>3</v>
       </c>
       <c r="EM8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="EN8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="EO8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="EP8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="EQ8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="ER8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="ES8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="ET8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EU8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EV8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EW8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EX8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EY8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="EZ8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FA8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FB8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FC8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FD8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FE8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FF8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FG8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FH8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FI8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FJ8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FK8" s="61">
-        <f t="shared" si="83"/>
-        <v>5</v>
+        <f t="shared" si="124"/>
+        <v>4</v>
       </c>
       <c r="FL8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FM8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FN8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FO8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FP8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FQ8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FR8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FS8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FT8" s="61">
-        <f t="shared" si="83"/>
+        <f t="shared" si="124"/>
         <v>4</v>
       </c>
       <c r="FU8" s="61">
-        <f t="shared" ref="FU8" si="84">COUNTBLANK(FU3:FU7)</f>
+        <f t="shared" ref="FU8:HI8" si="125">COUNTBLANK(FU3:FU7)</f>
+        <v>3</v>
+      </c>
+      <c r="FV8" s="61">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+      <c r="FW8" s="61">
+        <f t="shared" si="125"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="FX8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="FY8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="FZ8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GA8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GB8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GC8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GD8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GE8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GF8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GG8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GH8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GI8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GJ8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GK8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GL8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GM8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GN8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GO8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GP8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GQ8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GR8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GS8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GT8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GU8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GV8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GW8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GX8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GY8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="GZ8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HA8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HB8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HC8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HD8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HE8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HF8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HG8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HH8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="HI8" s="61">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B10" s="74" t="s">
         <v>257</v>
       </c>
@@ -15248,7 +16130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B11" s="75" t="s">
         <v>258</v>
       </c>
@@ -15256,7 +16138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
         <v>253</v>
       </c>
@@ -15264,7 +16146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B13" s="77" t="s">
         <v>259</v>
       </c>
@@ -15272,7 +16154,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B14" s="78" t="s">
         <v>254</v>
       </c>
@@ -15280,7 +16162,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B15" s="79" t="s">
         <v>388</v>
       </c>
@@ -15301,7 +16183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EH8:FU8">
+  <conditionalFormatting sqref="EH8:HI8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15541,11 +16423,11 @@
       </c>
       <c r="AL1" s="26" t="str">
         <f t="shared" ref="AL1" ca="1" si="4">IF(TODAY()&gt;=AL2,IF(TODAY()&lt;AM2,"]",""),"")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AM1" s="26" t="str">
         <f t="shared" ref="AM1" ca="1" si="5">IF(TODAY()&gt;=AM2,IF(TODAY()&lt;AN2,"]",""),"")</f>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AN1" s="26" t="str">
         <f t="shared" ref="AN1" ca="1" si="6">IF(TODAY()&gt;=AN2,IF(TODAY()&lt;AO2,"]",""),"")</f>
@@ -15776,7 +16658,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -15830,7 +16712,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -15888,7 +16770,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -15942,7 +16824,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -16000,7 +16882,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -16058,7 +16940,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -16116,7 +16998,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -16172,7 +17054,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -16230,7 +17112,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -16286,7 +17168,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
@@ -16344,7 +17226,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Override - incrocio assegni (BR34)</v>
       </c>
       <c r="D13" s="23"/>
@@ -16404,7 +17286,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D14" s="23"/>
@@ -16458,7 +17340,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
@@ -16516,7 +17398,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D16" s="23"/>
@@ -16570,7 +17452,7 @@
         <v>85</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
@@ -16636,7 +17518,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D18" s="23"/>
@@ -16690,7 +17572,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>ISPRO - motore</v>
       </c>
       <c r="D19" s="23"/>
@@ -16752,7 +17634,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>ISPRO - file test e TCK</v>
       </c>
       <c r="D20" s="23"/>
@@ -16806,7 +17688,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D21" s="23"/>
@@ -16893,7 +17775,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D22" s="23"/>
@@ -16947,7 +17829,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>VM - Retail: nodo Riempimento</v>
       </c>
       <c r="D23" s="23"/>
@@ -17001,7 +17883,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D24" s="23"/>
@@ -17075,7 +17957,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D25" s="23"/>
@@ -17133,7 +18015,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D26" s="23"/>
@@ -17191,7 +18073,7 @@
         <v>114</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>ISBA - motore</v>
       </c>
       <c r="D27" s="23"/>
@@ -17253,7 +18135,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="23" t="str">
-        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B28,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>ISBA - file test e TCK</v>
       </c>
       <c r="D28" s="23"/>
@@ -17307,7 +18189,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B29,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>APP2.0 - Configurazione</v>
       </c>
       <c r="D29" s="23"/>
@@ -17361,7 +18243,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B30,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>APP2.0 - Migrazione</v>
       </c>
       <c r="D30" s="23"/>
@@ -17415,7 +18297,7 @@
         <v>124</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B31,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v xml:space="preserve">SME Retail - file excel </v>
       </c>
       <c r="D31" s="23"/>
@@ -17469,7 +18351,7 @@
         <v>125</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B32,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>SME Retail - AFU</v>
       </c>
       <c r="D32" s="23"/>
@@ -17527,7 +18409,7 @@
         <v>126</v>
       </c>
       <c r="C33" s="23" t="str">
-        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B33,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>SME Retail - Sviluppo indicatori</v>
       </c>
       <c r="D33" s="23"/>
@@ -17597,7 +18479,7 @@
         <v>127</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B34,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>SME Retail - test indicatori</v>
       </c>
       <c r="D34" s="23"/>
@@ -17663,7 +18545,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B35,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>SME Retail - Configurazione start-up app (excel)</v>
       </c>
       <c r="D35" s="23"/>
@@ -17717,7 +18599,7 @@
         <v>129</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f>VLOOKUP(B36,Elenco_attività!$B$47:$C$319,2,FALSE)</f>
+        <f>VLOOKUP(B36,Elenco_attività!$B$47:$C$320,2,FALSE)</f>
         <v>SME Retail - Configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D36" s="23"/>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5316" tabRatio="848" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="549">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1690,6 +1690,9 @@
 - Disallineamenti SAG/SAB: Indicatore + BR (Blu scuro)
 - Autor: gestisce ETL. Al momento no impatti. Dal 23/02 ri-entrerà?
 - Autor: chiedere che non vengano mai tolti IMP_SCONF_AUTOR e FLG_SCONF_MAX_NO_AUTOR_89GG e siano sempre null. Fatto</t>
+  </si>
+  <si>
+    <t>dal 28/08</t>
   </si>
 </sst>
 </file>
@@ -4712,9 +4715,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4794,7 +4797,7 @@
     <row r="3" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
-        <f>+B2+1</f>
+        <f t="shared" ref="B3:B34" si="0">+B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4826,7 +4829,7 @@
     <row r="4" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
-        <f>+B3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -4856,7 +4859,7 @@
     <row r="5" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
-        <f>+B4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4886,7 +4889,7 @@
     <row r="6" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
-        <f>+B5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -4917,7 +4920,7 @@
     <row r="7" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
-        <f>+B6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -4946,7 +4949,7 @@
     <row r="8" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
-        <f>+B7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -4975,7 +4978,7 @@
     <row r="9" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
-        <f>+B8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -5004,7 +5007,7 @@
     <row r="10" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
-        <f>+B9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -5033,7 +5036,7 @@
     <row r="11" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
-        <f>+B10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -5062,7 +5065,7 @@
     <row r="12" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
-        <f>+B11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5093,7 +5096,7 @@
     <row r="13" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
-        <f>+B12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -5122,7 +5125,7 @@
     <row r="14" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
-        <f>+B13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5151,7 +5154,7 @@
     <row r="15" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
-        <f>+B14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -5180,7 +5183,7 @@
     <row r="16" spans="1:31" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
-        <f>+B15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -5209,7 +5212,7 @@
     <row r="17" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
-        <f>+B16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -5240,7 +5243,7 @@
     <row r="18" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
-        <f>+B17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -5269,7 +5272,7 @@
     <row r="19" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
-        <f>+B18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -5298,7 +5301,7 @@
     <row r="20" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
-        <f>+B19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -5329,7 +5332,7 @@
     <row r="21" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
-        <f>+B20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -5358,7 +5361,7 @@
     <row r="22" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
-        <f>+B21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -5387,7 +5390,7 @@
     <row r="23" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
-        <f>+B22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -5416,7 +5419,7 @@
     <row r="24" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
-        <f>+B23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5445,7 +5448,7 @@
     <row r="25" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
-        <f>+B24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -5474,7 +5477,7 @@
     <row r="26" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
-        <f>+B25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -5503,7 +5506,7 @@
     <row r="27" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
-        <f>+B26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -5532,7 +5535,7 @@
     <row r="28" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
-        <f>+B27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -5561,7 +5564,7 @@
     <row r="29" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
-        <f>+B28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -5590,7 +5593,7 @@
     <row r="30" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
-        <f>+B29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -5619,7 +5622,7 @@
     <row r="31" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
-        <f>+B30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -5648,7 +5651,7 @@
     <row r="32" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
-        <f>+B31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -5679,7 +5682,7 @@
     <row r="33" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
-        <f>+B32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -5708,7 +5711,7 @@
     <row r="34" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
-        <f>+B33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -5737,7 +5740,7 @@
     <row r="35" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
-        <f>+B34+1</f>
+        <f t="shared" ref="B35:B66" si="1">+B34+1</f>
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -5766,7 +5769,7 @@
     <row r="36" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
-        <f>+B35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -5795,7 +5798,7 @@
     <row r="37" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
-        <f>+B36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -5824,7 +5827,7 @@
     <row r="38" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
-        <f>+B37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -5853,7 +5856,7 @@
     <row r="39" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
-        <f>+B38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -5882,7 +5885,7 @@
     <row r="40" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
-        <f>+B39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -5911,7 +5914,7 @@
     <row r="41" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
-        <f>+B40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -5942,7 +5945,7 @@
     <row r="42" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
-        <f>+B41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -5971,7 +5974,7 @@
     <row r="43" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
-        <f>+B42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -6002,7 +6005,7 @@
     <row r="44" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
-        <f>+B43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -6033,7 +6036,7 @@
     <row r="45" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
-        <f>+B44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -6064,7 +6067,7 @@
     <row r="46" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
-        <f>+B45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -6095,7 +6098,7 @@
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7">
-        <f>+B46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -6126,7 +6129,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7">
-        <f>+B47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -6149,7 +6152,7 @@
     <row r="49" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
-        <f>+B48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -6180,7 +6183,7 @@
     <row r="50" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
-        <f>+B49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -6211,7 +6214,7 @@
     <row r="51" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
-        <f>+B50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -6241,7 +6244,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
-        <f>+B51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -6271,7 +6274,7 @@
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
-        <f>+B52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -6301,7 +6304,7 @@
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
-        <f>+B53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -6329,7 +6332,7 @@
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
-        <f>+B54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -6359,7 +6362,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
-        <f>+B55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -6389,7 +6392,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
-        <f>+B56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -6419,7 +6422,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
-        <f>+B57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -6447,7 +6450,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
-        <f>+B58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -6473,7 +6476,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
-        <f>+B59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -6501,7 +6504,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
-        <f>+B60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -6531,7 +6534,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
-        <f>+B61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -6557,7 +6560,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
-        <f>+B62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -6585,7 +6588,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
-        <f>+B63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -6615,7 +6618,7 @@
     </row>
     <row r="65" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
-        <f>+B64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -6645,7 +6648,7 @@
     </row>
     <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
-        <f>+B65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -6673,7 +6676,7 @@
     </row>
     <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
-        <f>+B66+1</f>
+        <f t="shared" ref="B67:B98" si="2">+B66+1</f>
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -6701,7 +6704,7 @@
     </row>
     <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
-        <f>+B67+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -6729,7 +6732,7 @@
     </row>
     <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
-        <f>+B68+1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -6757,7 +6760,7 @@
     </row>
     <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
-        <f>+B69+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -6787,7 +6790,7 @@
     </row>
     <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7">
-        <f>+B70+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -6817,7 +6820,7 @@
     </row>
     <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
-        <f>+B71+1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -6847,7 +6850,7 @@
     </row>
     <row r="73" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
-        <f>+B72+1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -6877,7 +6880,7 @@
     </row>
     <row r="74" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
-        <f>+B73+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -6907,7 +6910,7 @@
     </row>
     <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
-        <f>+B74+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -6937,7 +6940,7 @@
     </row>
     <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
-        <f>+B75+1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -6965,7 +6968,7 @@
     </row>
     <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
-        <f>+B76+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -6991,7 +6994,7 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
-        <f>+B77+1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -7017,7 +7020,7 @@
     </row>
     <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
-        <f>+B78+1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -7047,7 +7050,7 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="7">
-        <f>+B79+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -7071,7 +7074,7 @@
     </row>
     <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7">
-        <f>+B80+1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -7101,7 +7104,7 @@
     </row>
     <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7">
-        <f>+B81+1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -7127,7 +7130,7 @@
     </row>
     <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
-        <f>+B82+1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -7157,7 +7160,7 @@
     </row>
     <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7">
-        <f>+B83+1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -7187,7 +7190,7 @@
     </row>
     <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="7">
-        <f>+B84+1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -7213,7 +7216,7 @@
     </row>
     <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="7">
-        <f>+B85+1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
@@ -7243,7 +7246,7 @@
     </row>
     <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7">
-        <f>+B86+1</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -7273,7 +7276,7 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="7">
-        <f>+B87+1</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -7295,7 +7298,7 @@
     </row>
     <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="7">
-        <f>+B88+1</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
@@ -7323,7 +7326,7 @@
     </row>
     <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
-        <f>+B89+1</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
@@ -7353,7 +7356,7 @@
     </row>
     <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
-        <f>+B90+1</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
@@ -7383,7 +7386,7 @@
     </row>
     <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
-        <f>+B91+1</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C92" s="10" t="s">
@@ -7413,7 +7416,7 @@
     </row>
     <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
-        <f>+B92+1</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C93" s="10" t="s">
@@ -7443,7 +7446,7 @@
     </row>
     <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7">
-        <f>+B93+1</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -7473,7 +7476,7 @@
     </row>
     <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7">
-        <f>+B94+1</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -7503,7 +7506,7 @@
     </row>
     <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7">
-        <f>+B95+1</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
@@ -7533,7 +7536,7 @@
     </row>
     <row r="97" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7">
-        <f>+B96+1</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -7561,7 +7564,7 @@
     </row>
     <row r="98" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7">
-        <f>+B97+1</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C98" s="10" t="s">
@@ -7589,7 +7592,7 @@
     </row>
     <row r="99" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
-        <f>+B98+1</f>
+        <f t="shared" ref="B99:B130" si="3">+B98+1</f>
         <v>98</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -7619,7 +7622,7 @@
     </row>
     <row r="100" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7">
-        <f>+B99+1</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="C100" s="10" t="s">
@@ -7647,7 +7650,7 @@
     </row>
     <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7">
-        <f>+B100+1</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -7677,7 +7680,7 @@
     </row>
     <row r="102" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7">
-        <f>+B101+1</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
@@ -7707,7 +7710,7 @@
     </row>
     <row r="103" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7">
-        <f>+B102+1</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -7737,7 +7740,7 @@
     </row>
     <row r="104" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7">
-        <f>+B103+1</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -7767,7 +7770,7 @@
     </row>
     <row r="105" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7">
-        <f>+B104+1</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
@@ -7797,7 +7800,7 @@
     </row>
     <row r="106" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="7">
-        <f>+B105+1</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
@@ -7825,7 +7828,7 @@
     </row>
     <row r="107" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7">
-        <f>+B106+1</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C107" s="10" t="s">
@@ -7855,7 +7858,7 @@
     </row>
     <row r="108" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7">
-        <f>+B107+1</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="C108" s="10" t="s">
@@ -7883,7 +7886,7 @@
     </row>
     <row r="109" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7">
-        <f>+B108+1</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="C109" s="10" t="s">
@@ -7911,7 +7914,7 @@
     </row>
     <row r="110" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7">
-        <f>+B109+1</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="C110" s="10" t="s">
@@ -7941,7 +7944,7 @@
     </row>
     <row r="111" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7">
-        <f>+B110+1</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -7971,7 +7974,7 @@
     </row>
     <row r="112" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7">
-        <f>+B111+1</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="C112" s="10" t="s">
@@ -8001,7 +8004,7 @@
     </row>
     <row r="113" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="7">
-        <f>+B112+1</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
@@ -8031,7 +8034,7 @@
     </row>
     <row r="114" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7">
-        <f>+B113+1</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -8061,7 +8064,7 @@
     </row>
     <row r="115" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7">
-        <f>+B114+1</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="C115" s="10" t="s">
@@ -8091,7 +8094,7 @@
     </row>
     <row r="116" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7">
-        <f>+B115+1</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -8121,7 +8124,7 @@
     </row>
     <row r="117" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7">
-        <f>+B116+1</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -8151,7 +8154,7 @@
     </row>
     <row r="118" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7">
-        <f>+B117+1</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="C118" s="10" t="s">
@@ -8181,7 +8184,7 @@
     </row>
     <row r="119" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7">
-        <f>+B118+1</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
@@ -8209,7 +8212,7 @@
     </row>
     <row r="120" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7">
-        <f>+B119+1</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
@@ -8237,7 +8240,7 @@
     </row>
     <row r="121" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7">
-        <f>+B120+1</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
@@ -8265,7 +8268,7 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="7">
-        <f>+B121+1</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
@@ -8291,7 +8294,7 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="7">
-        <f>+B122+1</f>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
@@ -8313,7 +8316,7 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7">
-        <f>+B123+1</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="C124" s="10" t="s">
@@ -8335,7 +8338,7 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7">
-        <f>+B124+1</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C125" s="10" t="s">
@@ -8361,7 +8364,7 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7">
-        <f>+B125+1</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="C126" s="10" t="s">
@@ -8387,7 +8390,7 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7">
-        <f>+B126+1</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
@@ -8413,7 +8416,7 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="7">
-        <f>+B127+1</f>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="C128" s="10" t="s">
@@ -8439,7 +8442,7 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="7">
-        <f>+B128+1</f>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C129" s="10" t="s">
@@ -8465,7 +8468,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="7">
-        <f>+B129+1</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="C130" s="10" t="s">
@@ -8491,7 +8494,7 @@
     </row>
     <row r="131" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="7">
-        <f>+B130+1</f>
+        <f t="shared" ref="B131:B162" si="4">+B130+1</f>
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
@@ -8521,7 +8524,7 @@
     </row>
     <row r="132" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7">
-        <f>+B131+1</f>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
@@ -8551,7 +8554,7 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7">
-        <f>+B132+1</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
@@ -8577,7 +8580,7 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7">
-        <f>+B133+1</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -8603,7 +8606,7 @@
     </row>
     <row r="135" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7">
-        <f>+B134+1</f>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
@@ -8631,7 +8634,7 @@
     </row>
     <row r="136" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7">
-        <f>+B135+1</f>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
@@ -8659,7 +8662,7 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="7">
-        <f>+B136+1</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
@@ -8679,7 +8682,7 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="7">
-        <f>+B137+1</f>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
@@ -8699,7 +8702,7 @@
     </row>
     <row r="139" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7">
-        <f>+B138+1</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -8721,7 +8724,7 @@
     </row>
     <row r="140" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7">
-        <f>+B139+1</f>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
@@ -8745,7 +8748,7 @@
     </row>
     <row r="141" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="7">
-        <f>+B140+1</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
@@ -8769,7 +8772,7 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7">
-        <f>+B141+1</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
@@ -8791,7 +8794,7 @@
     </row>
     <row r="143" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7">
-        <f>+B142+1</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
@@ -8815,7 +8818,7 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="7">
-        <f>+B143+1</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="C144" s="10" t="s">
@@ -8835,7 +8838,7 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="7">
-        <f>+B144+1</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
@@ -8855,7 +8858,7 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="7">
-        <f>+B145+1</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -8877,7 +8880,7 @@
     </row>
     <row r="147" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7">
-        <f>+B146+1</f>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -8901,7 +8904,7 @@
     </row>
     <row r="148" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7">
-        <f>+B147+1</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="C148" s="10" t="s">
@@ -8925,7 +8928,7 @@
     </row>
     <row r="149" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="7">
-        <f>+B148+1</f>
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -8949,7 +8952,7 @@
     </row>
     <row r="150" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7">
-        <f>+B149+1</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="C150" s="10" t="s">
@@ -8971,7 +8974,7 @@
     </row>
     <row r="151" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7">
-        <f>+B150+1</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="C151" s="10" t="s">
@@ -8993,7 +8996,7 @@
     </row>
     <row r="152" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7">
-        <f>+B151+1</f>
+        <f t="shared" si="4"/>
         <v>151</v>
       </c>
       <c r="C152" s="10" t="s">
@@ -9015,7 +9018,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="7">
-        <f>+B152+1</f>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="C153" s="10" t="s">
@@ -9037,7 +9040,7 @@
     </row>
     <row r="154" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7">
-        <f>+B153+1</f>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="C154" s="10" t="s">
@@ -9061,7 +9064,7 @@
     </row>
     <row r="155" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7">
-        <f>+B154+1</f>
+        <f t="shared" si="4"/>
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
@@ -9085,7 +9088,7 @@
     </row>
     <row r="156" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7">
-        <f>+B155+1</f>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -9107,7 +9110,7 @@
     </row>
     <row r="157" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B157" s="7">
-        <f>+B156+1</f>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -9127,7 +9130,7 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="7">
-        <f>+B157+1</f>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="C158" s="10" t="s">
@@ -9147,7 +9150,7 @@
     </row>
     <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="7">
-        <f>+B158+1</f>
+        <f t="shared" si="4"/>
         <v>158</v>
       </c>
       <c r="C159" s="10" t="s">
@@ -9173,7 +9176,7 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="7">
-        <f>+B159+1</f>
+        <f t="shared" si="4"/>
         <v>159</v>
       </c>
       <c r="C160" s="10" t="s">
@@ -9193,7 +9196,7 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="7">
-        <f>+B160+1</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -9215,7 +9218,7 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="7">
-        <f>+B161+1</f>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="C162" s="10" t="s">
@@ -9227,7 +9230,9 @@
       <c r="E162" s="13">
         <v>1</v>
       </c>
-      <c r="F162" s="13"/>
+      <c r="F162" s="13" t="s">
+        <v>548</v>
+      </c>
       <c r="G162" s="13"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -9237,7 +9242,7 @@
     </row>
     <row r="163" spans="2:10" ht="78" x14ac:dyDescent="0.3">
       <c r="B163" s="7">
-        <f>+B162+1</f>
+        <f t="shared" ref="B163:B173" si="5">+B162+1</f>
         <v>162</v>
       </c>
       <c r="C163" s="10" t="s">
@@ -9263,7 +9268,7 @@
     </row>
     <row r="164" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B164" s="7">
-        <f>+B163+1</f>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="C164" s="10" t="s">
@@ -9283,7 +9288,7 @@
     </row>
     <row r="165" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B165" s="7">
-        <f>+B164+1</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="C165" s="10" t="s">
@@ -9303,7 +9308,7 @@
     </row>
     <row r="166" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7">
-        <f>+B165+1</f>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="C166" s="10" t="s">
@@ -9327,7 +9332,7 @@
     </row>
     <row r="167" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7">
-        <f>+B166+1</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="C167" s="10" t="s">
@@ -9347,7 +9352,7 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="7">
-        <f>+B167+1</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="C168" s="10" t="s">
@@ -9367,7 +9372,7 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="7">
-        <f>+B168+1</f>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="C169" s="10" t="s">
@@ -9387,7 +9392,7 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="7">
-        <f>+B169+1</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="C170" s="10" t="s">
@@ -9407,7 +9412,7 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="7">
-        <f>+B170+1</f>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="C171" s="10" t="s">
@@ -9425,7 +9430,7 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="7">
-        <f>+B171+1</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="C172" s="10" t="s">
@@ -9443,7 +9448,7 @@
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="7">
-        <f>+B172+1</f>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="C173" s="10" t="s">
@@ -10500,12 +10505,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153 F157:G159 F162:G163 G160:G161 G166 F165:G165">
+  <conditionalFormatting sqref="G153 F157:G159 G160:G161 G166 F165:G165 F162:G163">
     <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153 F157:G159 F162:G163 G160:G161 G166 F165:G165">
+  <conditionalFormatting sqref="G153 F157:G159 G160:G161 G166 F165:G165 F162:G163">
     <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -13129,7 +13134,7 @@
       </c>
       <c r="EK1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="EL1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13137,7 +13142,7 @@
       </c>
       <c r="EM1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="EN1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17242,11 +17247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="AP34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -17429,11 +17434,11 @@
       </c>
       <c r="AP1" s="25" t="str">
         <f t="shared" ref="AP1" ca="1" si="8">IF(TODAY()&gt;=AP2,IF(TODAY()&lt;AQ2,"]",""),"")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="AQ1" s="25" t="str">
         <f t="shared" ref="AQ1" ca="1" si="9">IF(TODAY()&gt;=AQ2,IF(TODAY()&lt;AR2,"]",""),"")</f>
-        <v/>
+        <v>]</v>
       </c>
       <c r="AR1" s="25" t="str">
         <f t="shared" ref="AR1" ca="1" si="10">IF(TODAY()&gt;=AR2,IF(TODAY()&lt;AS2,"]",""),"")</f>

--- a/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Attivita.xlsx
@@ -24,7 +24,7 @@
     <sheet name="Roadmap BigBang" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$175</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="616">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1617,12 +1617,6 @@
 - Forborne: cambiare soglia BR148</t>
   </si>
   <si>
-    <t>dal 01/09</t>
-  </si>
-  <si>
-    <t>dal 29/08</t>
-  </si>
-  <si>
     <t>fare stime e pianificazione - consegna 15/12</t>
   </si>
   <si>
@@ -1708,13 +1702,7 @@
     <t>BR546</t>
   </si>
   <si>
-    <t>cambio colore</t>
-  </si>
-  <si>
     <t>cambio soglia</t>
-  </si>
-  <si>
-    <t>Semaforo Qualitativo</t>
   </si>
   <si>
     <t>SEMAFORO_RATE_IMPAGATE</t>
@@ -1860,6 +1848,54 @@
   </si>
   <si>
     <t>AFU Banche Estere - implementare testo Nodo Criterion</t>
+  </si>
+  <si>
+    <t>cambio colore Eccezione</t>
+  </si>
+  <si>
+    <t>modifica LIB_EWS_RETAIL.getSingleModules.fe</t>
+  </si>
+  <si>
+    <t>cambio soglia e colore Eccezione</t>
+  </si>
+  <si>
+    <t>rosso</t>
+  </si>
+  <si>
+    <t>br146</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>br564</t>
+  </si>
+  <si>
+    <t>br563</t>
+  </si>
+  <si>
+    <t>br565</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>già sanato</t>
+  </si>
+  <si>
+    <t>RETAIL - Eccezione 2 (downgrade colore)</t>
+  </si>
+  <si>
+    <t>RETAIL - Eccezione 3 (regola or anziché and)</t>
+  </si>
+  <si>
+    <t>RETAIL - Eccezione 6 (regola rifatta)</t>
+  </si>
+  <si>
+    <t>CORPORATE - Eccezione 5  (regola rifatta e mancava una BR)</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2678,6 +2714,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4950,11 +4990,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE195"/>
+  <dimension ref="A1:AE201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9361,10 +9401,10 @@
         <v>156</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>517</v>
@@ -9374,7 +9414,7 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="122" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
@@ -9383,7 +9423,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="13" t="s">
@@ -9394,7 +9434,7 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -9480,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="5"/>
@@ -9489,13 +9529,13 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="7">
         <f t="shared" ref="B163:B175" si="5">+B162+1</f>
         <v>162</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>523</v>
@@ -9503,11 +9543,11 @@
       <c r="E163" s="121">
         <v>1</v>
       </c>
-      <c r="F163" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>525</v>
+      <c r="F163" s="13">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13">
+        <v>1</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -9521,7 +9561,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="13" t="s">
@@ -9532,7 +9572,7 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="120" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
@@ -9552,7 +9592,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="120" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -9596,7 +9636,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="120" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
@@ -9616,7 +9656,7 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="120" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
@@ -9625,7 +9665,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="13" t="s">
@@ -9636,7 +9676,7 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="120" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
@@ -9645,7 +9685,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="13" t="s">
@@ -9663,7 +9703,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="13" t="s">
@@ -9681,7 +9721,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D172" s="17"/>
       <c r="E172" s="13" t="s">
@@ -9699,7 +9739,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>59</v>
@@ -9723,10 +9763,10 @@
         <v>173</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
@@ -9734,7 +9774,7 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="138" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
@@ -9743,18 +9783,22 @@
         <v>174</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
+        <v>597</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="G175" s="13"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="138" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10083,12 +10127,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="140" t="s">
+        <v>609</v>
+      </c>
+      <c r="C198" s="140" t="s">
+        <v>612</v>
+      </c>
+      <c r="D198" s="140" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="140" t="s">
+        <v>610</v>
+      </c>
+      <c r="C199" s="140" t="s">
+        <v>613</v>
+      </c>
+      <c r="D199" s="140" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C200" s="140" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201" s="140" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:J173">
+  <autoFilter ref="B1:J175">
     <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="dal 01/09"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E113:G113 E18:G68">
@@ -17080,7 +17160,7 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="113" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AR36" s="113"/>
       <c r="AS36" s="113"/>
@@ -17230,7 +17310,7 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="115"/>
       <c r="AQ38" s="115" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
@@ -17389,7 +17469,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BE40" s="32"/>
       <c r="BF40" s="32" t="s">
@@ -17460,7 +17540,7 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BA41" s="32"/>
       <c r="BB41" s="32"/>
@@ -17823,19 +17903,19 @@
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="134"/>
       <c r="C55" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="135"/>
       <c r="C56" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="136"/>
       <c r="C57" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -17899,7 +17979,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="137" t="s">
@@ -17907,12 +17987,12 @@
       </c>
       <c r="E3" s="83"/>
       <c r="F3" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="137" t="s">
@@ -17920,12 +18000,12 @@
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="137" t="s">
@@ -17933,12 +18013,12 @@
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="137" t="s">
@@ -17946,12 +18026,12 @@
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="137" t="s">
@@ -17959,12 +18039,12 @@
       </c>
       <c r="E7" s="83"/>
       <c r="F7" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="137" t="s">
@@ -17972,12 +18052,12 @@
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C9" s="82"/>
       <c r="D9" s="137" t="s">
@@ -17985,12 +18065,12 @@
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C10" s="82"/>
       <c r="D10" s="137" t="s">
@@ -17998,12 +18078,12 @@
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C11" s="82" t="s">
         <v>168</v>
@@ -18014,7 +18094,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="82" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C12" s="82" t="s">
         <v>168</v>
@@ -18025,7 +18105,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="82" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>168</v>
@@ -18036,7 +18116,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="82" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>168</v>
@@ -18047,7 +18127,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="82" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>168</v>
@@ -18058,7 +18138,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="82" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>168</v>
@@ -18069,7 +18149,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="82" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>168</v>
@@ -18080,7 +18160,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="82" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>168</v>
@@ -18091,7 +18171,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="82" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>168</v>
@@ -18102,7 +18182,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="82" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C20" s="82" t="s">
         <v>168</v>
@@ -18113,7 +18193,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="82" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C21" s="82" t="s">
         <v>168</v>
@@ -18124,7 +18204,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="82" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>168</v>
@@ -18135,7 +18215,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="82" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>168</v>
@@ -18146,7 +18226,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="82" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C24" s="82" t="s">
         <v>168</v>
@@ -18157,7 +18237,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="82" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>168</v>
@@ -18168,7 +18248,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="82" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C26" s="82" t="s">
         <v>168</v>
@@ -18179,7 +18259,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="82" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>168</v>
@@ -18190,7 +18270,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="82" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>168</v>
@@ -18201,7 +18281,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="82" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>168</v>
@@ -18212,7 +18292,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="82" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>168</v>
@@ -18223,7 +18303,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="82" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C31" s="82" t="s">
         <v>168</v>
@@ -18234,7 +18314,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="82" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
@@ -18245,7 +18325,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="82" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C33" s="82" t="s">
         <v>168</v>
@@ -18256,7 +18336,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="82" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C34" s="82" t="s">
         <v>168</v>
@@ -18267,7 +18347,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="82" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C35" s="82" t="s">
         <v>168</v>
@@ -18278,7 +18358,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="82" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="82" t="s">
@@ -18289,7 +18369,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="82" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C37" s="82" t="s">
         <v>168</v>
@@ -18300,7 +18380,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="82" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C38" s="82" t="s">
         <v>168</v>
@@ -18317,10 +18397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G3" sqref="G3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18330,10 +18410,10 @@
     <col min="3" max="3" width="6.296875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="24.19921875" customWidth="1"/>
+    <col min="6" max="6" width="40.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>337</v>
       </c>
@@ -18350,7 +18430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>171</v>
       </c>
@@ -18359,127 +18439,165 @@
       <c r="E3" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="84" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="139" t="s">
+        <v>551</v>
+      </c>
+      <c r="G3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="82"/>
       <c r="E4" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="84" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="139" t="s">
+        <v>600</v>
+      </c>
+      <c r="G4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I4" t="s">
+        <v>606</v>
+      </c>
+      <c r="J4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="139" t="s">
+        <v>600</v>
+      </c>
+      <c r="G5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I5" t="s">
+        <v>607</v>
+      </c>
+      <c r="J5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="82"/>
       <c r="E6" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="84" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="139" t="s">
+        <v>600</v>
+      </c>
+      <c r="G6" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" t="s">
+        <v>608</v>
+      </c>
+      <c r="J6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
       <c r="E7" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="84" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="139" t="s">
+        <v>602</v>
+      </c>
+      <c r="G7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="84"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="139" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
       <c r="E9" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="84"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
       <c r="E10" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="84"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84"/>
       <c r="E11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="84"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="82" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
       <c r="E12" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="84"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="84"/>
+      <c r="F12" s="84" t="s">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20292,10 +20410,10 @@
   <dimension ref="A1:IH15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="EI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="ES3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EM11" sqref="EM11"/>
+      <selection pane="bottomRight" activeCell="EW4" sqref="EW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20887,7 +21005,7 @@
       </c>
       <c r="EO1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="EP1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20895,7 +21013,7 @@
       </c>
       <c r="EQ1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="ER1" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22729,10 +22847,18 @@
       <c r="EZ4" s="64"/>
       <c r="FA4" s="64"/>
       <c r="FB4" s="64"/>
-      <c r="FC4" s="64"/>
-      <c r="FD4" s="64"/>
-      <c r="FE4" s="64"/>
-      <c r="FF4" s="64"/>
+      <c r="FC4" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="FD4" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="FE4" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="FF4" s="78" t="s">
+        <v>250</v>
+      </c>
       <c r="FG4" s="64"/>
       <c r="FH4" s="64"/>
       <c r="FI4" s="64"/>
@@ -24507,19 +24633,19 @@
       </c>
       <c r="FC8" s="57">
         <f t="shared" si="149"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FD8" s="57">
         <f t="shared" si="149"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FE8" s="57">
         <f t="shared" si="149"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FF8" s="57">
         <f t="shared" si="149"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FG8" s="57">
         <f t="shared" si="149"/>
